--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB510FDE-35C6-42E1-9544-DE3156B04448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7338D53-68DA-423B-91EA-C8E7FB6FABE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3526,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -5,27 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7338D53-68DA-423B-91EA-C8E7FB6FABE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B114698-B912-4ADA-8290-9734B900B413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>U[V]</t>
   </si>
@@ -50,12 +56,36 @@
   <si>
     <t>Zielona Dioda</t>
   </si>
+  <si>
+    <t>W SI:</t>
+  </si>
+  <si>
+    <t>I[A]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u:</t>
+  </si>
+  <si>
+    <t>X_0=</t>
+  </si>
+  <si>
+    <t>REGLINP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +107,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +139,31 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,20 +171,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="60% — akcent 1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% — akcent 2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% — akcent 6" xfId="6" builtinId="52"/>
+    <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
@@ -219,6 +314,182 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Linia_Trendu_czerwona</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5.000000000000001E-2"/>
+            <c:backward val="5.000000000000001E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10513272744904037"/>
+                  <c:y val="6.0781344639612357E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.1262x - 0.2338</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$O$10:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$10:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.6699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8200000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2630000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.567E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0230000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2634-4FD2-919C-2F3F439EF20C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
             <c:v>I(U)</c:v>
           </c:tx>
           <c:spPr>
@@ -245,7 +516,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$4:$C$16</c:f>
+              <c:f>Arkusz1!$H$4:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -293,48 +564,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$4:$B$16</c:f>
+              <c:f>Arkusz1!$G$4:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8200000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.63</c:v>
+                  <c:v>1.2630000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.67</c:v>
+                  <c:v>1.567E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.23</c:v>
+                  <c:v>2.0230000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,7 +613,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2634-4FD2-919C-2F3F439EF20C}"/>
+              <c16:uniqueId val="{00000004-C4C4-43F8-A181-94BF31DD2829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -378,6 +649,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -440,6 +767,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>I[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -615,9 +998,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>I(U)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -646,10 +1026,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$22:$C$49</c:f>
+              <c:f>Arkusz1!$H$29:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
@@ -736,90 +1116,90 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$22:$B$49</c:f>
+              <c:f>Arkusz1!$G$29:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>3.8999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34</c:v>
+                  <c:v>1.34E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.25</c:v>
+                  <c:v>3.2499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.98</c:v>
+                  <c:v>3.98E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.53</c:v>
+                  <c:v>4.5300000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.19</c:v>
+                  <c:v>5.1900000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.08</c:v>
+                  <c:v>6.0800000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.71</c:v>
+                  <c:v>6.7099999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.45</c:v>
+                  <c:v>7.45E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4600000000000009</c:v>
+                  <c:v>8.4600000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.75</c:v>
+                  <c:v>9.75E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.6</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.04</c:v>
+                  <c:v>1.2039999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.7</c:v>
+                  <c:v>1.2699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.98</c:v>
+                  <c:v>1.298E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.94</c:v>
+                  <c:v>1.3939999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.45</c:v>
+                  <c:v>1.4449999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.91</c:v>
+                  <c:v>1.491E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.59</c:v>
+                  <c:v>1.559E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.38</c:v>
+                  <c:v>1.5380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.350000000000001</c:v>
+                  <c:v>1.7350000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.690000000000001</c:v>
+                  <c:v>1.7690000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.66</c:v>
+                  <c:v>1.866E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,6 +1208,278 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C8-4FF8-AA4E-40340DDD405C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linia_Trendu_Niebieska</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5.000000000000001E-2"/>
+            <c:backward val="8.0000000000000016E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6807302072315586E-2"/>
+                  <c:y val="3.9826489252134625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.0527x - 0.1457</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$O$36:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$36:$N$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.98E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4600000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2039999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.298E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3939999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.491E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.559E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5380000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7690000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.866E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-523F-4CE0-B1FD-11EAFA665E72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -863,6 +1515,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -925,6 +1633,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>i[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1033,6 +1797,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>I(U)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Zielona</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1071,9 +1865,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>U(I) Zielona</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1102,10 +1893,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$54:$C$81</c:f>
+              <c:f>Arkusz1!$H$61:$H$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.6</c:v>
                 </c:pt>
@@ -1189,99 +1980,123 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$54:$B$81</c:f>
+              <c:f>Arkusz1!$G$61:$G$92</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>7.0000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11</c:v>
+                  <c:v>1.1E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17</c:v>
+                  <c:v>1.7000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26</c:v>
+                  <c:v>2.6000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41</c:v>
+                  <c:v>4.0999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63</c:v>
+                  <c:v>6.3000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98</c:v>
+                  <c:v>9.7999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.53</c:v>
+                  <c:v>1.5300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.31</c:v>
+                  <c:v>2.31E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.78</c:v>
+                  <c:v>2.7799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.37</c:v>
+                  <c:v>3.3700000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.03</c:v>
+                  <c:v>4.0300000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.79</c:v>
+                  <c:v>4.79E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.63</c:v>
+                  <c:v>5.6299999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.56</c:v>
+                  <c:v>6.5599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5300000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.66</c:v>
+                  <c:v>8.6599999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.8800000000000008</c:v>
+                  <c:v>9.8800000000000016E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.08</c:v>
+                  <c:v>1.108E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.46</c:v>
+                  <c:v>1.2460000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.06</c:v>
+                  <c:v>1.4060000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.44</c:v>
+                  <c:v>1.5439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.38</c:v>
+                  <c:v>1.738E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.989999999999998</c:v>
+                  <c:v>1.899E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.82</c:v>
+                  <c:v>2.0820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2710000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6929999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.869E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,6 +2105,260 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A054-4381-9E48-C61999237ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linia_Trendu_Zielona</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5.000000000000001E-2"/>
+            <c:backward val="5.000000000000001E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11315693871101788"/>
+                  <c:y val="2.0932302382380228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.1515x - 0.291</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$O$76:$O$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$76:$N$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.79E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6299999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6599999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8800000000000016E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.108E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2460000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4060000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5439999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.738E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2710000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6929999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.869E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA3A-41B6-9906-E9BC1414E32A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,6 +2394,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1387,7 +2512,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>I[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3152,16 +4333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3188,15 +4369,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3224,16 +4405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>322730</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>540124</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3524,37 +4705,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -3563,9 +4876,49 @@
       <c r="C4" s="2">
         <v>1.601</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1">
+        <f>B4/1000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.601</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -3574,9 +4927,49 @@
       <c r="C5" s="2">
         <v>1.7</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G15" si="0">B5/1000</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -3585,9 +4978,49 @@
       <c r="C6" s="2">
         <v>1.8</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -3596,9 +5029,49 @@
       <c r="C7" s="2">
         <v>1.82</v>
       </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -3607,9 +5080,49 @@
       <c r="C8" s="2">
         <v>1.84</v>
       </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="1">
@@ -3618,9 +5131,53 @@
       <c r="C9" s="2">
         <v>1.86</v>
       </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="1">
@@ -3629,12 +5186,66 @@
       <c r="C10" s="2">
         <v>1.88</v>
       </c>
-      <c r="D10">
-        <v>84</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="array" ref="K10:L11">LINEST(N10:N16,O10:O16,TRUE,TRUE)</f>
+        <v>0.12619642857142843</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-0.2338067857142854</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="1">
+        <f>G10</f>
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" ref="R10" si="1">-(L10)/K10</f>
+        <v>1.8527210980614117</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="1">
@@ -3643,9 +5254,60 @@
       <c r="C11" s="2">
         <v>1.9</v>
       </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.0920932787962004E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2.1191112607551257E-2</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N16" si="2">G11</f>
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="1">
@@ -3654,9 +5316,54 @@
       <c r="C12" s="2">
         <v>1.92</v>
       </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="1">
@@ -3665,9 +5372,54 @@
       <c r="C13" s="2">
         <v>1.94</v>
       </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="1">
@@ -3676,9 +5428,54 @@
       <c r="C14" s="2">
         <v>1.96</v>
       </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2630000000000001E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2630000000000001E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="1">
@@ -3687,9 +5484,54 @@
       <c r="C15" s="2">
         <v>1.98</v>
       </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.567E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.567E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="1">
@@ -3698,679 +5540,4001 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1">
+        <f>B16/1000</f>
+        <v>2.0230000000000001E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0230000000000001E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C29" s="2">
         <v>2.2000000000000002</v>
       </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1">
+        <f>B29/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B30" s="1">
         <v>0.01</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C30" s="2">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30:G55" si="3">B30/1000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B31" s="1">
         <v>0.04</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C31" s="2">
         <v>2.4</v>
       </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B32" s="1">
         <v>0.04</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C32" s="2">
         <v>2.5</v>
       </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B33" s="1">
         <v>0.39</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C33" s="2">
         <v>2.6</v>
       </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B34" s="1">
         <v>1.34</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C34" s="2">
         <v>2.7</v>
       </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.34E-3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B35" s="1">
         <v>3.25</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C35" s="2">
         <v>2.8</v>
       </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B36" s="1">
         <v>3.98</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C36" s="2">
         <v>2.82</v>
       </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>3.98E-3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="array" ref="K36:L37">LINEST(N36:N55,O36:O55,TRUE,TRUE)</f>
+        <v>5.2673612297181864E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>-0.1456770486763449</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="1">
+        <f>G36</f>
+        <v>3.98E-3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="6">
+        <f>-(L36)/K36</f>
+        <v>2.7656551795696549</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B37" s="1">
         <v>4.53</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C37" s="2">
         <v>2.84</v>
       </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1.5508463880743648E-3</v>
+      </c>
+      <c r="L37" s="6">
+        <v>4.6273017704222437E-3</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="1">
+        <f t="shared" ref="N37:N55" si="4">G37</f>
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B38" s="1">
         <v>5.19</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C38" s="2">
         <v>2.86</v>
       </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B39" s="1">
         <v>6.08</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C39" s="2">
         <v>2.88</v>
       </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>12</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B40" s="1">
         <v>6.71</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C40" s="2">
         <v>2.9</v>
       </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="O40" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>13</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B41" s="1">
         <v>7.45</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C41" s="2">
         <v>2.92</v>
       </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>7.45E-3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="1">
+        <f t="shared" si="4"/>
+        <v>7.45E-3</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>14</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B42" s="1">
         <v>8.4600000000000009</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C42" s="2">
         <v>2.94</v>
       </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4600000000000005E-3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4600000000000005E-3</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B43" s="1">
         <v>9.75</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C43" s="2">
         <v>2.96</v>
       </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>9.75E-3</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="1">
+        <f t="shared" si="4"/>
+        <v>9.75E-3</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>16</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B44" s="1">
         <v>10.6</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C44" s="2">
         <v>2.98</v>
       </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="O44" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>17</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B45" s="1">
         <v>12.04</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C45" s="2">
         <v>3</v>
       </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2039999999999999E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2039999999999999E-2</v>
+      </c>
+      <c r="O45" s="2">
+        <v>3</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>18</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B46" s="1">
         <v>12.7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C46" s="2">
         <v>3.01</v>
       </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>19</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B47" s="1">
         <v>12.98</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C47" s="2">
         <v>3.02</v>
       </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>1.298E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="1">
+        <f t="shared" si="4"/>
+        <v>1.298E-2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>20</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B48" s="1">
         <v>13.94</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C48" s="2">
         <v>3.03</v>
       </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3939999999999999E-2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3939999999999999E-2</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>21</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B49" s="1">
         <v>14.45</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C49" s="2">
         <v>3.04</v>
       </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4449999999999999E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4449999999999999E-2</v>
+      </c>
+      <c r="O49" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>22</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B50" s="1">
         <v>14.91</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C50" s="2">
         <v>3.05</v>
       </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1">
+        <f t="shared" si="3"/>
+        <v>1.491E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="1">
+        <f t="shared" si="4"/>
+        <v>1.491E-2</v>
+      </c>
+      <c r="O50" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>23</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B51" s="1">
         <v>15.59</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C51" s="2">
         <v>3.06</v>
       </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1">
+        <f t="shared" si="3"/>
+        <v>1.559E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="1">
+        <f t="shared" si="4"/>
+        <v>1.559E-2</v>
+      </c>
+      <c r="O51" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>24</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B52" s="1">
         <v>15.38</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C52" s="2">
         <v>3.07</v>
       </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5380000000000001E-2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5380000000000001E-2</v>
+      </c>
+      <c r="O52" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>25</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B53" s="1">
         <v>17.350000000000001</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C53" s="2">
         <v>3.08</v>
       </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>26</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B54" s="1">
         <v>17.690000000000001</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C54" s="2">
         <v>3.09</v>
       </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7690000000000001E-2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7690000000000001E-2</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>27</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B55" s="1">
         <v>18.66</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C55" s="2">
         <v>3.1</v>
       </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1">
+        <f t="shared" si="3"/>
+        <v>1.866E-2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="1">
+        <f t="shared" si="4"/>
+        <v>1.866E-2</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>1</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C61" s="3">
         <v>1.6</v>
       </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5">
+        <f>B61/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>2</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B62" s="4">
         <v>0.02</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C62" s="3">
         <v>1.7</v>
       </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="5">
+        <f t="shared" ref="G62:G67" si="5">B62/1000</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>3</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B63" s="4">
         <v>0.04</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C63" s="3">
         <v>1.72</v>
       </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>4</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B64" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C64" s="3">
         <v>1.74</v>
       </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="5">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>5</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B65" s="4">
         <v>0.11</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C65" s="3">
         <v>1.76</v>
       </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1E-4</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>6</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B66" s="4">
         <v>0.17</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C66" s="3">
         <v>1.78</v>
       </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>7</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B67" s="4">
         <v>0.26</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C67" s="3">
         <v>1.8</v>
       </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>8</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B68" s="4">
         <v>0.41</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C68" s="3">
         <v>1.82</v>
       </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="5">
+        <f t="shared" ref="G62:G92" si="6">B68/1000</f>
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>9</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B69" s="4">
         <v>0.63</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C69" s="3">
         <v>1.84</v>
       </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5">
+        <f t="shared" si="6"/>
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>10</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B70" s="4">
         <v>0.98</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C70" s="3">
         <v>1.86</v>
       </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="5">
+        <f t="shared" si="6"/>
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>11</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B71" s="4">
         <v>1.53</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C71" s="3">
         <v>1.88</v>
       </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5300000000000001E-3</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>12</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B72" s="4">
         <v>2.31</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C72" s="3">
         <v>1.9</v>
       </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5">
+        <f t="shared" si="6"/>
+        <v>2.31E-3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>13</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B73" s="4">
         <v>2.78</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C73" s="3">
         <v>1.91</v>
       </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="5">
+        <f t="shared" si="6"/>
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>14</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B74" s="4">
         <v>3.37</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C74" s="3">
         <v>1.92</v>
       </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="5">
+        <f t="shared" si="6"/>
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>15</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B75" s="4">
         <v>4.03</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C75" s="3">
         <v>1.93</v>
       </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="5">
+        <f t="shared" si="6"/>
+        <v>4.0300000000000006E-3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>16</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B76" s="4">
         <v>4.79</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C76" s="3">
         <v>1.94</v>
       </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5">
+        <f t="shared" si="6"/>
+        <v>4.79E-3</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="array" ref="K76:L77">LINEST(N76:N92,O76:O92,TRUE,TRUE)</f>
+        <v>0.15152205882352945</v>
+      </c>
+      <c r="L76" s="6">
+        <v>-0.29098161764705882</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5">
+        <f>G76</f>
+        <v>4.79E-3</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R76" s="6">
+        <f t="shared" ref="R76" si="7">-(L76)/K76</f>
+        <v>1.9203911292279316</v>
+      </c>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
         <v>17</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B77" s="4">
         <v>5.63</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C77" s="3">
         <v>1.95</v>
       </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="5">
+        <f t="shared" si="6"/>
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="6">
+        <v>5.0410460788423376E-3</v>
+      </c>
+      <c r="L77" s="6">
+        <v>1.0185907319878824E-2</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5">
+        <f t="shared" ref="N77:N92" si="8">G77</f>
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>18</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B78" s="4">
         <v>6.56</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C78" s="3">
         <v>1.96</v>
       </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="5">
+        <f t="shared" si="6"/>
+        <v>6.5599999999999999E-3</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5">
+        <f t="shared" si="8"/>
+        <v>6.5599999999999999E-3</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="9"/>
+      <c r="AJ78" s="9"/>
+      <c r="AK78" s="9"/>
+      <c r="AL78" s="9"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>19</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B79" s="4">
         <v>7.53</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C79" s="3">
         <v>1.97</v>
       </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="5">
+        <f t="shared" si="6"/>
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5">
+        <f t="shared" si="8"/>
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="O79" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="9"/>
+      <c r="AJ79" s="9"/>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="9"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>20</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B80" s="4">
         <v>8.66</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C80" s="3">
         <v>1.98</v>
       </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="5">
+        <f t="shared" si="6"/>
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="I80" s="6"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5">
+        <f t="shared" si="8"/>
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="O80" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="9"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="9"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>21</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B81" s="4">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C81" s="3">
         <v>1.99</v>
       </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="5">
+        <f t="shared" si="6"/>
+        <v>9.8800000000000016E-3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5">
+        <f t="shared" si="8"/>
+        <v>9.8800000000000016E-3</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="9"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>22</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B82" s="4">
         <v>11.08</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C82" s="3">
         <v>2</v>
       </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="5">
+        <f t="shared" si="6"/>
+        <v>1.108E-2</v>
+      </c>
+      <c r="H82" s="3">
+        <v>2</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5">
+        <f t="shared" si="8"/>
+        <v>1.108E-2</v>
+      </c>
+      <c r="O82" s="3">
+        <v>2</v>
+      </c>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="9"/>
+      <c r="AI82" s="9"/>
+      <c r="AJ82" s="9"/>
+      <c r="AK82" s="9"/>
+      <c r="AL82" s="9"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>23</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B83" s="4">
         <v>12.46</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C83" s="3">
         <v>2.0099999999999998</v>
       </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="O83" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="9"/>
+      <c r="AI83" s="9"/>
+      <c r="AJ83" s="9"/>
+      <c r="AK83" s="9"/>
+      <c r="AL83" s="9"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>24</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B84" s="4">
         <v>14.06</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C84" s="3">
         <v>2.02</v>
       </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4060000000000001E-2</v>
+      </c>
+      <c r="O84" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="9"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>25</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B85" s="4">
         <v>15.44</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C85" s="3">
         <v>2.0299999999999998</v>
       </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5439999999999999E-2</v>
+      </c>
+      <c r="H85" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5439999999999999E-2</v>
+      </c>
+      <c r="O85" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="9"/>
+      <c r="AG85" s="9"/>
+      <c r="AH85" s="9"/>
+      <c r="AI85" s="9"/>
+      <c r="AJ85" s="9"/>
+      <c r="AK85" s="9"/>
+      <c r="AL85" s="9"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>26</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B86" s="4">
         <v>17.38</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C86" s="3">
         <v>2.04</v>
       </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="5">
+        <f t="shared" si="6"/>
+        <v>1.738E-2</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5">
+        <f t="shared" si="8"/>
+        <v>1.738E-2</v>
+      </c>
+      <c r="O86" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="9"/>
+      <c r="AI86" s="9"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="9"/>
+      <c r="AL86" s="9"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>27</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B87" s="4">
         <v>18.989999999999998</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C87" s="3">
         <v>2.0499999999999998</v>
       </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="5">
+        <f t="shared" si="6"/>
+        <v>1.899E-2</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5">
+        <f t="shared" si="8"/>
+        <v>1.899E-2</v>
+      </c>
+      <c r="O87" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
+      <c r="AE87" s="9"/>
+      <c r="AF87" s="9"/>
+      <c r="AG87" s="9"/>
+      <c r="AH87" s="9"/>
+      <c r="AI87" s="9"/>
+      <c r="AJ87" s="9"/>
+      <c r="AK87" s="9"/>
+      <c r="AL87" s="9"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>28</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B88" s="4">
         <v>20.82</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C88" s="3">
         <v>2.06</v>
       </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0820000000000002E-2</v>
+      </c>
+      <c r="H88" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="I88" s="6"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5">
+        <f t="shared" si="8"/>
+        <v>2.0820000000000002E-2</v>
+      </c>
+      <c r="O88" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
+      <c r="AE88" s="9"/>
+      <c r="AF88" s="9"/>
+      <c r="AG88" s="9"/>
+      <c r="AH88" s="9"/>
+      <c r="AI88" s="9"/>
+      <c r="AJ88" s="9"/>
+      <c r="AK88" s="9"/>
+      <c r="AL88" s="9"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="4">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>29</v>
+      </c>
+      <c r="B89" s="4">
         <v>22.71</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C89" s="3">
         <v>2.0699999999999998</v>
       </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="5">
+        <f t="shared" si="6"/>
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5">
+        <f t="shared" si="8"/>
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="O89" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="9"/>
+      <c r="AF89" s="9"/>
+      <c r="AG89" s="9"/>
+      <c r="AH89" s="9"/>
+      <c r="AI89" s="9"/>
+      <c r="AJ89" s="9"/>
+      <c r="AK89" s="9"/>
+      <c r="AL89" s="9"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="4">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>30</v>
+      </c>
+      <c r="B90" s="4">
         <v>24.97</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C90" s="3">
         <v>2.08</v>
       </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4969999999999999E-2</v>
+      </c>
+      <c r="H90" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5">
+        <f t="shared" si="8"/>
+        <v>2.4969999999999999E-2</v>
+      </c>
+      <c r="O90" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="9"/>
+      <c r="AG90" s="9"/>
+      <c r="AH90" s="9"/>
+      <c r="AI90" s="9"/>
+      <c r="AJ90" s="9"/>
+      <c r="AK90" s="9"/>
+      <c r="AL90" s="9"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="4">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>31</v>
+      </c>
+      <c r="B91" s="4">
         <v>26.93</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C91" s="3">
         <v>2.09</v>
       </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6929999999999999E-2</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5">
+        <f t="shared" si="8"/>
+        <v>2.6929999999999999E-2</v>
+      </c>
+      <c r="O91" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="9"/>
+      <c r="AJ91" s="9"/>
+      <c r="AK91" s="9"/>
+      <c r="AL91" s="9"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="4">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>32</v>
+      </c>
+      <c r="B92" s="4">
         <v>28.69</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C92" s="3">
         <v>2.1</v>
       </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="5">
+        <f t="shared" si="6"/>
+        <v>2.869E-2</v>
+      </c>
+      <c r="H92" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="I92" s="6"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5">
+        <f t="shared" si="8"/>
+        <v>2.869E-2</v>
+      </c>
+      <c r="O92" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+      <c r="AF92" s="9"/>
+      <c r="AG92" s="9"/>
+      <c r="AH92" s="9"/>
+      <c r="AI92" s="9"/>
+      <c r="AJ92" s="9"/>
+      <c r="AK92" s="9"/>
+      <c r="AL92" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B114698-B912-4ADA-8290-9734B900B413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499FDD4-1239-413E-9BBD-BE06C1C4DA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>U[V]</t>
   </si>
@@ -77,13 +77,37 @@
   <si>
     <t>REGLINP</t>
   </si>
+  <si>
+    <t>h=</t>
+  </si>
+  <si>
+    <t>e=</t>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
+  <si>
+    <t>U_B=</t>
+  </si>
+  <si>
+    <t>h=(e*lambda*Ub)/(c)</t>
+  </si>
+  <si>
+    <t>NIEPEWNOSCI</t>
+  </si>
+  <si>
+    <t>u(I)[A]:</t>
+  </si>
+  <si>
+    <t>u(U)[V]:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -202,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
@@ -419,6 +443,152 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$2:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2700000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.3399999999999997E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3299999999999994E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6619999999999995E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.371999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1406E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0999999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1206000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.9414000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$2:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2700000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.3399999999999997E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3299999999999994E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6619999999999995E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.371999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1406E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0999999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1206000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.9414000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$O$10:$O$16</c:f>
@@ -514,6 +684,260 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$2:$AL$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.8005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8500000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9300000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.95E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9599999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9700000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9799999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.9900000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$2:$AL$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.8005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8500000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9300000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.95E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9599999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9700000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9799999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.9900000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$2:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2700000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.3399999999999997E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3299999999999994E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6619999999999995E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.371999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1406E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0999999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1206000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.9414000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$2:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2700000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.3399999999999997E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3299999999999994E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6619999999999995E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.371999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1406E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.0999999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1206000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.9414000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$H$4:$H$16</c:f>
@@ -1024,6 +1448,404 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$26:$AL$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>2.1000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1499999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2499999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.35E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.41E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4199999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.4300000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.4399999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.4500000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.46E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.47E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.4800000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.4899999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.5049999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.5100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.5149999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.52E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.5250000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5300000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.5349999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.5399999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.545E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.5500000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$26:$AL$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>2.1000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1499999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2499999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.35E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.41E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4199999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.4300000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.4399999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.4500000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.46E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.47E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.4800000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.4899999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.5049999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.5100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.5149999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.52E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.5250000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5300000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.5349999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.5399999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.545E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.5500000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$26:$AK$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7020000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.4120000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.8499999999999996E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0164000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1154000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2342000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.5077999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.6409999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.8228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.0549999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.2079999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4671999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.586E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.6363999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.8091999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.901E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.9838E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.1062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.0684000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4230000000000003E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4842E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.6588000000000001E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$26:$AK$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0180000000000006E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7020000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.4120000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.8499999999999996E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0164000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1154000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2342000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3944000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.5077999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.6409999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.8228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.0549999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.2079999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4671999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.586E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.6363999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.8091999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.901E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.9838E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.1062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.0684000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4230000000000003E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4842E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.6588000000000001E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$H$29:$H$55</c:f>
@@ -1338,6 +2160,41 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$O$36:$O$55</c:f>
@@ -2168,8 +3025,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="5.000000000000001E-2"/>
-            <c:backward val="5.000000000000001E-2"/>
+            <c:forward val="9.0000000000000024E-2"/>
+            <c:backward val="9.0000000000000024E-2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2235,61 +3092,57 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$O$76:$O$92</c:f>
+              <c:f>Arkusz1!$O$82:$O$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.94</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.95</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.96</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.97</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.98</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.99</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.02</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2297,59 +3150,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$N$76:$N$92</c:f>
+              <c:f>Arkusz1!$N$82:$N$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.79E-3</c:v>
+                  <c:v>1.108E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6299999999999996E-3</c:v>
+                  <c:v>1.2460000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5599999999999999E-3</c:v>
+                  <c:v>1.4060000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5300000000000002E-3</c:v>
+                  <c:v>1.5439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6599999999999993E-3</c:v>
+                  <c:v>1.738E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8800000000000016E-3</c:v>
+                  <c:v>1.899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.108E-2</c:v>
+                  <c:v>2.0820000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2460000000000001E-2</c:v>
+                  <c:v>2.2710000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4060000000000001E-2</c:v>
+                  <c:v>2.4969999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5439999999999999E-2</c:v>
+                  <c:v>2.6929999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.738E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.899E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0820000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2710000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4969999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6929999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>2.869E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4334,15 +5169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>566056</xdr:colOff>
+      <xdr:colOff>566055</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4371,12 +5206,12 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -4707,28 +5542,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AK61" sqref="AK61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -4748,8 +5586,13 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7">
+        <f>299792458</f>
+        <v>299792458</v>
+      </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -4770,11 +5613,17 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
+      <c r="AJ1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -4783,8 +5632,9 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
+      <c r="G2" s="7">
+        <f>612*10^(-9)</f>
+        <v>6.1200000000000003E-7</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -4792,8 +5642,13 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7">
+        <f>1.6021766341*10^(-19)</f>
+        <v>1.6021766341E-19</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4815,10 +5670,16 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="7">
+        <f t="shared" ref="AK2:AK16" si="0">ABS(0.018*G4+3*0.00001)</f>
+        <v>3.0180000000000006E-5</v>
+      </c>
+      <c r="AL2" s="7">
+        <f>ABS(0.005*H4+1*0.01)</f>
+        <v>1.8005E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -4863,10 +5724,16 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2700000000000002E-5</v>
+      </c>
+      <c r="AL3" s="7">
+        <f t="shared" ref="AL2:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
+        <v>1.8500000000000003E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4914,10 +5781,16 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
+      <c r="AK4" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3399999999999997E-5</v>
+      </c>
+      <c r="AL4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000003E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4931,7 +5804,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G15" si="0">B5/1000</f>
+        <f t="shared" ref="G5:G15" si="2">B5/1000</f>
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="H5" s="2">
@@ -4965,10 +5838,16 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
+      <c r="AK5" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="AL5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9099999999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -4982,7 +5861,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H6" s="2">
@@ -5016,10 +5895,16 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
+      <c r="AK6" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6619999999999995E-5</v>
+      </c>
+      <c r="AL6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -5033,7 +5918,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8500000000000001E-3</v>
       </c>
       <c r="H7" s="2">
@@ -5067,10 +5952,16 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
+      <c r="AK7" s="7">
+        <f t="shared" si="0"/>
+        <v>9.371999999999999E-5</v>
+      </c>
+      <c r="AL7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9300000000000001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -5084,7 +5975,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5899999999999999E-3</v>
       </c>
       <c r="H8" s="2">
@@ -5118,10 +6009,16 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AK8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1406E-4</v>
+      </c>
+      <c r="AL8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9400000000000001E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -5135,7 +6032,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5400000000000002E-3</v>
       </c>
       <c r="H9" s="2">
@@ -5173,10 +6070,16 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
+      <c r="AK9" s="7">
+        <f>ABS(0.018*G11+3*0.00001)</f>
+        <v>1.3944000000000001E-4</v>
+      </c>
+      <c r="AL9" s="7">
+        <f>ABS(0.005*H11+1*0.01)</f>
+        <v>1.95E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -5190,7 +6093,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6699999999999997E-3</v>
       </c>
       <c r="H10" s="2">
@@ -5201,11 +6104,11 @@
         <v>10</v>
       </c>
       <c r="K10" s="6">
-        <f t="array" ref="K10:L11">LINEST(N10:N16,O10:O16,TRUE,TRUE)</f>
-        <v>0.12619642857142843</v>
+        <f t="array" ref="K10:L11">LINEST(N15:N16,O15:O16,TRUE,TRUE)</f>
+        <v>0.22799999999999981</v>
       </c>
       <c r="L10" s="6">
-        <v>-0.2338067857142854</v>
+        <v>-0.4357699999999996</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1">
@@ -5215,13 +6118,15 @@
       <c r="O10" s="2">
         <v>1.88</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ref="R10" si="1">-(L10)/K10</f>
-        <v>1.8527210980614117</v>
+        <f t="shared" ref="R10" si="3">-(L10)/K10</f>
+        <v>1.9112719298245613</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -5241,10 +6146,16 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
+      <c r="AK10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7076E-4</v>
+      </c>
+      <c r="AL10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -5258,7 +6169,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="H11" s="2">
@@ -5269,14 +6180,14 @@
         <v>12</v>
       </c>
       <c r="K11" s="6">
-        <v>1.0920932787962004E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="6">
-        <v>2.1191112607551257E-2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N16" si="2">G11</f>
+        <f t="shared" ref="N11:N16" si="4">G11</f>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="O11" s="2">
@@ -5303,10 +6214,16 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
+      <c r="AK11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999998E-4</v>
+      </c>
+      <c r="AL11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9700000000000002E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -5320,7 +6237,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8200000000000006E-3</v>
       </c>
       <c r="H12" s="2">
@@ -5332,7 +6249,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8200000000000006E-3</v>
       </c>
       <c r="O12" s="2">
@@ -5359,10 +6276,16 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
+      <c r="AK12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5734E-4</v>
+      </c>
+      <c r="AL12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9799999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -5376,7 +6299,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="H13" s="2">
@@ -5388,7 +6311,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="O13" s="2">
@@ -5397,7 +6320,9 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -5415,10 +6340,16 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
+      <c r="AK13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1206000000000002E-4</v>
+      </c>
+      <c r="AL13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9900000000000001E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -5432,7 +6363,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2630000000000001E-2</v>
       </c>
       <c r="H14" s="2">
@@ -5444,7 +6375,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2630000000000001E-2</v>
       </c>
       <c r="O14" s="2">
@@ -5452,8 +6383,13 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="R14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="6">
+        <f>($O$2*G2*R10)/($O$1)</f>
+        <v>6.2512028876796821E-34</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -5471,10 +6407,16 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
+      <c r="AK14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9414000000000002E-4</v>
+      </c>
+      <c r="AL14" s="7">
+        <f>ABS(0.005*H16+1*0.01)</f>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -5488,7 +6430,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.567E-2</v>
       </c>
       <c r="H15" s="2">
@@ -5500,7 +6442,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.567E-2</v>
       </c>
       <c r="O15" s="2">
@@ -5527,10 +6469,16 @@
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
+      <c r="AK15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004E-5</v>
+      </c>
+      <c r="AL15" s="7">
+        <f t="shared" ref="AL15:AL16" si="5">ABS(0.005*H17+1*0.01)</f>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -5556,7 +6504,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0230000000000001E-2</v>
       </c>
       <c r="O16" s="2">
@@ -5583,10 +6531,16 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
+      <c r="AK16" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004E-5</v>
+      </c>
+      <c r="AL16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5626,7 +6580,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5666,7 +6620,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5706,7 +6660,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5746,7 +6700,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5786,7 +6740,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5826,7 +6780,7 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5866,7 +6820,7 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5906,7 +6860,7 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5942,11 +6896,17 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
+      <c r="AJ25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL25" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>4</v>
@@ -5987,10 +6947,16 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="AK26" s="8">
+        <f>ABS(0.018*G29+3*0.00001)</f>
+        <v>3.0000000000000004E-5</v>
+      </c>
+      <c r="AL26" s="8">
+        <f>ABS(0.005*H29+1*0.01)</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>5</v>
@@ -5999,8 +6965,9 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>5</v>
+      <c r="G27" s="8">
+        <f>440*10^(-9)</f>
+        <v>4.4000000000000002E-7</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -6031,10 +6998,16 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="AK27" s="8">
+        <f t="shared" ref="AK27:AK55" si="6">ABS(0.018*G30+3*0.00001)</f>
+        <v>3.0180000000000006E-5</v>
+      </c>
+      <c r="AL27" s="8">
+        <f t="shared" ref="AL27:AL52" si="7">ABS(0.005*H30+1*0.01)</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -6079,10 +7052,16 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
+      <c r="AK28" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0720000000000004E-5</v>
+      </c>
+      <c r="AL28" s="8">
+        <f t="shared" si="7"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -6130,10 +7109,16 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
+      <c r="AK29" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0720000000000004E-5</v>
+      </c>
+      <c r="AL29" s="8">
+        <f t="shared" si="7"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -6147,7 +7132,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:G55" si="3">B30/1000</f>
+        <f t="shared" ref="G30:G55" si="8">B30/1000</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H30" s="2">
@@ -6181,10 +7166,16 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
+      <c r="AK30" s="8">
+        <f t="shared" si="6"/>
+        <v>3.7020000000000001E-5</v>
+      </c>
+      <c r="AL30" s="8">
+        <f t="shared" si="7"/>
+        <v>2.3E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -6198,7 +7189,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H31" s="2">
@@ -6232,10 +7223,16 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="AK31" s="8">
+        <f t="shared" si="6"/>
+        <v>5.4120000000000004E-5</v>
+      </c>
+      <c r="AL31" s="8">
+        <f t="shared" si="7"/>
+        <v>2.35E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>4</v>
       </c>
@@ -6249,7 +7246,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H32" s="2">
@@ -6283,10 +7280,16 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="AK32" s="8">
+        <f t="shared" si="6"/>
+        <v>8.8499999999999996E-5</v>
+      </c>
+      <c r="AL32" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>5</v>
       </c>
@@ -6300,7 +7303,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="H33" s="2">
@@ -6334,10 +7337,16 @@
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="AK33" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0164000000000001E-4</v>
+      </c>
+      <c r="AL33" s="8">
+        <f t="shared" si="7"/>
+        <v>2.41E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>6</v>
       </c>
@@ -6351,7 +7360,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.34E-3</v>
       </c>
       <c r="H34" s="2">
@@ -6385,10 +7394,16 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+      <c r="AK34" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1154000000000001E-4</v>
+      </c>
+      <c r="AL34" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>7</v>
       </c>
@@ -6402,7 +7417,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.2499999999999999E-3</v>
       </c>
       <c r="H35" s="2">
@@ -6440,10 +7455,16 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
+      <c r="AK35" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2342000000000001E-4</v>
+      </c>
+      <c r="AL35" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4300000000000002E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>8</v>
       </c>
@@ -6457,7 +7478,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.98E-3</v>
       </c>
       <c r="H36" s="2">
@@ -6468,11 +7489,11 @@
         <v>10</v>
       </c>
       <c r="K36" s="6">
-        <f t="array" ref="K36:L37">LINEST(N36:N55,O36:O55,TRUE,TRUE)</f>
-        <v>5.2673612297181864E-2</v>
+        <f t="array" ref="K36:L37">LINEST(N41:N55,O41:O55,TRUE,TRUE)</f>
+        <v>6.0676377952755892E-2</v>
       </c>
       <c r="L36" s="6">
-        <v>-0.1456770486763449</v>
+        <v>-0.16998158267716532</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="1">
@@ -6482,13 +7503,15 @@
       <c r="O36" s="2">
         <v>2.82</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R36" s="6">
         <f>-(L36)/K36</f>
-        <v>2.7656551795696549</v>
+        <v>2.8014457753150186</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
@@ -6508,10 +7531,16 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
+      <c r="AK36" s="8">
+        <f t="shared" si="6"/>
+        <v>1.3944000000000001E-4</v>
+      </c>
+      <c r="AL36" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4399999999999998E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>9</v>
       </c>
@@ -6525,7 +7554,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="H37" s="2">
@@ -6536,14 +7565,14 @@
         <v>12</v>
       </c>
       <c r="K37" s="6">
-        <v>1.5508463880743648E-3</v>
+        <v>1.7230927243066651E-3</v>
       </c>
       <c r="L37" s="6">
-        <v>4.6273017704222437E-3</v>
+        <v>5.2102878443407545E-3</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="1">
-        <f t="shared" ref="N37:N55" si="4">G37</f>
+        <f t="shared" ref="N37:N55" si="9">G37</f>
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="O37" s="2">
@@ -6570,10 +7599,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
+      <c r="AK37" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5077999999999999E-4</v>
+      </c>
+      <c r="AL37" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>10</v>
       </c>
@@ -6587,7 +7622,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.1900000000000002E-3</v>
       </c>
       <c r="H38" s="2">
@@ -6599,7 +7634,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.1900000000000002E-3</v>
       </c>
       <c r="O38" s="2">
@@ -6626,10 +7661,16 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
+      <c r="AK38" s="8">
+        <f t="shared" si="6"/>
+        <v>1.6409999999999998E-4</v>
+      </c>
+      <c r="AL38" s="8">
+        <f t="shared" si="7"/>
+        <v>2.46E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>11</v>
       </c>
@@ -6643,7 +7684,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="H39" s="2">
@@ -6655,7 +7696,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="O39" s="2">
@@ -6664,7 +7705,9 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="S39" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -6682,10 +7725,16 @@
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
+      <c r="AK39" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8228E-4</v>
+      </c>
+      <c r="AL39" s="8">
+        <f t="shared" si="7"/>
+        <v>2.47E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>12</v>
       </c>
@@ -6699,7 +7748,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="H40" s="2">
@@ -6711,7 +7760,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="O40" s="2">
@@ -6719,8 +7768,13 @@
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
+      <c r="R40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40" s="6">
+        <f>($O$2*G27*R36)/($O$1)</f>
+        <v>6.5875600635672686E-34</v>
+      </c>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -6738,10 +7792,16 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
+      <c r="AK40" s="8">
+        <f t="shared" si="6"/>
+        <v>2.0549999999999998E-4</v>
+      </c>
+      <c r="AL40" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4800000000000003E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>13</v>
       </c>
@@ -6755,7 +7815,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.45E-3</v>
       </c>
       <c r="H41" s="2">
@@ -6767,7 +7827,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.45E-3</v>
       </c>
       <c r="O41" s="2">
@@ -6794,10 +7854,16 @@
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
+      <c r="AK41" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2079999999999997E-4</v>
+      </c>
+      <c r="AL41" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4899999999999999E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>14</v>
       </c>
@@ -6811,7 +7877,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="6"/>
       <c r="G42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="H42" s="2">
@@ -6823,7 +7889,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="O42" s="2">
@@ -6850,10 +7916,16 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
+      <c r="AK42" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4671999999999997E-4</v>
+      </c>
+      <c r="AL42" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>15</v>
       </c>
@@ -6867,7 +7939,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="6"/>
       <c r="G43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.75E-3</v>
       </c>
       <c r="H43" s="2">
@@ -6879,7 +7951,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.75E-3</v>
       </c>
       <c r="O43" s="2">
@@ -6906,10 +7978,16 @@
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
+      <c r="AK43" s="8">
+        <f t="shared" si="6"/>
+        <v>2.586E-4</v>
+      </c>
+      <c r="AL43" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5049999999999999E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>16</v>
       </c>
@@ -6923,7 +8001,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="6"/>
       <c r="G44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.06E-2</v>
       </c>
       <c r="H44" s="2">
@@ -6935,7 +8013,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.06E-2</v>
       </c>
       <c r="O44" s="2">
@@ -6962,10 +8040,16 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
+      <c r="AK44" s="8">
+        <f t="shared" si="6"/>
+        <v>2.6363999999999999E-4</v>
+      </c>
+      <c r="AL44" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5100000000000001E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>17</v>
       </c>
@@ -6979,7 +8063,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="6"/>
       <c r="G45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="H45" s="2">
@@ -6991,7 +8075,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="O45" s="2">
@@ -7018,10 +8102,16 @@
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
+      <c r="AK45" s="8">
+        <f t="shared" si="6"/>
+        <v>2.8091999999999999E-4</v>
+      </c>
+      <c r="AL45" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5149999999999999E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>18</v>
       </c>
@@ -7035,7 +8125,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="6"/>
       <c r="G46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H46" s="2">
@@ -7047,7 +8137,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="O46" s="2">
@@ -7074,10 +8164,16 @@
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
+      <c r="AK46" s="8">
+        <f t="shared" si="6"/>
+        <v>2.901E-4</v>
+      </c>
+      <c r="AL46" s="8">
+        <f t="shared" si="7"/>
+        <v>2.52E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>19</v>
       </c>
@@ -7091,7 +8187,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="6"/>
       <c r="G47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.298E-2</v>
       </c>
       <c r="H47" s="2">
@@ -7103,7 +8199,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.298E-2</v>
       </c>
       <c r="O47" s="2">
@@ -7130,10 +8226,16 @@
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8"/>
+      <c r="AK47" s="8">
+        <f t="shared" si="6"/>
+        <v>2.9838E-4</v>
+      </c>
+      <c r="AL47" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5250000000000002E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>20</v>
       </c>
@@ -7147,7 +8249,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="6"/>
       <c r="G48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="H48" s="2">
@@ -7159,7 +8261,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="O48" s="2">
@@ -7186,10 +8288,16 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
+      <c r="AK48" s="8">
+        <f t="shared" si="6"/>
+        <v>3.1062E-4</v>
+      </c>
+      <c r="AL48" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5300000000000003E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>21</v>
       </c>
@@ -7203,7 +8311,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="H49" s="2">
@@ -7215,7 +8323,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="O49" s="2">
@@ -7242,10 +8350,16 @@
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
+      <c r="AK49" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0684000000000001E-4</v>
+      </c>
+      <c r="AL49" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5349999999999998E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>22</v>
       </c>
@@ -7259,7 +8373,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.491E-2</v>
       </c>
       <c r="H50" s="2">
@@ -7271,7 +8385,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.491E-2</v>
       </c>
       <c r="O50" s="2">
@@ -7298,10 +8412,16 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
+      <c r="AK50" s="8">
+        <f t="shared" si="6"/>
+        <v>3.4230000000000003E-4</v>
+      </c>
+      <c r="AL50" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5399999999999999E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>23</v>
       </c>
@@ -7315,7 +8435,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.559E-2</v>
       </c>
       <c r="H51" s="2">
@@ -7327,7 +8447,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.559E-2</v>
       </c>
       <c r="O51" s="2">
@@ -7354,10 +8474,16 @@
       <c r="AH51" s="8"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
+      <c r="AK51" s="8">
+        <f t="shared" si="6"/>
+        <v>3.4842E-4</v>
+      </c>
+      <c r="AL51" s="8">
+        <f t="shared" si="7"/>
+        <v>2.545E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>24</v>
       </c>
@@ -7371,7 +8497,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="6"/>
       <c r="G52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="H52" s="2">
@@ -7383,7 +8509,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="O52" s="2">
@@ -7410,10 +8536,16 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
+      <c r="AK52" s="8">
+        <f t="shared" si="6"/>
+        <v>3.6588000000000001E-4</v>
+      </c>
+      <c r="AL52" s="8">
+        <f t="shared" si="7"/>
+        <v>2.5500000000000002E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>25</v>
       </c>
@@ -7427,7 +8559,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="6"/>
       <c r="G53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="H53" s="2">
@@ -7439,7 +8571,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="O53" s="2">
@@ -7469,7 +8601,7 @@
       <c r="AK53" s="8"/>
       <c r="AL53" s="8"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>26</v>
       </c>
@@ -7483,7 +8615,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="H54" s="2">
@@ -7495,7 +8627,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="O54" s="2">
@@ -7525,7 +8657,7 @@
       <c r="AK54" s="8"/>
       <c r="AL54" s="8"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>27</v>
       </c>
@@ -7539,7 +8671,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.866E-2</v>
       </c>
       <c r="H55" s="2">
@@ -7551,7 +8683,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.866E-2</v>
       </c>
       <c r="O55" s="2">
@@ -7581,7 +8713,7 @@
       <c r="AK55" s="8"/>
       <c r="AL55" s="8"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -7617,11 +8749,13 @@
       <c r="AG56" s="9"/>
       <c r="AH56" s="9"/>
       <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
+      <c r="AJ56" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="AK56" s="9"/>
       <c r="AL56" s="9"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -7661,17 +8795,17 @@
       <c r="AK57" s="9"/>
       <c r="AL57" s="9"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -7705,17 +8839,18 @@
       <c r="AK58" s="9"/>
       <c r="AL58" s="9"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
-        <v>7</v>
+      <c r="G59" s="9">
+        <f>600*10^(-9)</f>
+        <v>6.0000000000000008E-7</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -7749,7 +8884,7 @@
       <c r="AK59" s="9"/>
       <c r="AL59" s="9"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -7797,7 +8932,7 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>1</v>
       </c>
@@ -7848,7 +8983,7 @@
       <c r="AK61" s="9"/>
       <c r="AL61" s="9"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>2</v>
       </c>
@@ -7862,7 +8997,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G67" si="5">B62/1000</f>
+        <f t="shared" ref="G62:G67" si="10">B62/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H62" s="3">
@@ -7899,7 +9034,7 @@
       <c r="AK62" s="9"/>
       <c r="AL62" s="9"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>3</v>
       </c>
@@ -7913,7 +9048,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H63" s="3">
@@ -7950,7 +9085,7 @@
       <c r="AK63" s="9"/>
       <c r="AL63" s="9"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>4</v>
       </c>
@@ -7964,7 +9099,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="H64" s="3">
@@ -8001,7 +9136,7 @@
       <c r="AK64" s="9"/>
       <c r="AL64" s="9"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>5</v>
       </c>
@@ -8015,7 +9150,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1E-4</v>
       </c>
       <c r="H65" s="3">
@@ -8052,7 +9187,7 @@
       <c r="AK65" s="9"/>
       <c r="AL65" s="9"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>6</v>
       </c>
@@ -8066,7 +9201,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="H66" s="3">
@@ -8103,7 +9238,7 @@
       <c r="AK66" s="9"/>
       <c r="AL66" s="9"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>7</v>
       </c>
@@ -8117,7 +9252,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.6000000000000003E-4</v>
       </c>
       <c r="H67" s="3">
@@ -8154,7 +9289,7 @@
       <c r="AK67" s="9"/>
       <c r="AL67" s="9"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>8</v>
       </c>
@@ -8168,7 +9303,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5">
-        <f t="shared" ref="G62:G92" si="6">B68/1000</f>
+        <f t="shared" ref="G68:G92" si="11">B68/1000</f>
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="H68" s="3">
@@ -8205,7 +9340,7 @@
       <c r="AK68" s="9"/>
       <c r="AL68" s="9"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>9</v>
       </c>
@@ -8219,7 +9354,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="H69" s="3">
@@ -8256,7 +9391,7 @@
       <c r="AK69" s="9"/>
       <c r="AL69" s="9"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>10</v>
       </c>
@@ -8270,7 +9405,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="H70" s="3">
@@ -8307,7 +9442,7 @@
       <c r="AK70" s="9"/>
       <c r="AL70" s="9"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>11</v>
       </c>
@@ -8321,7 +9456,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.5300000000000001E-3</v>
       </c>
       <c r="H71" s="3">
@@ -8358,7 +9493,7 @@
       <c r="AK71" s="9"/>
       <c r="AL71" s="9"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>12</v>
       </c>
@@ -8372,7 +9507,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.31E-3</v>
       </c>
       <c r="H72" s="3">
@@ -8409,7 +9544,7 @@
       <c r="AK72" s="9"/>
       <c r="AL72" s="9"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>13</v>
       </c>
@@ -8423,7 +9558,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="H73" s="3">
@@ -8460,7 +9595,7 @@
       <c r="AK73" s="9"/>
       <c r="AL73" s="9"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>14</v>
       </c>
@@ -8474,7 +9609,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.3700000000000002E-3</v>
       </c>
       <c r="H74" s="3">
@@ -8511,7 +9646,7 @@
       <c r="AK74" s="9"/>
       <c r="AL74" s="9"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>15</v>
       </c>
@@ -8525,7 +9660,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.0300000000000006E-3</v>
       </c>
       <c r="H75" s="3">
@@ -8566,7 +9701,7 @@
       <c r="AK75" s="9"/>
       <c r="AL75" s="9"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>16</v>
       </c>
@@ -8580,7 +9715,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.79E-3</v>
       </c>
       <c r="H76" s="3">
@@ -8591,11 +9726,11 @@
         <v>10</v>
       </c>
       <c r="K76" s="6">
-        <f t="array" ref="K76:L77">LINEST(N76:N92,O76:O92,TRUE,TRUE)</f>
-        <v>0.15152205882352945</v>
+        <f t="array" ref="K76:L77">LINEST(N86:N92,O86:O92,TRUE,TRUE)</f>
+        <v>0.19271428571428553</v>
       </c>
       <c r="L76" s="6">
-        <v>-0.29098161764705882</v>
+        <v>-0.37599142857142814</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="5">
@@ -8605,13 +9740,15 @@
       <c r="O76" s="3">
         <v>1.94</v>
       </c>
-      <c r="P76" s="9"/>
+      <c r="P76" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q76" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76" si="7">-(L76)/K76</f>
-        <v>1.9203911292279316</v>
+        <f t="shared" ref="R76" si="12">-(L76)/K76</f>
+        <v>1.951030392883617</v>
       </c>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -8634,7 +9771,7 @@
       <c r="AK76" s="9"/>
       <c r="AL76" s="9"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>17</v>
       </c>
@@ -8648,7 +9785,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="6"/>
       <c r="G77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="H77" s="3">
@@ -8659,14 +9796,14 @@
         <v>12</v>
       </c>
       <c r="K77" s="6">
-        <v>5.0410460788423376E-3</v>
+        <v>3.5568272952397071E-3</v>
       </c>
       <c r="L77" s="6">
-        <v>1.0185907319878824E-2</v>
+        <v>7.3629761479375661E-3</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="5">
-        <f t="shared" ref="N77:N92" si="8">G77</f>
+        <f t="shared" ref="N77:N92" si="13">G77</f>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="O77" s="3">
@@ -8696,7 +9833,7 @@
       <c r="AK77" s="9"/>
       <c r="AL77" s="9"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>18</v>
       </c>
@@ -8710,7 +9847,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="H78" s="3">
@@ -8722,7 +9859,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="O78" s="3">
@@ -8752,7 +9889,7 @@
       <c r="AK78" s="9"/>
       <c r="AL78" s="9"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>19</v>
       </c>
@@ -8766,7 +9903,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="H79" s="3">
@@ -8778,7 +9915,7 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="O79" s="3">
@@ -8787,7 +9924,9 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
+      <c r="S79" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
@@ -8808,7 +9947,7 @@
       <c r="AK79" s="9"/>
       <c r="AL79" s="9"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>20</v>
       </c>
@@ -8822,7 +9961,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="H80" s="3">
@@ -8834,7 +9973,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="O80" s="3">
@@ -8842,8 +9981,13 @@
       </c>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
+      <c r="R80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S80" s="6">
+        <f>($O$2*G59*R76)/($O$1)</f>
+        <v>6.2561186403770195E-34</v>
+      </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
@@ -8864,7 +10008,7 @@
       <c r="AK80" s="9"/>
       <c r="AL80" s="9"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>21</v>
       </c>
@@ -8878,7 +10022,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="6"/>
       <c r="G81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="H81" s="3">
@@ -8890,7 +10034,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="O81" s="3">
@@ -8920,7 +10064,7 @@
       <c r="AK81" s="9"/>
       <c r="AL81" s="9"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>22</v>
       </c>
@@ -8934,7 +10078,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="6"/>
       <c r="G82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.108E-2</v>
       </c>
       <c r="H82" s="3">
@@ -8946,7 +10090,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.108E-2</v>
       </c>
       <c r="O82" s="3">
@@ -8976,7 +10120,7 @@
       <c r="AK82" s="9"/>
       <c r="AL82" s="9"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>23</v>
       </c>
@@ -8990,7 +10134,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="H83" s="3">
@@ -9002,7 +10146,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="O83" s="3">
@@ -9032,7 +10176,7 @@
       <c r="AK83" s="9"/>
       <c r="AL83" s="9"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>24</v>
       </c>
@@ -9046,7 +10190,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="H84" s="3">
@@ -9058,7 +10202,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="O84" s="3">
@@ -9088,7 +10232,7 @@
       <c r="AK84" s="9"/>
       <c r="AL84" s="9"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>25</v>
       </c>
@@ -9102,7 +10246,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="6"/>
       <c r="G85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="H85" s="3">
@@ -9114,7 +10258,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="O85" s="3">
@@ -9144,7 +10288,7 @@
       <c r="AK85" s="9"/>
       <c r="AL85" s="9"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>26</v>
       </c>
@@ -9158,7 +10302,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="6"/>
       <c r="G86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.738E-2</v>
       </c>
       <c r="H86" s="3">
@@ -9170,7 +10314,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.738E-2</v>
       </c>
       <c r="O86" s="3">
@@ -9200,7 +10344,7 @@
       <c r="AK86" s="9"/>
       <c r="AL86" s="9"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>27</v>
       </c>
@@ -9214,7 +10358,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="6"/>
       <c r="G87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.899E-2</v>
       </c>
       <c r="H87" s="3">
@@ -9226,7 +10370,7 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.899E-2</v>
       </c>
       <c r="O87" s="3">
@@ -9256,7 +10400,7 @@
       <c r="AK87" s="9"/>
       <c r="AL87" s="9"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>28</v>
       </c>
@@ -9270,7 +10414,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="6"/>
       <c r="G88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="H88" s="3">
@@ -9282,7 +10426,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="O88" s="3">
@@ -9312,7 +10456,7 @@
       <c r="AK88" s="9"/>
       <c r="AL88" s="9"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>29</v>
       </c>
@@ -9326,7 +10470,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="6"/>
       <c r="G89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="H89" s="3">
@@ -9338,7 +10482,7 @@
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="O89" s="3">
@@ -9368,7 +10512,7 @@
       <c r="AK89" s="9"/>
       <c r="AL89" s="9"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>30</v>
       </c>
@@ -9382,7 +10526,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="6"/>
       <c r="G90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="H90" s="3">
@@ -9394,7 +10538,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="O90" s="3">
@@ -9424,7 +10568,7 @@
       <c r="AK90" s="9"/>
       <c r="AL90" s="9"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>31</v>
       </c>
@@ -9438,7 +10582,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="6"/>
       <c r="G91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="H91" s="3">
@@ -9450,7 +10594,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="O91" s="3">
@@ -9480,7 +10624,7 @@
       <c r="AK91" s="9"/>
       <c r="AL91" s="9"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>32</v>
       </c>
@@ -9494,7 +10638,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="6"/>
       <c r="G92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.869E-2</v>
       </c>
       <c r="H92" s="3">
@@ -9506,7 +10650,7 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.869E-2</v>
       </c>
       <c r="O92" s="3">

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499FDD4-1239-413E-9BBD-BE06C1C4DA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0166A5F-F173-40E9-8322-C5B358DF924B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>U[V]</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>u(U)[V]:</t>
+  </si>
+  <si>
+    <t>u_c(U_B)=</t>
+  </si>
+  <si>
+    <t>u(h)=</t>
+  </si>
+  <si>
+    <t>u(lambda)=</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -231,6 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% — akcent 1" xfId="4" builtinId="32"/>
@@ -696,7 +706,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8005E-2</c:v>
+                    <c:v>1.8000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.8500000000000003E-2</c:v>
@@ -750,7 +760,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8005E-2</c:v>
+                    <c:v>1.8000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.8500000000000003E-2</c:v>
@@ -945,7 +955,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.601</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7</c:v>
@@ -5542,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AK61" sqref="AK61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5552,13 +5562,13 @@
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -5646,8 +5656,8 @@
         <v>16</v>
       </c>
       <c r="O2" s="7">
-        <f>1.6021766341*10^(-19)</f>
-        <v>1.6021766341E-19</v>
+        <f>1.603*10^(-19)</f>
+        <v>1.603E-19</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -5676,7 +5686,7 @@
       </c>
       <c r="AL2" s="7">
         <f>ABS(0.005*H4+1*0.01)</f>
-        <v>1.8005E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -5701,8 +5711,13 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="7">
+        <f>0.01*10^(-9)</f>
+        <v>1.0000000000000001E-11</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5729,7 +5744,7 @@
         <v>3.2700000000000002E-5</v>
       </c>
       <c r="AL3" s="7">
-        <f t="shared" ref="AL2:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
+        <f t="shared" ref="AL3:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
@@ -5751,7 +5766,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H4" s="2">
-        <v>1.601</v>
+        <v>1.6</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6104,11 +6119,11 @@
         <v>10</v>
       </c>
       <c r="K10" s="6">
-        <f t="array" ref="K10:L11">LINEST(N15:N16,O15:O16,TRUE,TRUE)</f>
-        <v>0.22799999999999981</v>
+        <f t="array" ref="K10:L11">LINEST(N10:N16,O10:O16,TRUE,TRUE)</f>
+        <v>0.12619642857142843</v>
       </c>
       <c r="L10" s="6">
-        <v>-0.4357699999999996</v>
+        <v>-0.2338067857142854</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1">
@@ -6126,7 +6141,7 @@
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10" si="3">-(L10)/K10</f>
-        <v>1.9112719298245613</v>
+        <v>1.8527210980614117</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -6180,10 +6195,10 @@
         <v>12</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>1.0920932787962004E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>0</v>
+        <v>2.1191112607551257E-2</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1">
@@ -6193,8 +6208,13 @@
       <c r="O11" s="2">
         <v>1.9</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>SQRT(((L11^2)*((-1/K10)^2))+((K11^2)*((-L10/(K10^2))^2)))</f>
+        <v>0.23217305574528016</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -6383,12 +6403,10 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="R14" s="7"/>
       <c r="S14" s="6">
         <f>($O$2*G2*R10)/($O$1)</f>
-        <v>6.2512028876796821E-34</v>
+        <v>6.0628146127604556E-34</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -6999,7 +7017,7 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8">
-        <f t="shared" ref="AK27:AK55" si="6">ABS(0.018*G30+3*0.00001)</f>
+        <f t="shared" ref="AK27:AK52" si="6">ABS(0.018*G30+3*0.00001)</f>
         <v>3.0180000000000006E-5</v>
       </c>
       <c r="AL27" s="8">
@@ -7489,11 +7507,11 @@
         <v>10</v>
       </c>
       <c r="K36" s="6">
-        <f t="array" ref="K36:L37">LINEST(N41:N55,O41:O55,TRUE,TRUE)</f>
-        <v>6.0676377952755892E-2</v>
+        <f t="array" ref="K36:L37">LINEST(N42:N55,O42:O55,TRUE,TRUE)</f>
+        <v>6.1595838150289017E-2</v>
       </c>
       <c r="L36" s="6">
-        <v>-0.16998158267716532</v>
+        <v>-0.17278652947976877</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="1">
@@ -7511,7 +7529,7 @@
       </c>
       <c r="R36" s="6">
         <f>-(L36)/K36</f>
-        <v>2.8014457753150186</v>
+        <v>2.8051656519095198</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
@@ -7565,10 +7583,10 @@
         <v>12</v>
       </c>
       <c r="K37" s="6">
-        <v>1.7230927243066651E-3</v>
+        <v>2.03640056610671E-3</v>
       </c>
       <c r="L37" s="6">
-        <v>5.2102878443407545E-3</v>
+        <v>6.1724895840239088E-3</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="1">
@@ -7579,7 +7597,10 @@
         <v>2.84</v>
       </c>
       <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="8">
+        <f>SQRT(((L37^2)*((-1/K36)^2))+((K37^2)*((-L36/(K36^2))^2)))</f>
+        <v>0.1365385855201873</v>
+      </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
@@ -7773,7 +7794,7 @@
       </c>
       <c r="S40" s="6">
         <f>($O$2*G27*R36)/($O$1)</f>
-        <v>6.5875600635672686E-34</v>
+        <v>6.5996971731851324E-34</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
@@ -8849,8 +8870,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f>600*10^(-9)</f>
-        <v>6.0000000000000008E-7</v>
+        <f>570*10^(-9)</f>
+        <v>5.7000000000000005E-7</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -9726,11 +9747,11 @@
         <v>10</v>
       </c>
       <c r="K76" s="6">
-        <f t="array" ref="K76:L77">LINEST(N86:N92,O86:O92,TRUE,TRUE)</f>
-        <v>0.19271428571428553</v>
+        <f t="array" ref="K76:L77">LINEST(N89:N92,O89:O92,TRUE,TRUE)</f>
+        <v>0.19899999999999887</v>
       </c>
       <c r="L76" s="6">
-        <v>-0.37599142857142814</v>
+        <v>-0.38908999999999766</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="5">
@@ -9748,7 +9769,7 @@
       </c>
       <c r="R76" s="6">
         <f t="shared" ref="R76" si="12">-(L76)/K76</f>
-        <v>1.951030392883617</v>
+        <v>1.9552261306532657</v>
       </c>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -9796,10 +9817,10 @@
         <v>12</v>
       </c>
       <c r="K77" s="6">
-        <v>3.5568272952397071E-3</v>
+        <v>7.9372539331935485E-3</v>
       </c>
       <c r="L77" s="6">
-        <v>7.3629761479375661E-3</v>
+        <v>1.654941237627441E-2</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="5">
@@ -9809,8 +9830,13 @@
       <c r="O77" s="3">
         <v>1.95</v>
       </c>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
+      <c r="P77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="9">
+        <f>SQRT(((L77^2)*((-1/K76)^2))+((K77^2)*((-L76/(K76^2))^2)))</f>
+        <v>0.11400794465204775</v>
+      </c>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
@@ -9981,12 +10007,12 @@
       </c>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
-      <c r="R80" s="9" t="s">
+      <c r="R80" s="10" t="s">
         <v>15</v>
       </c>
       <c r="S80" s="6">
         <f>($O$2*G59*R76)/($O$1)</f>
-        <v>6.2561186403770195E-34</v>
+        <v>5.9591548091553238E-34</v>
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
@@ -10042,8 +10068,10 @@
       </c>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
+      <c r="R81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S81" s="6"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0166A5F-F173-40E9-8322-C5B358DF924B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9399BD-B87A-40C1-9F54-188CC2AF4638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>U[V]</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>u(lambda)=</t>
+  </si>
+  <si>
+    <t>u_c(h)=</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -301,11 +307,6 @@
               <a:rPr lang="en-US"/>
               <a:t>I(U)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> Czerwona</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -340,7 +341,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4729452138336321E-2"/>
+          <c:y val="7.6205626278903038E-2"/>
+          <c:w val="0.90943017894761546"/>
+          <c:h val="0.83443629924847595"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -397,32 +408,6 @@
                   <c:y val="6.0781344639612357E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 0.1262x - 0.2338</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1387,10 +1372,7 @@
               <a:rPr lang="en-US"/>
               <a:t>I(U)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> Niebieska</a:t>
-            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1432,6 +1414,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>I(U)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2077,20 +2062,6 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2103,15 +2074,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="5.000000000000001E-2"/>
-            <c:backward val="8.0000000000000016E-2"/>
+            <c:forward val="4.0000000000000008E-2"/>
+            <c:backward val="0.2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6807302072315586E-2"/>
-                  <c:y val="3.9826489252134625E-2"/>
+                  <c:x val="-5.934894352647932E-2"/>
+                  <c:y val="1.062431773528149E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2134,7 +2105,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 0.0527x - 0.1457</a:t>
+                      <a:t>y = 0,0616x - 0,1728</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
@@ -2207,68 +2178,50 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$O$36:$O$55</c:f>
+              <c:f>Arkusz1!$O$42:$O$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.82</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.84</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.86</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.88</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.92</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.94</c:v>
+                  <c:v>3.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.96</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.98</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.01</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.02</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.03</c:v>
+                  <c:v>3.09</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2276,68 +2229,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$N$36:$N$55</c:f>
+              <c:f>Arkusz1!$N$42:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.98E-3</c:v>
+                  <c:v>8.4600000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5300000000000002E-3</c:v>
+                  <c:v>9.75E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1900000000000002E-3</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0800000000000003E-3</c:v>
+                  <c:v>1.2039999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7099999999999998E-3</c:v>
+                  <c:v>1.2699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.45E-3</c:v>
+                  <c:v>1.298E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4600000000000005E-3</c:v>
+                  <c:v>1.3939999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75E-3</c:v>
+                  <c:v>1.4449999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.491E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2039999999999999E-2</c:v>
+                  <c:v>1.559E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2699999999999999E-2</c:v>
+                  <c:v>1.5380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.298E-2</c:v>
+                  <c:v>1.7350000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3939999999999999E-2</c:v>
+                  <c:v>1.7690000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4449999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.491E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.559E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5380000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7350000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7690000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>1.866E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2686,10 +2621,6 @@
               <a:rPr lang="pl-PL"/>
               <a:t>I(U)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> Zielona</a:t>
-            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -3035,43 +2966,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="9.0000000000000024E-2"/>
-            <c:backward val="9.0000000000000024E-2"/>
+            <c:forward val="2.0000000000000004E-2"/>
+            <c:backward val="0.14000000000000001"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11315693871101788"/>
-                  <c:y val="2.0932302382380228E-2"/>
+                  <c:x val="-5.1062065928452152E-2"/>
+                  <c:y val="5.5335406847618E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 0.1515x - 0.291</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3120,39 +3025,18 @@
             <c:numRef>
               <c:f>Arkusz1!$O$82:$O$92</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>2.0699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>2.08</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>2.09</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3162,39 +3046,18 @@
             <c:numRef>
               <c:f>Arkusz1!$N$82:$N$92</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.108E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2460000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4060000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.738E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.899E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0820000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00000">
                   <c:v>2.2710000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00000">
                   <c:v>2.4969999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00000">
                   <c:v>2.6929999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00000">
                   <c:v>2.869E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5179,15 +5042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>566055</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50619</xdr:rowOff>
+      <xdr:colOff>550814</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>112643</xdr:colOff>
+      <xdr:colOff>249381</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>178904</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5215,15 +5078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5251,15 +5114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>540124</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5552,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK55" sqref="AK55:AK73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5571,7 +5434,7 @@
     <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6125,7 +5988,9 @@
       <c r="L10" s="6">
         <v>-0.2338067857142854</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="N10" s="1">
         <f>G10</f>
         <v>4.6699999999999997E-3</v>
@@ -6403,7 +6268,9 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="S14" s="6">
         <f>($O$2*G2*R10)/($O$1)</f>
         <v>6.0628146127604556E-34</v>
@@ -6468,8 +6335,13 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="7">
+        <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q11^2)*((($O$2*G2)/($O$1)))^2))</f>
+        <v>7.5975936683687771E-35</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -7514,13 +7386,8 @@
         <v>-0.17278652947976877</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="1">
-        <f>G36</f>
-        <v>3.98E-3</v>
-      </c>
-      <c r="O36" s="2">
-        <v>2.82</v>
-      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="6" t="s">
         <v>18</v>
       </c>
@@ -7589,13 +7456,8 @@
         <v>6.1724895840239088E-3</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="1">
-        <f t="shared" ref="N37:N55" si="9">G37</f>
-        <v>4.5300000000000002E-3</v>
-      </c>
-      <c r="O37" s="2">
-        <v>2.84</v>
-      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8">
         <f>SQRT(((L37^2)*((-1/K36)^2))+((K37^2)*((-L36/(K36^2))^2)))</f>
@@ -7654,13 +7516,8 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="1">
-        <f t="shared" si="9"/>
-        <v>5.1900000000000002E-3</v>
-      </c>
-      <c r="O38" s="2">
-        <v>2.86</v>
-      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -7716,13 +7573,8 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0800000000000003E-3</v>
-      </c>
-      <c r="O39" s="2">
-        <v>2.88</v>
-      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
@@ -7780,13 +7632,8 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="1">
-        <f t="shared" si="9"/>
-        <v>6.7099999999999998E-3</v>
-      </c>
-      <c r="O40" s="2">
-        <v>2.9</v>
-      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
@@ -7847,17 +7694,17 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="1">
-        <f t="shared" si="9"/>
-        <v>7.45E-3</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2.92</v>
-      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="R41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" s="8">
+        <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q37^2)*((($O$2*G27)/($O$1)))^2))</f>
+        <v>3.2123356565335799E-35</v>
+      </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -7908,9 +7755,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="N42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N37:N55" si="9">G42</f>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="O42" s="2">
@@ -8870,8 +8719,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f>570*10^(-9)</f>
-        <v>5.7000000000000005E-7</v>
+        <f>575*10^(-9)</f>
+        <v>5.75E-7</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -9754,13 +9603,8 @@
         <v>-0.38908999999999766</v>
       </c>
       <c r="M76" s="9"/>
-      <c r="N76" s="5">
-        <f>G76</f>
-        <v>4.79E-3</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1.94</v>
-      </c>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
       <c r="P76" s="6" t="s">
         <v>18</v>
       </c>
@@ -9823,13 +9667,8 @@
         <v>1.654941237627441E-2</v>
       </c>
       <c r="M77" s="9"/>
-      <c r="N77" s="5">
-        <f t="shared" ref="N77:N92" si="13">G77</f>
-        <v>5.6299999999999996E-3</v>
-      </c>
-      <c r="O77" s="3">
-        <v>1.95</v>
-      </c>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
       <c r="P77" s="9" t="s">
         <v>23</v>
       </c>
@@ -9884,13 +9723,8 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-      <c r="N78" s="5">
-        <f t="shared" si="13"/>
-        <v>6.5599999999999999E-3</v>
-      </c>
-      <c r="O78" s="3">
-        <v>1.96</v>
-      </c>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
@@ -9940,13 +9774,8 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="5">
-        <f t="shared" si="13"/>
-        <v>7.5300000000000002E-3</v>
-      </c>
-      <c r="O79" s="3">
-        <v>1.97</v>
-      </c>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
@@ -9998,13 +9827,8 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="5">
-        <f t="shared" si="13"/>
-        <v>8.6599999999999993E-3</v>
-      </c>
-      <c r="O80" s="3">
-        <v>1.98</v>
-      </c>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="10" t="s">
@@ -10012,7 +9836,7 @@
       </c>
       <c r="S80" s="6">
         <f>($O$2*G59*R76)/($O$1)</f>
-        <v>5.9591548091553238E-34</v>
+        <v>6.0114280969549315E-34</v>
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
@@ -10059,19 +9883,17 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="5">
-        <f t="shared" si="13"/>
-        <v>9.8800000000000016E-3</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1.99</v>
-      </c>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S81" s="6"/>
+      <c r="S81" s="6">
+        <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q77^2)*((($O$2*G59)/($O$1)))^2))</f>
+        <v>3.5052241860758049E-35</v>
+      </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
@@ -10117,13 +9939,8 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-      <c r="N82" s="5">
-        <f t="shared" si="13"/>
-        <v>1.108E-2</v>
-      </c>
-      <c r="O82" s="3">
-        <v>2</v>
-      </c>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
@@ -10173,13 +9990,8 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="5">
-        <f t="shared" si="13"/>
-        <v>1.2460000000000001E-2</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2.0099999999999998</v>
-      </c>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
@@ -10229,13 +10041,8 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
-      <c r="N84" s="5">
-        <f t="shared" si="13"/>
-        <v>1.4060000000000001E-2</v>
-      </c>
-      <c r="O84" s="3">
-        <v>2.02</v>
-      </c>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
@@ -10285,13 +10092,8 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-      <c r="N85" s="5">
-        <f t="shared" si="13"/>
-        <v>1.5439999999999999E-2</v>
-      </c>
-      <c r="O85" s="3">
-        <v>2.0299999999999998</v>
-      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
@@ -10341,13 +10143,8 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-      <c r="N86" s="5">
-        <f t="shared" si="13"/>
-        <v>1.738E-2</v>
-      </c>
-      <c r="O86" s="3">
-        <v>2.04</v>
-      </c>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
@@ -10397,13 +10194,8 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-      <c r="N87" s="5">
-        <f t="shared" si="13"/>
-        <v>1.899E-2</v>
-      </c>
-      <c r="O87" s="3">
-        <v>2.0499999999999998</v>
-      </c>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -10453,13 +10245,8 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="5">
-        <f t="shared" si="13"/>
-        <v>2.0820000000000002E-2</v>
-      </c>
-      <c r="O88" s="3">
-        <v>2.06</v>
-      </c>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
@@ -10508,9 +10295,11 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
+      <c r="M89" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="N89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N77:N92" si="13">G89</f>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="O89" s="3">

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9399BD-B87A-40C1-9F54-188CC2AF4638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA6F1E-1B29-4402-8459-BBD02ECBFFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>U[V]</t>
   </si>
@@ -408,6 +408,32 @@
                   <c:y val="6.0781344639612357E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0,1262x - 0,2338</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2656,7 +2682,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9465615909717933E-2"/>
+          <c:y val="9.2614936080888929E-2"/>
+          <c:w val="0.87296529365367381"/>
+          <c:h val="0.84609960552645869"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2689,6 +2725,464 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$57:$AL$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>1.8000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8500000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8599999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8700000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8800000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.89E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9300000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.95E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9549999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9599999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.9650000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.9700000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.975E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.9799999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.985E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9900000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.9950000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.0049999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.01E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.0150000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.0200000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.0249999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.0299999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2.0400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.0449999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.0500000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AL$57:$AL$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>1.8000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8500000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8599999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8700000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8800000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.89E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9000000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9300000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.95E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9549999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9599999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.9650000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.9700000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.975E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.9799999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.985E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9900000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.9950000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.0049999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.01E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.0150000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.0200000000000003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.0249999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.0299999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2.0400000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.0449999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.0500000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$57:$AK$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0360000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1260000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1980000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3060000000000005E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4680000000000007E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.7380000000000005E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.1340000000000007E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.7639999999999998E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.7540000000000008E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.1580000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.0039999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.0660000000000003E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0254E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.1622E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3134E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.4808000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6553999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8587999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.0784000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.2943999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5428000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.8308000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.0791999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4284000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.7181999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.0476000000000005E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.3878E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.7945999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>5.1473999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5.4641999999999994E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$AK$57:$AK$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0360000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0720000000000004E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1260000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1980000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3060000000000005E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4680000000000007E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.7380000000000005E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.1340000000000007E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.7639999999999998E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.7540000000000008E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.1580000000000002E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.0039999999999999E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.0660000000000003E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0254E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.1622E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3134E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.4808000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6553999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8587999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.0784000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.2943999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5428000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.8308000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.0791999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4284000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.7181999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.0476000000000005E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.3878E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.7945999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>5.1473999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5.4641999999999994E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$H$61:$H$92</c:f>
@@ -2977,6 +3471,32 @@
                   <c:y val="5.5335406847618E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0,199x - 0,3891</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3011,7 +3531,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -3021,6 +3541,45 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$O$82:$O$92</c:f>
@@ -5415,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK55" sqref="AK55:AK73"/>
+    <sheetView tabSelected="1" topLeftCell="T22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AJ83" sqref="AJ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7759,7 +8318,7 @@
         <v>27</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ref="N37:N55" si="9">G42</f>
+        <f t="shared" ref="N42:N55" si="9">G42</f>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="O42" s="2">
@@ -8622,8 +9181,12 @@
       <c r="AJ56" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="9"/>
+      <c r="AK56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL56" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
@@ -8662,8 +9225,14 @@
       <c r="AH57" s="9"/>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="9"/>
+      <c r="AK57" s="9">
+        <f>ABS(0.018*G61+3*0.00001)</f>
+        <v>3.0000000000000004E-5</v>
+      </c>
+      <c r="AL57" s="9">
+        <f>ABS(0.005*H61+1*0.01)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
@@ -8706,8 +9275,14 @@
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
+      <c r="AK58" s="9">
+        <f t="shared" ref="AK58:AK88" si="10">ABS(0.018*G62+3*0.00001)</f>
+        <v>3.0360000000000004E-5</v>
+      </c>
+      <c r="AL58" s="9">
+        <f t="shared" ref="AL58:AL88" si="11">ABS(0.005*H62+1*0.01)</f>
+        <v>1.8500000000000003E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -8751,8 +9326,14 @@
       <c r="AH59" s="9"/>
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
-      <c r="AK59" s="9"/>
-      <c r="AL59" s="9"/>
+      <c r="AK59" s="9">
+        <f t="shared" si="10"/>
+        <v>3.0720000000000004E-5</v>
+      </c>
+      <c r="AL59" s="9">
+        <f t="shared" si="11"/>
+        <v>1.8599999999999998E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
@@ -8799,8 +9380,14 @@
       <c r="AH60" s="9"/>
       <c r="AI60" s="9"/>
       <c r="AJ60" s="9"/>
-      <c r="AK60" s="9"/>
-      <c r="AL60" s="9"/>
+      <c r="AK60" s="9">
+        <f t="shared" si="10"/>
+        <v>3.1260000000000002E-5</v>
+      </c>
+      <c r="AL60" s="9">
+        <f t="shared" si="11"/>
+        <v>1.8700000000000001E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
@@ -8850,8 +9437,14 @@
       <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
-      <c r="AK61" s="9"/>
-      <c r="AL61" s="9"/>
+      <c r="AK61" s="9">
+        <f t="shared" si="10"/>
+        <v>3.1980000000000002E-5</v>
+      </c>
+      <c r="AL61" s="9">
+        <f t="shared" si="11"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
@@ -8867,7 +9460,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G67" si="10">B62/1000</f>
+        <f t="shared" ref="G62:G67" si="12">B62/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H62" s="3">
@@ -8901,8 +9494,14 @@
       <c r="AH62" s="9"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="9"/>
+      <c r="AK62" s="9">
+        <f t="shared" si="10"/>
+        <v>3.3060000000000005E-5</v>
+      </c>
+      <c r="AL62" s="9">
+        <f t="shared" si="11"/>
+        <v>1.89E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
@@ -8918,7 +9517,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H63" s="3">
@@ -8952,8 +9551,14 @@
       <c r="AH63" s="9"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
-      <c r="AK63" s="9"/>
-      <c r="AL63" s="9"/>
+      <c r="AK63" s="9">
+        <f t="shared" si="10"/>
+        <v>3.4680000000000007E-5</v>
+      </c>
+      <c r="AL63" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9000000000000003E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
@@ -8969,7 +9574,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="H64" s="3">
@@ -9003,8 +9608,14 @@
       <c r="AH64" s="9"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
-      <c r="AK64" s="9"/>
-      <c r="AL64" s="9"/>
+      <c r="AK64" s="9">
+        <f t="shared" si="10"/>
+        <v>3.7380000000000005E-5</v>
+      </c>
+      <c r="AL64" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9099999999999999E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
@@ -9020,7 +9631,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1E-4</v>
       </c>
       <c r="H65" s="3">
@@ -9054,8 +9665,14 @@
       <c r="AH65" s="9"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="9"/>
+      <c r="AK65" s="9">
+        <f t="shared" si="10"/>
+        <v>4.1340000000000007E-5</v>
+      </c>
+      <c r="AL65" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
@@ -9071,7 +9688,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="H66" s="3">
@@ -9105,8 +9722,14 @@
       <c r="AH66" s="9"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
-      <c r="AK66" s="9"/>
-      <c r="AL66" s="9"/>
+      <c r="AK66" s="9">
+        <f t="shared" si="10"/>
+        <v>4.7639999999999998E-5</v>
+      </c>
+      <c r="AL66" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9300000000000001E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
@@ -9122,7 +9745,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6000000000000003E-4</v>
       </c>
       <c r="H67" s="3">
@@ -9156,8 +9779,14 @@
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
-      <c r="AK67" s="9"/>
-      <c r="AL67" s="9"/>
+      <c r="AK67" s="9">
+        <f t="shared" si="10"/>
+        <v>5.7540000000000008E-5</v>
+      </c>
+      <c r="AL67" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9400000000000001E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
@@ -9173,7 +9802,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G92" si="11">B68/1000</f>
+        <f t="shared" ref="G68:G92" si="13">B68/1000</f>
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="H68" s="3">
@@ -9207,8 +9836,14 @@
       <c r="AH68" s="9"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
-      <c r="AK68" s="9"/>
-      <c r="AL68" s="9"/>
+      <c r="AK68" s="9">
+        <f t="shared" si="10"/>
+        <v>7.1580000000000002E-5</v>
+      </c>
+      <c r="AL68" s="9">
+        <f t="shared" si="11"/>
+        <v>1.95E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
@@ -9224,7 +9859,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="H69" s="3">
@@ -9258,8 +9893,14 @@
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="9"/>
+      <c r="AK69" s="9">
+        <f t="shared" si="10"/>
+        <v>8.0039999999999999E-5</v>
+      </c>
+      <c r="AL69" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9549999999999998E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
@@ -9275,7 +9916,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="H70" s="3">
@@ -9309,8 +9950,14 @@
       <c r="AH70" s="9"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
-      <c r="AK70" s="9"/>
-      <c r="AL70" s="9"/>
+      <c r="AK70" s="9">
+        <f t="shared" si="10"/>
+        <v>9.0660000000000003E-5</v>
+      </c>
+      <c r="AL70" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
@@ -9326,7 +9973,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5300000000000001E-3</v>
       </c>
       <c r="H71" s="3">
@@ -9360,8 +10007,14 @@
       <c r="AH71" s="9"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
-      <c r="AK71" s="9"/>
-      <c r="AL71" s="9"/>
+      <c r="AK71" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0254E-4</v>
+      </c>
+      <c r="AL71" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9650000000000001E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
@@ -9377,7 +10030,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.31E-3</v>
       </c>
       <c r="H72" s="3">
@@ -9411,8 +10064,14 @@
       <c r="AH72" s="9"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
-      <c r="AK72" s="9"/>
-      <c r="AL72" s="9"/>
+      <c r="AK72" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1622E-4</v>
+      </c>
+      <c r="AL72" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9700000000000002E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
@@ -9428,7 +10087,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="H73" s="3">
@@ -9462,8 +10121,14 @@
       <c r="AH73" s="9"/>
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
-      <c r="AK73" s="9"/>
-      <c r="AL73" s="9"/>
+      <c r="AK73" s="9">
+        <f t="shared" si="10"/>
+        <v>1.3134E-4</v>
+      </c>
+      <c r="AL73" s="9">
+        <f t="shared" si="11"/>
+        <v>1.975E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
@@ -9479,7 +10144,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.3700000000000002E-3</v>
       </c>
       <c r="H74" s="3">
@@ -9513,8 +10178,14 @@
       <c r="AH74" s="9"/>
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
-      <c r="AK74" s="9"/>
-      <c r="AL74" s="9"/>
+      <c r="AK74" s="9">
+        <f t="shared" si="10"/>
+        <v>1.4808000000000001E-4</v>
+      </c>
+      <c r="AL74" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9799999999999998E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
@@ -9530,7 +10201,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.0300000000000006E-3</v>
       </c>
       <c r="H75" s="3">
@@ -9568,8 +10239,14 @@
       <c r="AH75" s="9"/>
       <c r="AI75" s="9"/>
       <c r="AJ75" s="9"/>
-      <c r="AK75" s="9"/>
-      <c r="AL75" s="9"/>
+      <c r="AK75" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6553999999999999E-4</v>
+      </c>
+      <c r="AL75" s="9">
+        <f t="shared" si="11"/>
+        <v>1.985E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
@@ -9585,7 +10262,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.79E-3</v>
       </c>
       <c r="H76" s="3">
@@ -9612,7 +10289,7 @@
         <v>13</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76" si="12">-(L76)/K76</f>
+        <f t="shared" ref="R76" si="14">-(L76)/K76</f>
         <v>1.9552261306532657</v>
       </c>
       <c r="S76" s="9"/>
@@ -9633,8 +10310,14 @@
       <c r="AH76" s="9"/>
       <c r="AI76" s="9"/>
       <c r="AJ76" s="9"/>
-      <c r="AK76" s="9"/>
-      <c r="AL76" s="9"/>
+      <c r="AK76" s="9">
+        <f t="shared" si="10"/>
+        <v>1.8587999999999998E-4</v>
+      </c>
+      <c r="AL76" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9900000000000001E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
@@ -9650,7 +10333,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="6"/>
       <c r="G77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="H77" s="3">
@@ -9695,8 +10378,14 @@
       <c r="AH77" s="9"/>
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="9"/>
+      <c r="AK77" s="9">
+        <f t="shared" si="10"/>
+        <v>2.0784000000000002E-4</v>
+      </c>
+      <c r="AL77" s="9">
+        <f t="shared" si="11"/>
+        <v>1.9950000000000002E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
@@ -9712,7 +10401,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="H78" s="3">
@@ -9746,8 +10435,14 @@
       <c r="AH78" s="9"/>
       <c r="AI78" s="9"/>
       <c r="AJ78" s="9"/>
-      <c r="AK78" s="9"/>
-      <c r="AL78" s="9"/>
+      <c r="AK78" s="9">
+        <f t="shared" si="10"/>
+        <v>2.2943999999999997E-4</v>
+      </c>
+      <c r="AL78" s="9">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
@@ -9763,7 +10458,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="H79" s="3">
@@ -9799,8 +10494,14 @@
       <c r="AH79" s="9"/>
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
-      <c r="AK79" s="9"/>
-      <c r="AL79" s="9"/>
+      <c r="AK79" s="9">
+        <f t="shared" si="10"/>
+        <v>2.5428000000000001E-4</v>
+      </c>
+      <c r="AL79" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0049999999999998E-2</v>
+      </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
@@ -9816,7 +10517,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="H80" s="3">
@@ -9855,8 +10556,14 @@
       <c r="AH80" s="9"/>
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
-      <c r="AK80" s="9"/>
-      <c r="AL80" s="9"/>
+      <c r="AK80" s="9">
+        <f t="shared" si="10"/>
+        <v>2.8308000000000001E-4</v>
+      </c>
+      <c r="AL80" s="9">
+        <f t="shared" si="11"/>
+        <v>2.01E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
@@ -9872,7 +10579,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="6"/>
       <c r="G81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="H81" s="3">
@@ -9911,8 +10618,14 @@
       <c r="AH81" s="9"/>
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
-      <c r="AK81" s="9"/>
-      <c r="AL81" s="9"/>
+      <c r="AK81" s="9">
+        <f t="shared" si="10"/>
+        <v>3.0791999999999999E-4</v>
+      </c>
+      <c r="AL81" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0150000000000001E-2</v>
+      </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
@@ -9928,7 +10641,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="6"/>
       <c r="G82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.108E-2</v>
       </c>
       <c r="H82" s="3">
@@ -9962,8 +10675,14 @@
       <c r="AH82" s="9"/>
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
-      <c r="AK82" s="9"/>
-      <c r="AL82" s="9"/>
+      <c r="AK82" s="9">
+        <f t="shared" si="10"/>
+        <v>3.4284000000000002E-4</v>
+      </c>
+      <c r="AL82" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0200000000000003E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
@@ -9979,7 +10698,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="H83" s="3">
@@ -10013,8 +10732,14 @@
       <c r="AH83" s="9"/>
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
-      <c r="AK83" s="9"/>
-      <c r="AL83" s="9"/>
+      <c r="AK83" s="9">
+        <f t="shared" si="10"/>
+        <v>3.7181999999999997E-4</v>
+      </c>
+      <c r="AL83" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0249999999999997E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
@@ -10030,7 +10755,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="H84" s="3">
@@ -10064,8 +10789,14 @@
       <c r="AH84" s="9"/>
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
-      <c r="AK84" s="9"/>
-      <c r="AL84" s="9"/>
+      <c r="AK84" s="9">
+        <f t="shared" si="10"/>
+        <v>4.0476000000000005E-4</v>
+      </c>
+      <c r="AL84" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
@@ -10081,7 +10812,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="6"/>
       <c r="G85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="H85" s="3">
@@ -10115,8 +10846,14 @@
       <c r="AH85" s="9"/>
       <c r="AI85" s="9"/>
       <c r="AJ85" s="9"/>
-      <c r="AK85" s="9"/>
-      <c r="AL85" s="9"/>
+      <c r="AK85" s="9">
+        <f t="shared" si="10"/>
+        <v>4.3878E-4</v>
+      </c>
+      <c r="AL85" s="9">
+        <f t="shared" si="11"/>
+        <v>2.035E-2</v>
+      </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
@@ -10132,7 +10869,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="6"/>
       <c r="G86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.738E-2</v>
       </c>
       <c r="H86" s="3">
@@ -10166,8 +10903,14 @@
       <c r="AH86" s="9"/>
       <c r="AI86" s="9"/>
       <c r="AJ86" s="9"/>
-      <c r="AK86" s="9"/>
-      <c r="AL86" s="9"/>
+      <c r="AK86" s="9">
+        <f t="shared" si="10"/>
+        <v>4.7945999999999997E-4</v>
+      </c>
+      <c r="AL86" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0400000000000001E-2</v>
+      </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
@@ -10183,7 +10926,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="6"/>
       <c r="G87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.899E-2</v>
       </c>
       <c r="H87" s="3">
@@ -10217,8 +10960,14 @@
       <c r="AH87" s="9"/>
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9"/>
-      <c r="AK87" s="9"/>
-      <c r="AL87" s="9"/>
+      <c r="AK87" s="9">
+        <f t="shared" si="10"/>
+        <v>5.1473999999999997E-4</v>
+      </c>
+      <c r="AL87" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0449999999999999E-2</v>
+      </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
@@ -10234,7 +10983,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="6"/>
       <c r="G88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="H88" s="3">
@@ -10268,8 +11017,14 @@
       <c r="AH88" s="9"/>
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9"/>
-      <c r="AK88" s="9"/>
-      <c r="AL88" s="9"/>
+      <c r="AK88" s="9">
+        <f t="shared" si="10"/>
+        <v>5.4641999999999994E-4</v>
+      </c>
+      <c r="AL88" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
@@ -10285,7 +11040,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="6"/>
       <c r="G89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="H89" s="3">
@@ -10299,7 +11054,7 @@
         <v>27</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" ref="N77:N92" si="13">G89</f>
+        <f t="shared" ref="N89:N92" si="15">G89</f>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="O89" s="3">
@@ -10343,7 +11098,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="6"/>
       <c r="G90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="H90" s="3">
@@ -10355,7 +11110,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="O90" s="3">
@@ -10399,7 +11154,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="6"/>
       <c r="G91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="H91" s="3">
@@ -10411,7 +11166,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="O91" s="3">
@@ -10455,7 +11210,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="6"/>
       <c r="G92" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.869E-2</v>
       </c>
       <c r="H92" s="3">
@@ -10467,7 +11222,7 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.869E-2</v>
       </c>
       <c r="O92" s="3">

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA6F1E-1B29-4402-8459-BBD02ECBFFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A375D88B-721B-4E00-86DD-EED22AFB1C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>U[V]</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>adks</t>
   </si>
 </sst>
 </file>
@@ -5972,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL92"/>
+  <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AJ83" sqref="AJ83"/>
+    <sheetView tabSelected="1" topLeftCell="AA52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6989,7 +6992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -7029,7 +7032,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -7069,7 +7072,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -7109,7 +7112,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -7149,7 +7152,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -7189,7 +7192,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -7228,8 +7231,11 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
+      <c r="BC22" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -7269,7 +7275,7 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -7309,7 +7315,7 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7355,7 +7361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>4</v>
@@ -7405,7 +7411,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>5</v>
@@ -7456,7 +7462,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -7510,7 +7516,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -7681,7 +7687,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>4</v>
       </c>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia projekt\GitHub\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499FDD4-1239-413E-9BBD-BE06C1C4DA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275D9EF-83EB-4109-B74D-56876E4446E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -438,7 +438,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pl-PL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -696,7 +696,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8005E-2</c:v>
+                    <c:v>1.8000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.8500000000000003E-2</c:v>
@@ -750,7 +750,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8005E-2</c:v>
+                    <c:v>1.8000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.8500000000000003E-2</c:v>
@@ -945,7 +945,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.601</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7</c:v>
@@ -1125,7 +1125,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1163,7 +1163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1200195039"/>
@@ -1243,7 +1243,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1281,7 +1281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1194496255"/>
@@ -1329,7 +1329,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1409,7 +1409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2155,7 +2155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pl-PL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2424,7 +2424,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2462,7 +2462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1082422879"/>
@@ -2542,7 +2542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2580,7 +2580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1286578783"/>
@@ -2628,7 +2628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2709,7 +2709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3087,7 +3087,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pl-PL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3281,7 +3281,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3319,7 +3319,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1301623743"/>
@@ -3399,7 +3399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3437,7 +3437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1286617727"/>
@@ -3485,7 +3485,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5542,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AK61" sqref="AK61"/>
+    <sheetView tabSelected="1" topLeftCell="M61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5633,8 +5633,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7">
-        <f>612*10^(-9)</f>
-        <v>6.1200000000000003E-7</v>
+        <f>633*10^(-9)</f>
+        <v>6.3300000000000002E-7</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="AL2" s="7">
         <f>ABS(0.005*H4+1*0.01)</f>
-        <v>1.8005E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -5729,7 +5729,7 @@
         <v>3.2700000000000002E-5</v>
       </c>
       <c r="AL3" s="7">
-        <f t="shared" ref="AL2:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
+        <f t="shared" ref="AL3:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>1.601</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -5751,7 +5751,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H4" s="2">
-        <v>1.601</v>
+        <v>1.6</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6104,11 +6104,11 @@
         <v>10</v>
       </c>
       <c r="K10" s="6">
-        <f t="array" ref="K10:L11">LINEST(N15:N16,O15:O16,TRUE,TRUE)</f>
-        <v>0.22799999999999981</v>
+        <f t="array" ref="K10:L11">LINEST(N14:N16,O14:O16,TRUE,TRUE)</f>
+        <v>0.18999999999999984</v>
       </c>
       <c r="L10" s="6">
-        <v>-0.4357699999999996</v>
+        <v>-0.36002333333333297</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1">
@@ -6125,8 +6125,8 @@
         <v>13</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ref="R10" si="3">-(L10)/K10</f>
-        <v>1.9112719298245613</v>
+        <f>-(L10)/K10</f>
+        <v>1.8948596491228067</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -6180,14 +6180,14 @@
         <v>12</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>2.1939310229205804E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>0</v>
+        <v>4.3441311623333381E-2</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N16" si="4">G11</f>
+        <f t="shared" ref="N11:N16" si="3">G11</f>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="O11" s="2">
@@ -6249,7 +6249,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.8200000000000006E-3</v>
       </c>
       <c r="O12" s="2">
@@ -6311,7 +6311,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O13" s="2">
@@ -6375,7 +6375,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2630000000000001E-2</v>
       </c>
       <c r="O14" s="2">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="S14" s="6">
         <f>($O$2*G2*R10)/($O$1)</f>
-        <v>6.2512028876796821E-34</v>
+        <v>6.4101833010087473E-34</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -6442,7 +6442,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.567E-2</v>
       </c>
       <c r="O15" s="2">
@@ -6474,7 +6474,7 @@
         <v>3.0000000000000004E-5</v>
       </c>
       <c r="AL15" s="7">
-        <f t="shared" ref="AL15:AL16" si="5">ABS(0.005*H17+1*0.01)</f>
+        <f t="shared" ref="AL15:AL16" si="4">ABS(0.005*H17+1*0.01)</f>
         <v>0.01</v>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0230000000000001E-2</v>
       </c>
       <c r="O16" s="2">
@@ -6536,7 +6536,7 @@
         <v>3.0000000000000004E-5</v>
       </c>
       <c r="AL16" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
     </row>
@@ -6999,11 +6999,11 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8">
-        <f t="shared" ref="AK27:AK55" si="6">ABS(0.018*G30+3*0.00001)</f>
+        <f t="shared" ref="AK27:AK52" si="5">ABS(0.018*G30+3*0.00001)</f>
         <v>3.0180000000000006E-5</v>
       </c>
       <c r="AL27" s="8">
-        <f t="shared" ref="AL27:AL52" si="7">ABS(0.005*H30+1*0.01)</f>
+        <f t="shared" ref="AL27:AL52" si="6">ABS(0.005*H30+1*0.01)</f>
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
@@ -7053,11 +7053,11 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0720000000000004E-5</v>
+      </c>
+      <c r="AL28" s="8">
         <f t="shared" si="6"/>
-        <v>3.0720000000000004E-5</v>
-      </c>
-      <c r="AL28" s="8">
-        <f t="shared" si="7"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -7110,11 +7110,11 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0720000000000004E-5</v>
+      </c>
+      <c r="AL29" s="8">
         <f t="shared" si="6"/>
-        <v>3.0720000000000004E-5</v>
-      </c>
-      <c r="AL29" s="8">
-        <f t="shared" si="7"/>
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:G55" si="8">B30/1000</f>
+        <f t="shared" ref="G30:G55" si="7">B30/1000</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H30" s="2">
@@ -7167,11 +7167,11 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8">
+        <f t="shared" si="5"/>
+        <v>3.7020000000000001E-5</v>
+      </c>
+      <c r="AL30" s="8">
         <f t="shared" si="6"/>
-        <v>3.7020000000000001E-5</v>
-      </c>
-      <c r="AL30" s="8">
-        <f t="shared" si="7"/>
         <v>2.3E-2</v>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H31" s="2">
@@ -7224,11 +7224,11 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8">
+        <f t="shared" si="5"/>
+        <v>5.4120000000000004E-5</v>
+      </c>
+      <c r="AL31" s="8">
         <f t="shared" si="6"/>
-        <v>5.4120000000000004E-5</v>
-      </c>
-      <c r="AL31" s="8">
-        <f t="shared" si="7"/>
         <v>2.35E-2</v>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H32" s="2">
@@ -7281,11 +7281,11 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8">
+        <f t="shared" si="5"/>
+        <v>8.8499999999999996E-5</v>
+      </c>
+      <c r="AL32" s="8">
         <f t="shared" si="6"/>
-        <v>8.8499999999999996E-5</v>
-      </c>
-      <c r="AL32" s="8">
-        <f t="shared" si="7"/>
         <v>2.4E-2</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="H33" s="2">
@@ -7338,11 +7338,11 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0164000000000001E-4</v>
+      </c>
+      <c r="AL33" s="8">
         <f t="shared" si="6"/>
-        <v>1.0164000000000001E-4</v>
-      </c>
-      <c r="AL33" s="8">
-        <f t="shared" si="7"/>
         <v>2.41E-2</v>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.34E-3</v>
       </c>
       <c r="H34" s="2">
@@ -7395,11 +7395,11 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1154000000000001E-4</v>
+      </c>
+      <c r="AL34" s="8">
         <f t="shared" si="6"/>
-        <v>1.1154000000000001E-4</v>
-      </c>
-      <c r="AL34" s="8">
-        <f t="shared" si="7"/>
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2499999999999999E-3</v>
       </c>
       <c r="H35" s="2">
@@ -7456,11 +7456,11 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2342000000000001E-4</v>
+      </c>
+      <c r="AL35" s="8">
         <f t="shared" si="6"/>
-        <v>1.2342000000000001E-4</v>
-      </c>
-      <c r="AL35" s="8">
-        <f t="shared" si="7"/>
         <v>2.4300000000000002E-2</v>
       </c>
     </row>
@@ -7478,7 +7478,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.98E-3</v>
       </c>
       <c r="H36" s="2">
@@ -7532,11 +7532,11 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3944000000000001E-4</v>
+      </c>
+      <c r="AL36" s="8">
         <f t="shared" si="6"/>
-        <v>1.3944000000000001E-4</v>
-      </c>
-      <c r="AL36" s="8">
-        <f t="shared" si="7"/>
         <v>2.4399999999999998E-2</v>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="H37" s="2">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="1">
-        <f t="shared" ref="N37:N55" si="9">G37</f>
+        <f t="shared" ref="N37:N55" si="8">G37</f>
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="O37" s="2">
@@ -7600,11 +7600,11 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5077999999999999E-4</v>
+      </c>
+      <c r="AL37" s="8">
         <f t="shared" si="6"/>
-        <v>1.5077999999999999E-4</v>
-      </c>
-      <c r="AL37" s="8">
-        <f t="shared" si="7"/>
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
@@ -7622,7 +7622,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.1900000000000002E-3</v>
       </c>
       <c r="H38" s="2">
@@ -7634,7 +7634,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.1900000000000002E-3</v>
       </c>
       <c r="O38" s="2">
@@ -7662,11 +7662,11 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8">
+        <f t="shared" si="5"/>
+        <v>1.6409999999999998E-4</v>
+      </c>
+      <c r="AL38" s="8">
         <f t="shared" si="6"/>
-        <v>1.6409999999999998E-4</v>
-      </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="7"/>
         <v>2.46E-2</v>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="H39" s="2">
@@ -7696,7 +7696,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="O39" s="2">
@@ -7726,11 +7726,11 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8">
+        <f t="shared" si="5"/>
+        <v>1.8228E-4</v>
+      </c>
+      <c r="AL39" s="8">
         <f t="shared" si="6"/>
-        <v>1.8228E-4</v>
-      </c>
-      <c r="AL39" s="8">
-        <f t="shared" si="7"/>
         <v>2.47E-2</v>
       </c>
     </row>
@@ -7748,7 +7748,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="H40" s="2">
@@ -7760,7 +7760,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="O40" s="2">
@@ -7793,11 +7793,11 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8">
+        <f t="shared" si="5"/>
+        <v>2.0549999999999998E-4</v>
+      </c>
+      <c r="AL40" s="8">
         <f t="shared" si="6"/>
-        <v>2.0549999999999998E-4</v>
-      </c>
-      <c r="AL40" s="8">
-        <f t="shared" si="7"/>
         <v>2.4800000000000003E-2</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.45E-3</v>
       </c>
       <c r="H41" s="2">
@@ -7827,7 +7827,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7.45E-3</v>
       </c>
       <c r="O41" s="2">
@@ -7855,11 +7855,11 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8">
+        <f t="shared" si="5"/>
+        <v>2.2079999999999997E-4</v>
+      </c>
+      <c r="AL41" s="8">
         <f t="shared" si="6"/>
-        <v>2.2079999999999997E-4</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="7"/>
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="6"/>
       <c r="G42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="H42" s="2">
@@ -7889,7 +7889,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="O42" s="2">
@@ -7917,11 +7917,11 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8">
+        <f t="shared" si="5"/>
+        <v>2.4671999999999997E-4</v>
+      </c>
+      <c r="AL42" s="8">
         <f t="shared" si="6"/>
-        <v>2.4671999999999997E-4</v>
-      </c>
-      <c r="AL42" s="8">
-        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="6"/>
       <c r="G43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.75E-3</v>
       </c>
       <c r="H43" s="2">
@@ -7951,7 +7951,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.75E-3</v>
       </c>
       <c r="O43" s="2">
@@ -7979,11 +7979,11 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8">
+        <f t="shared" si="5"/>
+        <v>2.586E-4</v>
+      </c>
+      <c r="AL43" s="8">
         <f t="shared" si="6"/>
-        <v>2.586E-4</v>
-      </c>
-      <c r="AL43" s="8">
-        <f t="shared" si="7"/>
         <v>2.5049999999999999E-2</v>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="6"/>
       <c r="G44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.06E-2</v>
       </c>
       <c r="H44" s="2">
@@ -8013,7 +8013,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.06E-2</v>
       </c>
       <c r="O44" s="2">
@@ -8041,11 +8041,11 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8">
+        <f t="shared" si="5"/>
+        <v>2.6363999999999999E-4</v>
+      </c>
+      <c r="AL44" s="8">
         <f t="shared" si="6"/>
-        <v>2.6363999999999999E-4</v>
-      </c>
-      <c r="AL44" s="8">
-        <f t="shared" si="7"/>
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="6"/>
       <c r="G45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="H45" s="2">
@@ -8075,7 +8075,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="O45" s="2">
@@ -8103,11 +8103,11 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8">
+        <f t="shared" si="5"/>
+        <v>2.8091999999999999E-4</v>
+      </c>
+      <c r="AL45" s="8">
         <f t="shared" si="6"/>
-        <v>2.8091999999999999E-4</v>
-      </c>
-      <c r="AL45" s="8">
-        <f t="shared" si="7"/>
         <v>2.5149999999999999E-2</v>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="6"/>
       <c r="G46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H46" s="2">
@@ -8137,7 +8137,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="O46" s="2">
@@ -8165,11 +8165,11 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8">
+        <f t="shared" si="5"/>
+        <v>2.901E-4</v>
+      </c>
+      <c r="AL46" s="8">
         <f t="shared" si="6"/>
-        <v>2.901E-4</v>
-      </c>
-      <c r="AL46" s="8">
-        <f t="shared" si="7"/>
         <v>2.52E-2</v>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="6"/>
       <c r="G47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.298E-2</v>
       </c>
       <c r="H47" s="2">
@@ -8199,7 +8199,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.298E-2</v>
       </c>
       <c r="O47" s="2">
@@ -8227,11 +8227,11 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8">
+        <f t="shared" si="5"/>
+        <v>2.9838E-4</v>
+      </c>
+      <c r="AL47" s="8">
         <f t="shared" si="6"/>
-        <v>2.9838E-4</v>
-      </c>
-      <c r="AL47" s="8">
-        <f t="shared" si="7"/>
         <v>2.5250000000000002E-2</v>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="6"/>
       <c r="G48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="H48" s="2">
@@ -8261,7 +8261,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="O48" s="2">
@@ -8289,11 +8289,11 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8">
+        <f t="shared" si="5"/>
+        <v>3.1062E-4</v>
+      </c>
+      <c r="AL48" s="8">
         <f t="shared" si="6"/>
-        <v>3.1062E-4</v>
-      </c>
-      <c r="AL48" s="8">
-        <f t="shared" si="7"/>
         <v>2.5300000000000003E-2</v>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="H49" s="2">
@@ -8323,7 +8323,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="O49" s="2">
@@ -8351,11 +8351,11 @@
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0684000000000001E-4</v>
+      </c>
+      <c r="AL49" s="8">
         <f t="shared" si="6"/>
-        <v>3.0684000000000001E-4</v>
-      </c>
-      <c r="AL49" s="8">
-        <f t="shared" si="7"/>
         <v>2.5349999999999998E-2</v>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.491E-2</v>
       </c>
       <c r="H50" s="2">
@@ -8385,7 +8385,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.491E-2</v>
       </c>
       <c r="O50" s="2">
@@ -8413,11 +8413,11 @@
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8">
+        <f t="shared" si="5"/>
+        <v>3.4230000000000003E-4</v>
+      </c>
+      <c r="AL50" s="8">
         <f t="shared" si="6"/>
-        <v>3.4230000000000003E-4</v>
-      </c>
-      <c r="AL50" s="8">
-        <f t="shared" si="7"/>
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.559E-2</v>
       </c>
       <c r="H51" s="2">
@@ -8447,7 +8447,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.559E-2</v>
       </c>
       <c r="O51" s="2">
@@ -8475,11 +8475,11 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8">
+        <f t="shared" si="5"/>
+        <v>3.4842E-4</v>
+      </c>
+      <c r="AL51" s="8">
         <f t="shared" si="6"/>
-        <v>3.4842E-4</v>
-      </c>
-      <c r="AL51" s="8">
-        <f t="shared" si="7"/>
         <v>2.545E-2</v>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="6"/>
       <c r="G52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="H52" s="2">
@@ -8509,7 +8509,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="O52" s="2">
@@ -8537,11 +8537,11 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8">
+        <f t="shared" si="5"/>
+        <v>3.6588000000000001E-4</v>
+      </c>
+      <c r="AL52" s="8">
         <f t="shared" si="6"/>
-        <v>3.6588000000000001E-4</v>
-      </c>
-      <c r="AL52" s="8">
-        <f t="shared" si="7"/>
         <v>2.5500000000000002E-2</v>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="6"/>
       <c r="G53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="H53" s="2">
@@ -8571,7 +8571,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="O53" s="2">
@@ -8615,7 +8615,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="H54" s="2">
@@ -8627,7 +8627,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="O54" s="2">
@@ -8671,7 +8671,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.866E-2</v>
       </c>
       <c r="H55" s="2">
@@ -8683,7 +8683,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.866E-2</v>
       </c>
       <c r="O55" s="2">
@@ -8849,8 +8849,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f>600*10^(-9)</f>
-        <v>6.0000000000000008E-7</v>
+        <f>590*10^(-9)</f>
+        <v>5.9000000000000007E-7</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -8997,7 +8997,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G67" si="10">B62/1000</f>
+        <f t="shared" ref="G62:G67" si="9">B62/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H62" s="3">
@@ -9048,7 +9048,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H63" s="3">
@@ -9099,7 +9099,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="H64" s="3">
@@ -9150,7 +9150,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.1E-4</v>
       </c>
       <c r="H65" s="3">
@@ -9201,7 +9201,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="H66" s="3">
@@ -9252,7 +9252,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.6000000000000003E-4</v>
       </c>
       <c r="H67" s="3">
@@ -9303,7 +9303,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G92" si="11">B68/1000</f>
+        <f t="shared" ref="G68:G92" si="10">B68/1000</f>
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="H68" s="3">
@@ -9354,7 +9354,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="H69" s="3">
@@ -9405,7 +9405,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="H70" s="3">
@@ -9456,7 +9456,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5300000000000001E-3</v>
       </c>
       <c r="H71" s="3">
@@ -9507,7 +9507,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.31E-3</v>
       </c>
       <c r="H72" s="3">
@@ -9522,7 +9522,10 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
+      <c r="R72" s="9">
+        <f>0.291/0.1515</f>
+        <v>1.9207920792079207</v>
+      </c>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -9558,7 +9561,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="H73" s="3">
@@ -9609,7 +9612,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.3700000000000002E-3</v>
       </c>
       <c r="H74" s="3">
@@ -9660,7 +9663,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.0300000000000006E-3</v>
       </c>
       <c r="H75" s="3">
@@ -9715,7 +9718,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.79E-3</v>
       </c>
       <c r="H76" s="3">
@@ -9747,7 +9750,7 @@
         <v>13</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76" si="12">-(L76)/K76</f>
+        <f>-(L76)/K76</f>
         <v>1.951030392883617</v>
       </c>
       <c r="S76" s="9"/>
@@ -9785,7 +9788,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="6"/>
       <c r="G77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="H77" s="3">
@@ -9803,7 +9806,7 @@
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="5">
-        <f t="shared" ref="N77:N92" si="13">G77</f>
+        <f t="shared" ref="N77:N92" si="11">G77</f>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="O77" s="3">
@@ -9847,7 +9850,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="H78" s="3">
@@ -9859,7 +9862,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="O78" s="3">
@@ -9903,7 +9906,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="H79" s="3">
@@ -9915,7 +9918,7 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="O79" s="3">
@@ -9961,7 +9964,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="H80" s="3">
@@ -9973,7 +9976,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="O80" s="3">
@@ -9986,7 +9989,7 @@
       </c>
       <c r="S80" s="6">
         <f>($O$2*G59*R76)/($O$1)</f>
-        <v>6.2561186403770195E-34</v>
+        <v>6.1518499963707353E-34</v>
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
@@ -10022,7 +10025,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="6"/>
       <c r="G81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="H81" s="3">
@@ -10034,7 +10037,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="O81" s="3">
@@ -10078,7 +10081,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="6"/>
       <c r="G82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.108E-2</v>
       </c>
       <c r="H82" s="3">
@@ -10090,7 +10093,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.108E-2</v>
       </c>
       <c r="O82" s="3">
@@ -10134,7 +10137,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="H83" s="3">
@@ -10146,7 +10149,7 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="O83" s="3">
@@ -10190,7 +10193,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="H84" s="3">
@@ -10202,7 +10205,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="O84" s="3">
@@ -10246,7 +10249,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="6"/>
       <c r="G85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="H85" s="3">
@@ -10258,7 +10261,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="O85" s="3">
@@ -10302,7 +10305,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="6"/>
       <c r="G86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.738E-2</v>
       </c>
       <c r="H86" s="3">
@@ -10314,7 +10317,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.738E-2</v>
       </c>
       <c r="O86" s="3">
@@ -10358,7 +10361,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="6"/>
       <c r="G87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.899E-2</v>
       </c>
       <c r="H87" s="3">
@@ -10370,7 +10373,7 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.899E-2</v>
       </c>
       <c r="O87" s="3">
@@ -10414,7 +10417,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="6"/>
       <c r="G88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="H88" s="3">
@@ -10426,7 +10429,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="O88" s="3">
@@ -10470,7 +10473,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="6"/>
       <c r="G89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="H89" s="3">
@@ -10482,7 +10485,7 @@
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="O89" s="3">
@@ -10526,7 +10529,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="6"/>
       <c r="G90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="H90" s="3">
@@ -10538,7 +10541,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="O90" s="3">
@@ -10582,7 +10585,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="6"/>
       <c r="G91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="H91" s="3">
@@ -10594,7 +10597,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="O91" s="3">
@@ -10638,7 +10641,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="6"/>
       <c r="G92" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.869E-2</v>
       </c>
       <c r="H92" s="3">
@@ -10650,7 +10653,7 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.869E-2</v>
       </c>
       <c r="O92" s="3">

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A375D88B-721B-4E00-86DD-EED22AFB1C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D7FC1-D461-4BDD-9E0C-EBC102A4D068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,12 +96,6 @@
     <t>NIEPEWNOSCI</t>
   </si>
   <si>
-    <t>u(I)[A]:</t>
-  </si>
-  <si>
-    <t>u(U)[V]:</t>
-  </si>
-  <si>
     <t>u_c(U_B)=</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>adks</t>
+  </si>
+  <si>
+    <t>u(I)[A]</t>
+  </si>
+  <si>
+    <t>u(U)[V]</t>
   </si>
 </sst>
 </file>
@@ -498,43 +498,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2700000000000002E-5</c:v>
+                    <c:v>3.2100000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.3399999999999997E-5</c:v>
+                    <c:v>4.8200000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3299999999999994E-5</c:v>
+                    <c:v>5.5900000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.6619999999999995E-5</c:v>
+                    <c:v>6.6260000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.371999999999999E-5</c:v>
+                    <c:v>7.9560000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.1406E-4</c:v>
+                    <c:v>9.5379999999999998E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7076E-4</c:v>
+                    <c:v>1.3948000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.0999999999999998E-4</c:v>
+                    <c:v>1.7000000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.5734E-4</c:v>
+                    <c:v>2.0682E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.1206000000000002E-4</c:v>
+                    <c:v>2.4938E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9414000000000002E-4</c:v>
+                    <c:v>3.1322000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>3.0000000000000004E-5</c:v>
@@ -552,43 +552,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2700000000000002E-5</c:v>
+                    <c:v>3.2100000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.3399999999999997E-5</c:v>
+                    <c:v>4.8200000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3299999999999994E-5</c:v>
+                    <c:v>5.5900000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.6619999999999995E-5</c:v>
+                    <c:v>6.6260000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.371999999999999E-5</c:v>
+                    <c:v>7.9560000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.1406E-4</c:v>
+                    <c:v>9.5379999999999998E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7076E-4</c:v>
+                    <c:v>1.3948000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.0999999999999998E-4</c:v>
+                    <c:v>1.7000000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.5734E-4</c:v>
+                    <c:v>2.0682E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.1206000000000002E-4</c:v>
+                    <c:v>2.4938E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9414000000000002E-4</c:v>
+                    <c:v>3.1322000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>3.0000000000000004E-5</c:v>
@@ -847,43 +847,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2700000000000002E-5</c:v>
+                    <c:v>3.2100000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.3399999999999997E-5</c:v>
+                    <c:v>4.8200000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3299999999999994E-5</c:v>
+                    <c:v>5.5900000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.6619999999999995E-5</c:v>
+                    <c:v>6.6260000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.371999999999999E-5</c:v>
+                    <c:v>7.9560000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.1406E-4</c:v>
+                    <c:v>9.5379999999999998E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7076E-4</c:v>
+                    <c:v>1.3948000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.0999999999999998E-4</c:v>
+                    <c:v>1.7000000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.5734E-4</c:v>
+                    <c:v>2.0682E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.1206000000000002E-4</c:v>
+                    <c:v>2.4938E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9414000000000002E-4</c:v>
+                    <c:v>3.1322000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>3.0000000000000004E-5</c:v>
@@ -901,43 +901,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2700000000000002E-5</c:v>
+                    <c:v>3.2100000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.3399999999999997E-5</c:v>
+                    <c:v>4.8200000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3299999999999994E-5</c:v>
+                    <c:v>5.5900000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.6619999999999995E-5</c:v>
+                    <c:v>6.6260000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.371999999999999E-5</c:v>
+                    <c:v>7.9560000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.1406E-4</c:v>
+                    <c:v>9.5379999999999998E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.7076E-4</c:v>
+                    <c:v>1.3948000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.0999999999999998E-4</c:v>
+                    <c:v>1.7000000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.5734E-4</c:v>
+                    <c:v>2.0682E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.1206000000000002E-4</c:v>
+                    <c:v>2.4938E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9414000000000002E-4</c:v>
+                    <c:v>3.1322000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>3.0000000000000004E-5</c:v>
@@ -1686,82 +1686,82 @@
                     <c:v>3.0000000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.7020000000000001E-5</c:v>
+                    <c:v>3.5460000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.4120000000000004E-5</c:v>
+                    <c:v>4.8760000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.8499999999999996E-5</c:v>
+                    <c:v>7.5500000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.0164000000000001E-4</c:v>
+                    <c:v>8.5720000000000013E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1154000000000001E-4</c:v>
+                    <c:v>9.342000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.2342000000000001E-4</c:v>
+                    <c:v>1.0266E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5077999999999999E-4</c:v>
+                    <c:v>1.2394000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.6409999999999998E-4</c:v>
+                    <c:v>1.3430000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.8228E-4</c:v>
+                    <c:v>1.4844000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.0549999999999998E-4</c:v>
+                    <c:v>1.6650000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.2079999999999997E-4</c:v>
+                    <c:v>1.784E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.4671999999999997E-4</c:v>
+                    <c:v>1.9855999999999997E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.586E-4</c:v>
+                    <c:v>2.0779999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.6363999999999999E-4</c:v>
+                    <c:v>2.1172000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.8091999999999999E-4</c:v>
+                    <c:v>2.2515999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.901E-4</c:v>
+                    <c:v>2.3229999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.9838E-4</c:v>
+                    <c:v>2.3874000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.1062E-4</c:v>
+                    <c:v>2.4825999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.0684000000000001E-4</c:v>
+                    <c:v>2.4532000000000004E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4230000000000003E-4</c:v>
+                    <c:v>2.7290000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4842E-4</c:v>
+                    <c:v>2.7766000000000005E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.6588000000000001E-4</c:v>
+                    <c:v>2.9124000000000001E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1776,82 +1776,82 @@
                     <c:v>3.0000000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0180000000000006E-5</c:v>
+                    <c:v>3.0140000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.7020000000000001E-5</c:v>
+                    <c:v>3.5460000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.4120000000000004E-5</c:v>
+                    <c:v>4.8760000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.8499999999999996E-5</c:v>
+                    <c:v>7.5500000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.0164000000000001E-4</c:v>
+                    <c:v>8.5720000000000013E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1154000000000001E-4</c:v>
+                    <c:v>9.342000000000001E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.2342000000000001E-4</c:v>
+                    <c:v>1.0266E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3944000000000001E-4</c:v>
+                    <c:v>1.1512000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5077999999999999E-4</c:v>
+                    <c:v>1.2394000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.6409999999999998E-4</c:v>
+                    <c:v>1.3430000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.8228E-4</c:v>
+                    <c:v>1.4844000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.0549999999999998E-4</c:v>
+                    <c:v>1.6650000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.2079999999999997E-4</c:v>
+                    <c:v>1.784E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.4671999999999997E-4</c:v>
+                    <c:v>1.9855999999999997E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.586E-4</c:v>
+                    <c:v>2.0779999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.6363999999999999E-4</c:v>
+                    <c:v>2.1172000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.8091999999999999E-4</c:v>
+                    <c:v>2.2515999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.901E-4</c:v>
+                    <c:v>2.3229999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.9838E-4</c:v>
+                    <c:v>2.3874000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.1062E-4</c:v>
+                    <c:v>2.4825999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.0684000000000001E-4</c:v>
+                    <c:v>2.4532000000000004E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4230000000000003E-4</c:v>
+                    <c:v>2.7290000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4842E-4</c:v>
+                    <c:v>2.7766000000000005E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.6588000000000001E-4</c:v>
+                    <c:v>2.9124000000000001E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2972,97 +2972,97 @@
                     <c:v>3.0000000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0360000000000004E-5</c:v>
+                    <c:v>3.0280000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1260000000000002E-5</c:v>
+                    <c:v>3.0980000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1980000000000002E-5</c:v>
+                    <c:v>3.1540000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.3060000000000005E-5</c:v>
+                    <c:v>3.2380000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.4680000000000007E-5</c:v>
+                    <c:v>3.3640000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7380000000000005E-5</c:v>
+                    <c:v>3.5740000000000007E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.1340000000000007E-5</c:v>
+                    <c:v>3.8820000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.7639999999999998E-5</c:v>
+                    <c:v>4.3720000000000002E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.7540000000000008E-5</c:v>
+                    <c:v>5.1420000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.1580000000000002E-5</c:v>
+                    <c:v>6.2340000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0039999999999999E-5</c:v>
+                    <c:v>6.8920000000000011E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.0660000000000003E-5</c:v>
+                    <c:v>7.7180000000000017E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.0254E-4</c:v>
+                    <c:v>8.6420000000000016E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1622E-4</c:v>
+                    <c:v>9.7059999999999996E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3134E-4</c:v>
+                    <c:v>1.0882000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4808000000000001E-4</c:v>
+                    <c:v>1.2184000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.6553999999999999E-4</c:v>
+                    <c:v>1.3542E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.8587999999999998E-4</c:v>
+                    <c:v>1.5124E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.0784000000000002E-4</c:v>
+                    <c:v>1.6832000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.2943999999999997E-4</c:v>
+                    <c:v>1.8511999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5428000000000001E-4</c:v>
+                    <c:v>2.0444000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.8308000000000001E-4</c:v>
+                    <c:v>2.2684000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.0791999999999999E-4</c:v>
+                    <c:v>2.4615999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4284000000000002E-4</c:v>
+                    <c:v>2.7332000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.7181999999999997E-4</c:v>
+                    <c:v>2.9586E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.0476000000000005E-4</c:v>
+                    <c:v>3.2148000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.3878E-4</c:v>
+                    <c:v>3.4794000000000003E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.7945999999999997E-4</c:v>
+                    <c:v>3.7958000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5.1473999999999997E-4</c:v>
+                    <c:v>4.0702000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>5.4641999999999994E-4</c:v>
+                    <c:v>4.3166000000000005E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3077,97 +3077,97 @@
                     <c:v>3.0000000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0360000000000004E-5</c:v>
+                    <c:v>3.0280000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0720000000000004E-5</c:v>
+                    <c:v>3.0560000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1260000000000002E-5</c:v>
+                    <c:v>3.0980000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1980000000000002E-5</c:v>
+                    <c:v>3.1540000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.3060000000000005E-5</c:v>
+                    <c:v>3.2380000000000005E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.4680000000000007E-5</c:v>
+                    <c:v>3.3640000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7380000000000005E-5</c:v>
+                    <c:v>3.5740000000000007E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.1340000000000007E-5</c:v>
+                    <c:v>3.8820000000000004E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.7639999999999998E-5</c:v>
+                    <c:v>4.3720000000000002E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.7540000000000008E-5</c:v>
+                    <c:v>5.1420000000000006E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.1580000000000002E-5</c:v>
+                    <c:v>6.2340000000000003E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.0039999999999999E-5</c:v>
+                    <c:v>6.8920000000000011E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>9.0660000000000003E-5</c:v>
+                    <c:v>7.7180000000000017E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.0254E-4</c:v>
+                    <c:v>8.6420000000000016E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1622E-4</c:v>
+                    <c:v>9.7059999999999996E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3134E-4</c:v>
+                    <c:v>1.0882000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4808000000000001E-4</c:v>
+                    <c:v>1.2184000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.6553999999999999E-4</c:v>
+                    <c:v>1.3542E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.8587999999999998E-4</c:v>
+                    <c:v>1.5124E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.0784000000000002E-4</c:v>
+                    <c:v>1.6832000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.2943999999999997E-4</c:v>
+                    <c:v>1.8511999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5428000000000001E-4</c:v>
+                    <c:v>2.0444000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.8308000000000001E-4</c:v>
+                    <c:v>2.2684000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.0791999999999999E-4</c:v>
+                    <c:v>2.4615999999999999E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4284000000000002E-4</c:v>
+                    <c:v>2.7332000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.7181999999999997E-4</c:v>
+                    <c:v>2.9586E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.0476000000000005E-4</c:v>
+                    <c:v>3.2148000000000007E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.3878E-4</c:v>
+                    <c:v>3.4794000000000003E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.7945999999999997E-4</c:v>
+                    <c:v>3.7958000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5.1473999999999997E-4</c:v>
+                    <c:v>4.0702000000000002E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>5.4641999999999994E-4</c:v>
+                    <c:v>4.3166000000000005E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5977,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC23" sqref="BC23"/>
+    <sheetView tabSelected="1" topLeftCell="N64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5998,7 +5998,8 @@
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -6052,10 +6053,10 @@
         <v>20</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
@@ -6106,8 +6107,8 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7">
-        <f t="shared" ref="AK2:AK16" si="0">ABS(0.018*G4+3*0.00001)</f>
-        <v>3.0180000000000006E-5</v>
+        <f>ABS(0.014*G4+3*0.00001)</f>
+        <v>3.0140000000000003E-5</v>
       </c>
       <c r="AL2" s="7">
         <f>ABS(0.005*H4+1*0.01)</f>
@@ -6137,7 +6138,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O3" s="7">
         <f>0.01*10^(-9)</f>
@@ -6165,8 +6166,8 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7">
-        <f t="shared" si="0"/>
-        <v>3.2700000000000002E-5</v>
+        <f t="shared" ref="AK3:AK16" si="0">ABS(0.014*G5+3*0.00001)</f>
+        <v>3.2100000000000001E-5</v>
       </c>
       <c r="AL3" s="7">
         <f t="shared" ref="AL3:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
@@ -6223,7 +6224,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7">
         <f t="shared" si="0"/>
-        <v>5.3399999999999997E-5</v>
+        <v>4.8200000000000006E-5</v>
       </c>
       <c r="AL4" s="7">
         <f t="shared" si="1"/>
@@ -6280,7 +6281,7 @@
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7">
         <f t="shared" si="0"/>
-        <v>6.3299999999999994E-5</v>
+        <v>5.5900000000000004E-5</v>
       </c>
       <c r="AL5" s="7">
         <f t="shared" si="1"/>
@@ -6337,7 +6338,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7">
         <f t="shared" si="0"/>
-        <v>7.6619999999999995E-5</v>
+        <v>6.6260000000000006E-5</v>
       </c>
       <c r="AL6" s="7">
         <f t="shared" si="1"/>
@@ -6394,7 +6395,7 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7">
         <f t="shared" si="0"/>
-        <v>9.371999999999999E-5</v>
+        <v>7.9560000000000004E-5</v>
       </c>
       <c r="AL7" s="7">
         <f t="shared" si="1"/>
@@ -6451,7 +6452,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7">
         <f t="shared" si="0"/>
-        <v>1.1406E-4</v>
+        <v>9.5379999999999998E-5</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" si="1"/>
@@ -6511,8 +6512,8 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7">
-        <f>ABS(0.018*G11+3*0.00001)</f>
-        <v>1.3944000000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.1512000000000002E-4</v>
       </c>
       <c r="AL9" s="7">
         <f>ABS(0.005*H11+1*0.01)</f>
@@ -6551,7 +6552,7 @@
         <v>-0.2338067857142854</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1">
         <f>G10</f>
@@ -6590,7 +6591,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7">
         <f t="shared" si="0"/>
-        <v>1.7076E-4</v>
+        <v>1.3948000000000001E-4</v>
       </c>
       <c r="AL10" s="7">
         <f t="shared" si="1"/>
@@ -6636,7 +6637,7 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7">
         <f>SQRT(((L11^2)*((-1/K10)^2))+((K11^2)*((-L10/(K10^2))^2)))</f>
@@ -6663,7 +6664,7 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7">
         <f t="shared" si="0"/>
-        <v>2.0999999999999998E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="AL11" s="7">
         <f t="shared" si="1"/>
@@ -6725,7 +6726,7 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7">
         <f t="shared" si="0"/>
-        <v>2.5734E-4</v>
+        <v>2.0682E-4</v>
       </c>
       <c r="AL12" s="7">
         <f t="shared" si="1"/>
@@ -6789,7 +6790,7 @@
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7">
         <f t="shared" si="0"/>
-        <v>3.1206000000000002E-4</v>
+        <v>2.4938E-4</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" si="1"/>
@@ -6856,7 +6857,7 @@
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7">
         <f t="shared" si="0"/>
-        <v>3.9414000000000002E-4</v>
+        <v>3.1322000000000007E-4</v>
       </c>
       <c r="AL14" s="7">
         <f>ABS(0.005*H16+1*0.01)</f>
@@ -6898,7 +6899,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S15" s="7">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q11^2)*((($O$2*G2)/($O$1)))^2))</f>
@@ -7232,7 +7233,7 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="BC22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.3">
@@ -7355,10 +7356,10 @@
         <v>20</v>
       </c>
       <c r="AK25" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.3">
@@ -7403,7 +7404,7 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8">
-        <f>ABS(0.018*G29+3*0.00001)</f>
+        <f>ABS(0.014*G29+3*0.00001)</f>
         <v>3.0000000000000004E-5</v>
       </c>
       <c r="AL26" s="8">
@@ -7454,8 +7455,8 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8">
-        <f t="shared" ref="AK27:AK52" si="6">ABS(0.018*G30+3*0.00001)</f>
-        <v>3.0180000000000006E-5</v>
+        <f t="shared" ref="AK27:AK52" si="6">ABS(0.014*G30+3*0.00001)</f>
+        <v>3.0140000000000003E-5</v>
       </c>
       <c r="AL27" s="8">
         <f t="shared" ref="AL27:AL52" si="7">ABS(0.005*H30+1*0.01)</f>
@@ -7509,7 +7510,7 @@
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8">
         <f t="shared" si="6"/>
-        <v>3.0720000000000004E-5</v>
+        <v>3.0560000000000006E-5</v>
       </c>
       <c r="AL28" s="8">
         <f t="shared" si="7"/>
@@ -7566,7 +7567,7 @@
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8">
         <f t="shared" si="6"/>
-        <v>3.0720000000000004E-5</v>
+        <v>3.0560000000000006E-5</v>
       </c>
       <c r="AL29" s="8">
         <f t="shared" si="7"/>
@@ -7623,7 +7624,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8">
         <f t="shared" si="6"/>
-        <v>3.7020000000000001E-5</v>
+        <v>3.5460000000000003E-5</v>
       </c>
       <c r="AL30" s="8">
         <f t="shared" si="7"/>
@@ -7680,7 +7681,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8">
         <f t="shared" si="6"/>
-        <v>5.4120000000000004E-5</v>
+        <v>4.8760000000000001E-5</v>
       </c>
       <c r="AL31" s="8">
         <f t="shared" si="7"/>
@@ -7737,7 +7738,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8">
         <f t="shared" si="6"/>
-        <v>8.8499999999999996E-5</v>
+        <v>7.5500000000000006E-5</v>
       </c>
       <c r="AL32" s="8">
         <f t="shared" si="7"/>
@@ -7794,7 +7795,7 @@
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8">
         <f t="shared" si="6"/>
-        <v>1.0164000000000001E-4</v>
+        <v>8.5720000000000013E-5</v>
       </c>
       <c r="AL33" s="8">
         <f t="shared" si="7"/>
@@ -7851,7 +7852,7 @@
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8">
         <f t="shared" si="6"/>
-        <v>1.1154000000000001E-4</v>
+        <v>9.342000000000001E-5</v>
       </c>
       <c r="AL34" s="8">
         <f t="shared" si="7"/>
@@ -7912,7 +7913,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8">
         <f t="shared" si="6"/>
-        <v>1.2342000000000001E-4</v>
+        <v>1.0266E-4</v>
       </c>
       <c r="AL35" s="8">
         <f t="shared" si="7"/>
@@ -7983,7 +7984,7 @@
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8">
         <f t="shared" si="6"/>
-        <v>1.3944000000000001E-4</v>
+        <v>1.1512000000000002E-4</v>
       </c>
       <c r="AL36" s="8">
         <f t="shared" si="7"/>
@@ -8049,7 +8050,7 @@
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8">
         <f t="shared" si="6"/>
-        <v>1.5077999999999999E-4</v>
+        <v>1.2394000000000001E-4</v>
       </c>
       <c r="AL37" s="8">
         <f t="shared" si="7"/>
@@ -8106,7 +8107,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8">
         <f t="shared" si="6"/>
-        <v>1.6409999999999998E-4</v>
+        <v>1.3430000000000001E-4</v>
       </c>
       <c r="AL38" s="8">
         <f t="shared" si="7"/>
@@ -8165,7 +8166,7 @@
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8">
         <f t="shared" si="6"/>
-        <v>1.8228E-4</v>
+        <v>1.4844000000000001E-4</v>
       </c>
       <c r="AL39" s="8">
         <f t="shared" si="7"/>
@@ -8227,7 +8228,7 @@
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8">
         <f t="shared" si="6"/>
-        <v>2.0549999999999998E-4</v>
+        <v>1.6650000000000001E-4</v>
       </c>
       <c r="AL40" s="8">
         <f t="shared" si="7"/>
@@ -8264,7 +8265,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S41" s="8">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q37^2)*((($O$2*G27)/($O$1)))^2))</f>
@@ -8289,7 +8290,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8">
         <f t="shared" si="6"/>
-        <v>2.2079999999999997E-4</v>
+        <v>1.784E-4</v>
       </c>
       <c r="AL41" s="8">
         <f t="shared" si="7"/>
@@ -8321,7 +8322,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ref="N42:N55" si="9">G42</f>
@@ -8353,7 +8354,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8">
         <f t="shared" si="6"/>
-        <v>2.4671999999999997E-4</v>
+        <v>1.9855999999999997E-4</v>
       </c>
       <c r="AL42" s="8">
         <f t="shared" si="7"/>
@@ -8415,7 +8416,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8">
         <f t="shared" si="6"/>
-        <v>2.586E-4</v>
+        <v>2.0779999999999998E-4</v>
       </c>
       <c r="AL43" s="8">
         <f t="shared" si="7"/>
@@ -8477,7 +8478,7 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8">
         <f t="shared" si="6"/>
-        <v>2.6363999999999999E-4</v>
+        <v>2.1172000000000001E-4</v>
       </c>
       <c r="AL44" s="8">
         <f t="shared" si="7"/>
@@ -8539,7 +8540,7 @@
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8">
         <f t="shared" si="6"/>
-        <v>2.8091999999999999E-4</v>
+        <v>2.2515999999999999E-4</v>
       </c>
       <c r="AL45" s="8">
         <f t="shared" si="7"/>
@@ -8601,7 +8602,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8">
         <f t="shared" si="6"/>
-        <v>2.901E-4</v>
+        <v>2.3229999999999998E-4</v>
       </c>
       <c r="AL46" s="8">
         <f t="shared" si="7"/>
@@ -8663,7 +8664,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8">
         <f t="shared" si="6"/>
-        <v>2.9838E-4</v>
+        <v>2.3874000000000001E-4</v>
       </c>
       <c r="AL47" s="8">
         <f t="shared" si="7"/>
@@ -8725,7 +8726,7 @@
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8">
         <f t="shared" si="6"/>
-        <v>3.1062E-4</v>
+        <v>2.4825999999999998E-4</v>
       </c>
       <c r="AL48" s="8">
         <f t="shared" si="7"/>
@@ -8787,7 +8788,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8">
         <f t="shared" si="6"/>
-        <v>3.0684000000000001E-4</v>
+        <v>2.4532000000000004E-4</v>
       </c>
       <c r="AL49" s="8">
         <f t="shared" si="7"/>
@@ -8849,7 +8850,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8">
         <f t="shared" si="6"/>
-        <v>3.4230000000000003E-4</v>
+        <v>2.7290000000000002E-4</v>
       </c>
       <c r="AL50" s="8">
         <f t="shared" si="7"/>
@@ -8911,7 +8912,7 @@
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8">
         <f t="shared" si="6"/>
-        <v>3.4842E-4</v>
+        <v>2.7766000000000005E-4</v>
       </c>
       <c r="AL51" s="8">
         <f t="shared" si="7"/>
@@ -8973,7 +8974,7 @@
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8">
         <f t="shared" si="6"/>
-        <v>3.6588000000000001E-4</v>
+        <v>2.9124000000000001E-4</v>
       </c>
       <c r="AL52" s="8">
         <f t="shared" si="7"/>
@@ -9188,10 +9189,10 @@
         <v>20</v>
       </c>
       <c r="AK56" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL56" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
@@ -9232,7 +9233,7 @@
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9">
-        <f>ABS(0.018*G61+3*0.00001)</f>
+        <f>ABS(0.014*G61+3*0.00001)</f>
         <v>3.0000000000000004E-5</v>
       </c>
       <c r="AL57" s="9">
@@ -9282,8 +9283,8 @@
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9">
-        <f t="shared" ref="AK58:AK88" si="10">ABS(0.018*G62+3*0.00001)</f>
-        <v>3.0360000000000004E-5</v>
+        <f t="shared" ref="AK58:AK88" si="10">ABS(0.014*G62+3*0.00001)</f>
+        <v>3.0280000000000005E-5</v>
       </c>
       <c r="AL58" s="9">
         <f t="shared" ref="AL58:AL88" si="11">ABS(0.005*H62+1*0.01)</f>
@@ -9300,8 +9301,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f>575*10^(-9)</f>
-        <v>5.75E-7</v>
+        <f>585*10^(-9)</f>
+        <v>5.8500000000000001E-7</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -9334,7 +9335,7 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9">
         <f t="shared" si="10"/>
-        <v>3.0720000000000004E-5</v>
+        <v>3.0560000000000006E-5</v>
       </c>
       <c r="AL59" s="9">
         <f t="shared" si="11"/>
@@ -9388,7 +9389,7 @@
       <c r="AJ60" s="9"/>
       <c r="AK60" s="9">
         <f t="shared" si="10"/>
-        <v>3.1260000000000002E-5</v>
+        <v>3.0980000000000005E-5</v>
       </c>
       <c r="AL60" s="9">
         <f t="shared" si="11"/>
@@ -9445,7 +9446,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9">
         <f t="shared" si="10"/>
-        <v>3.1980000000000002E-5</v>
+        <v>3.1540000000000006E-5</v>
       </c>
       <c r="AL61" s="9">
         <f t="shared" si="11"/>
@@ -9502,7 +9503,7 @@
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9">
         <f t="shared" si="10"/>
-        <v>3.3060000000000005E-5</v>
+        <v>3.2380000000000005E-5</v>
       </c>
       <c r="AL62" s="9">
         <f t="shared" si="11"/>
@@ -9559,7 +9560,7 @@
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9">
         <f t="shared" si="10"/>
-        <v>3.4680000000000007E-5</v>
+        <v>3.3640000000000003E-5</v>
       </c>
       <c r="AL63" s="9">
         <f t="shared" si="11"/>
@@ -9616,7 +9617,7 @@
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9">
         <f t="shared" si="10"/>
-        <v>3.7380000000000005E-5</v>
+        <v>3.5740000000000007E-5</v>
       </c>
       <c r="AL64" s="9">
         <f t="shared" si="11"/>
@@ -9673,7 +9674,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9">
         <f t="shared" si="10"/>
-        <v>4.1340000000000007E-5</v>
+        <v>3.8820000000000004E-5</v>
       </c>
       <c r="AL65" s="9">
         <f t="shared" si="11"/>
@@ -9730,7 +9731,7 @@
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9">
         <f t="shared" si="10"/>
-        <v>4.7639999999999998E-5</v>
+        <v>4.3720000000000002E-5</v>
       </c>
       <c r="AL66" s="9">
         <f t="shared" si="11"/>
@@ -9787,7 +9788,7 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9">
         <f t="shared" si="10"/>
-        <v>5.7540000000000008E-5</v>
+        <v>5.1420000000000006E-5</v>
       </c>
       <c r="AL67" s="9">
         <f t="shared" si="11"/>
@@ -9844,7 +9845,7 @@
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9">
         <f t="shared" si="10"/>
-        <v>7.1580000000000002E-5</v>
+        <v>6.2340000000000003E-5</v>
       </c>
       <c r="AL68" s="9">
         <f t="shared" si="11"/>
@@ -9901,7 +9902,7 @@
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9">
         <f t="shared" si="10"/>
-        <v>8.0039999999999999E-5</v>
+        <v>6.8920000000000011E-5</v>
       </c>
       <c r="AL69" s="9">
         <f t="shared" si="11"/>
@@ -9958,7 +9959,7 @@
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9">
         <f t="shared" si="10"/>
-        <v>9.0660000000000003E-5</v>
+        <v>7.7180000000000017E-5</v>
       </c>
       <c r="AL70" s="9">
         <f t="shared" si="11"/>
@@ -10015,7 +10016,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9">
         <f t="shared" si="10"/>
-        <v>1.0254E-4</v>
+        <v>8.6420000000000016E-5</v>
       </c>
       <c r="AL71" s="9">
         <f t="shared" si="11"/>
@@ -10072,7 +10073,7 @@
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9">
         <f t="shared" si="10"/>
-        <v>1.1622E-4</v>
+        <v>9.7059999999999996E-5</v>
       </c>
       <c r="AL72" s="9">
         <f t="shared" si="11"/>
@@ -10129,7 +10130,7 @@
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9">
         <f t="shared" si="10"/>
-        <v>1.3134E-4</v>
+        <v>1.0882000000000001E-4</v>
       </c>
       <c r="AL73" s="9">
         <f t="shared" si="11"/>
@@ -10186,7 +10187,7 @@
       <c r="AJ74" s="9"/>
       <c r="AK74" s="9">
         <f t="shared" si="10"/>
-        <v>1.4808000000000001E-4</v>
+        <v>1.2184000000000001E-4</v>
       </c>
       <c r="AL74" s="9">
         <f t="shared" si="11"/>
@@ -10247,7 +10248,7 @@
       <c r="AJ75" s="9"/>
       <c r="AK75" s="9">
         <f t="shared" si="10"/>
-        <v>1.6553999999999999E-4</v>
+        <v>1.3542E-4</v>
       </c>
       <c r="AL75" s="9">
         <f t="shared" si="11"/>
@@ -10318,7 +10319,7 @@
       <c r="AJ76" s="9"/>
       <c r="AK76" s="9">
         <f t="shared" si="10"/>
-        <v>1.8587999999999998E-4</v>
+        <v>1.5124E-4</v>
       </c>
       <c r="AL76" s="9">
         <f t="shared" si="11"/>
@@ -10359,7 +10360,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q77" s="9">
         <f>SQRT(((L77^2)*((-1/K76)^2))+((K77^2)*((-L76/(K76^2))^2)))</f>
@@ -10386,7 +10387,7 @@
       <c r="AJ77" s="9"/>
       <c r="AK77" s="9">
         <f t="shared" si="10"/>
-        <v>2.0784000000000002E-4</v>
+        <v>1.6832000000000001E-4</v>
       </c>
       <c r="AL77" s="9">
         <f t="shared" si="11"/>
@@ -10443,7 +10444,7 @@
       <c r="AJ78" s="9"/>
       <c r="AK78" s="9">
         <f t="shared" si="10"/>
-        <v>2.2943999999999997E-4</v>
+        <v>1.8511999999999999E-4</v>
       </c>
       <c r="AL78" s="9">
         <f t="shared" si="11"/>
@@ -10502,7 +10503,7 @@
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9">
         <f t="shared" si="10"/>
-        <v>2.5428000000000001E-4</v>
+        <v>2.0444000000000001E-4</v>
       </c>
       <c r="AL79" s="9">
         <f t="shared" si="11"/>
@@ -10543,7 +10544,7 @@
       </c>
       <c r="S80" s="6">
         <f>($O$2*G59*R76)/($O$1)</f>
-        <v>6.0114280969549315E-34</v>
+        <v>6.1159746725541479E-34</v>
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
@@ -10564,7 +10565,7 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9">
         <f t="shared" si="10"/>
-        <v>2.8308000000000001E-4</v>
+        <v>2.2684000000000002E-4</v>
       </c>
       <c r="AL80" s="9">
         <f t="shared" si="11"/>
@@ -10601,11 +10602,11 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S81" s="6">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q77^2)*((($O$2*G59)/($O$1)))^2))</f>
-        <v>3.5052241860758049E-35</v>
+        <v>3.5661846013266052E-35</v>
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
@@ -10626,7 +10627,7 @@
       <c r="AJ81" s="9"/>
       <c r="AK81" s="9">
         <f t="shared" si="10"/>
-        <v>3.0791999999999999E-4</v>
+        <v>2.4615999999999999E-4</v>
       </c>
       <c r="AL81" s="9">
         <f t="shared" si="11"/>
@@ -10683,7 +10684,7 @@
       <c r="AJ82" s="9"/>
       <c r="AK82" s="9">
         <f t="shared" si="10"/>
-        <v>3.4284000000000002E-4</v>
+        <v>2.7332000000000002E-4</v>
       </c>
       <c r="AL82" s="9">
         <f t="shared" si="11"/>
@@ -10740,7 +10741,7 @@
       <c r="AJ83" s="9"/>
       <c r="AK83" s="9">
         <f t="shared" si="10"/>
-        <v>3.7181999999999997E-4</v>
+        <v>2.9586E-4</v>
       </c>
       <c r="AL83" s="9">
         <f t="shared" si="11"/>
@@ -10797,7 +10798,7 @@
       <c r="AJ84" s="9"/>
       <c r="AK84" s="9">
         <f t="shared" si="10"/>
-        <v>4.0476000000000005E-4</v>
+        <v>3.2148000000000007E-4</v>
       </c>
       <c r="AL84" s="9">
         <f t="shared" si="11"/>
@@ -10854,7 +10855,7 @@
       <c r="AJ85" s="9"/>
       <c r="AK85" s="9">
         <f t="shared" si="10"/>
-        <v>4.3878E-4</v>
+        <v>3.4794000000000003E-4</v>
       </c>
       <c r="AL85" s="9">
         <f t="shared" si="11"/>
@@ -10911,7 +10912,7 @@
       <c r="AJ86" s="9"/>
       <c r="AK86" s="9">
         <f t="shared" si="10"/>
-        <v>4.7945999999999997E-4</v>
+        <v>3.7958000000000002E-4</v>
       </c>
       <c r="AL86" s="9">
         <f t="shared" si="11"/>
@@ -10968,7 +10969,7 @@
       <c r="AJ87" s="9"/>
       <c r="AK87" s="9">
         <f t="shared" si="10"/>
-        <v>5.1473999999999997E-4</v>
+        <v>4.0702000000000002E-4</v>
       </c>
       <c r="AL87" s="9">
         <f t="shared" si="11"/>
@@ -11025,7 +11026,7 @@
       <c r="AJ88" s="9"/>
       <c r="AK88" s="9">
         <f t="shared" si="10"/>
-        <v>5.4641999999999994E-4</v>
+        <v>4.3166000000000005E-4</v>
       </c>
       <c r="AL88" s="9">
         <f t="shared" si="11"/>
@@ -11057,7 +11058,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N89" s="5">
         <f t="shared" ref="N89:N92" si="15">G89</f>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D7FC1-D461-4BDD-9E0C-EBC102A4D068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE7DAF-9354-4287-B14E-479568EF0569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>lambda=440nm</t>
-  </si>
-  <si>
-    <t>lambda=550nm</t>
   </si>
   <si>
     <t>Zielona Dioda</t>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>u(U)[V]</t>
+  </si>
+  <si>
+    <t>lambda=585nm</t>
   </si>
 </sst>
 </file>
@@ -5977,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6011,7 +6011,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -6023,7 +6023,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" s="7">
         <f>299792458</f>
@@ -6050,13 +6050,13 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
       <c r="AJ1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
@@ -6079,7 +6079,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="7">
         <f>1.603*10^(-19)</f>
@@ -6127,7 +6127,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -6138,7 +6138,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="7">
         <f>0.01*10^(-9)</f>
@@ -6481,11 +6481,11 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="6">
         <f t="array" ref="K10:L11">LINEST(N10:N16,O10:O16,TRUE,TRUE)</f>
@@ -6552,7 +6552,7 @@
         <v>-0.2338067857142854</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1">
         <f>G10</f>
@@ -6562,10 +6562,10 @@
         <v>1.88</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10" si="3">-(L10)/K10</f>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="6">
         <v>1.0920932787962004E-2</v>
@@ -6637,7 +6637,7 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7">
         <f>SQRT(((L11^2)*((-1/K10)^2))+((K11^2)*((-L10/(K10^2))^2)))</f>
@@ -6769,7 +6769,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -6832,7 +6832,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S14" s="6">
         <f>($O$2*G2*R10)/($O$1)</f>
@@ -6899,7 +6899,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="7">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q11^2)*((($O$2*G2)/($O$1)))^2))</f>
@@ -7233,7 +7233,7 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="BC22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.3">
@@ -7353,13 +7353,13 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL25" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="AL25" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.3">
@@ -7475,7 +7475,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>0</v>
@@ -7881,11 +7881,11 @@
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" s="6">
         <f t="array" ref="K36:L37">LINEST(N42:N55,O42:O55,TRUE,TRUE)</f>
@@ -7955,10 +7955,10 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36" s="6">
         <f>-(L36)/K36</f>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="6">
         <v>2.03640056610671E-3</v>
@@ -8145,7 +8145,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -8203,7 +8203,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S40" s="6">
         <f>($O$2*G27*R36)/($O$1)</f>
@@ -8265,7 +8265,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S41" s="8">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q37^2)*((($O$2*G27)/($O$1)))^2))</f>
@@ -8322,7 +8322,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ref="N42:N55" si="9">G42</f>
@@ -9186,13 +9186,13 @@
       <c r="AH56" s="9"/>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL56" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="AL56" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
@@ -9244,14 +9244,14 @@
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -9294,7 +9294,7 @@
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -9354,7 +9354,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>0</v>
@@ -10216,11 +10216,11 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K76" s="6">
         <f t="array" ref="K76:L77">LINEST(N89:N92,O89:O92,TRUE,TRUE)</f>
@@ -10290,10 +10290,10 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R76" s="6">
         <f t="shared" ref="R76" si="14">-(L76)/K76</f>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K77" s="6">
         <v>7.9372539331935485E-3</v>
@@ -10360,7 +10360,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q77" s="9">
         <f>SQRT(((L77^2)*((-1/K76)^2))+((K77^2)*((-L76/(K76^2))^2)))</f>
@@ -10482,7 +10482,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
       <c r="S79" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -10540,7 +10540,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S80" s="6">
         <f>($O$2*G59*R76)/($O$1)</f>
@@ -10602,7 +10602,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S81" s="6">
         <f>SQRT((($O$3^2)*((($O$2*R76)/($O$1))^2))+((Q77^2)*((($O$2*G59)/($O$1)))^2))</f>
@@ -11058,7 +11058,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N89" s="5">
         <f t="shared" ref="N89:N92" si="15">G89</f>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE7DAF-9354-4287-B14E-479568EF0569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EFA52-CF8B-469C-BF09-87CC11A0A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,49 +498,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2100000000000001E-5</c:v>
+                    <c:v>1.8532943640986986E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8200000000000006E-5</c:v>
+                    <c:v>2.7828282974939967E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.5900000000000004E-5</c:v>
+                    <c:v>3.2273880047700086E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6260000000000006E-5</c:v>
+                    <c:v>3.8255228836504608E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9560000000000004E-5</c:v>
+                    <c:v>4.5933987416726633E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.5379999999999998E-5</c:v>
+                    <c:v>5.5067668675306504E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3948000000000001E-4</c:v>
+                    <c:v>8.052881554656901E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7000000000000001E-4</c:v>
+                    <c:v>9.8149545762236387E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.0682E-4</c:v>
+                    <c:v>1.194075826737984E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4938E-4</c:v>
+                    <c:v>1.4397961013050889E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1322000000000007E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3.0000000000000004E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.8083765131557462E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -552,49 +546,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2100000000000001E-5</c:v>
+                    <c:v>1.8532943640986986E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8200000000000006E-5</c:v>
+                    <c:v>2.7828282974939967E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.5900000000000004E-5</c:v>
+                    <c:v>3.2273880047700086E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6260000000000006E-5</c:v>
+                    <c:v>3.8255228836504608E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9560000000000004E-5</c:v>
+                    <c:v>4.5933987416726633E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.5379999999999998E-5</c:v>
+                    <c:v>5.5067668675306504E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3948000000000001E-4</c:v>
+                    <c:v>8.052881554656901E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7000000000000001E-4</c:v>
+                    <c:v>9.8149545762236387E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.0682E-4</c:v>
+                    <c:v>1.194075826737984E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4938E-4</c:v>
+                    <c:v>1.4397961013050889E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1322000000000007E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3.0000000000000004E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.8083765131557462E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -720,49 +708,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8000000000000002E-2</c:v>
+                    <c:v>1.0392304845413265E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8500000000000003E-2</c:v>
+                    <c:v>1.0680979980008078E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9000000000000003E-2</c:v>
+                    <c:v>1.0969655114602891E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9099999999999999E-2</c:v>
+                    <c:v>1.1027390141521851E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.9200000000000002E-2</c:v>
+                    <c:v>1.1085125168440815E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.9300000000000001E-2</c:v>
+                    <c:v>1.1142860195359778E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9400000000000001E-2</c:v>
+                    <c:v>1.120059522227874E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.95E-2</c:v>
+                    <c:v>1.1258330249197703E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.9599999999999999E-2</c:v>
+                    <c:v>1.1316065276116664E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9700000000000002E-2</c:v>
+                    <c:v>1.1373800303035629E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9799999999999998E-2</c:v>
+                    <c:v>1.1431535329954589E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.9900000000000001E-2</c:v>
+                    <c:v>1.1489270356873553E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.02</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.01</c:v>
+                    <c:v>1.1547005383792516E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -774,49 +756,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.8000000000000002E-2</c:v>
+                    <c:v>1.0392304845413265E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8500000000000003E-2</c:v>
+                    <c:v>1.0680979980008078E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9000000000000003E-2</c:v>
+                    <c:v>1.0969655114602891E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9099999999999999E-2</c:v>
+                    <c:v>1.1027390141521851E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.9200000000000002E-2</c:v>
+                    <c:v>1.1085125168440815E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.9300000000000001E-2</c:v>
+                    <c:v>1.1142860195359778E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9400000000000001E-2</c:v>
+                    <c:v>1.120059522227874E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.95E-2</c:v>
+                    <c:v>1.1258330249197703E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.9599999999999999E-2</c:v>
+                    <c:v>1.1316065276116664E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9700000000000002E-2</c:v>
+                    <c:v>1.1373800303035629E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9799999999999998E-2</c:v>
+                    <c:v>1.1431535329954589E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.9900000000000001E-2</c:v>
+                    <c:v>1.1489270356873553E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.02</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.01</c:v>
+                    <c:v>1.1547005383792516E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -847,49 +823,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2100000000000001E-5</c:v>
+                    <c:v>1.8532943640986986E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8200000000000006E-5</c:v>
+                    <c:v>2.7828282974939967E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.5900000000000004E-5</c:v>
+                    <c:v>3.2273880047700086E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6260000000000006E-5</c:v>
+                    <c:v>3.8255228836504608E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9560000000000004E-5</c:v>
+                    <c:v>4.5933987416726633E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.5379999999999998E-5</c:v>
+                    <c:v>5.5067668675306504E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3948000000000001E-4</c:v>
+                    <c:v>8.052881554656901E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7000000000000001E-4</c:v>
+                    <c:v>9.8149545762236387E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.0682E-4</c:v>
+                    <c:v>1.194075826737984E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4938E-4</c:v>
+                    <c:v>1.4397961013050889E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1322000000000007E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3.0000000000000004E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.8083765131557462E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -901,49 +871,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2100000000000001E-5</c:v>
+                    <c:v>1.8532943640986986E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8200000000000006E-5</c:v>
+                    <c:v>2.7828282974939967E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.5900000000000004E-5</c:v>
+                    <c:v>3.2273880047700086E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6260000000000006E-5</c:v>
+                    <c:v>3.8255228836504608E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.9560000000000004E-5</c:v>
+                    <c:v>4.5933987416726633E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.5379999999999998E-5</c:v>
+                    <c:v>5.5067668675306504E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3948000000000001E-4</c:v>
+                    <c:v>8.052881554656901E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7000000000000001E-4</c:v>
+                    <c:v>9.8149545762236387E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.0682E-4</c:v>
+                    <c:v>1.194075826737984E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4938E-4</c:v>
+                    <c:v>1.4397961013050889E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1322000000000007E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3.0000000000000004E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.8083765131557462E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1484,85 +1448,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>2.1000000000000001E-2</c:v>
+                    <c:v>1.2124355652982142E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1499999999999998E-2</c:v>
+                    <c:v>1.2413030787576952E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>1.2701705922171767E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.2499999999999999E-2</c:v>
+                    <c:v>1.299038105676658E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.3E-2</c:v>
+                    <c:v>1.3279056191361393E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.35E-2</c:v>
+                    <c:v>1.3567731325956206E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.4E-2</c:v>
+                    <c:v>1.3856406460551019E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.41E-2</c:v>
+                    <c:v>1.3914141487469981E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.4199999999999999E-2</c:v>
+                    <c:v>1.3971876514388944E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.4300000000000002E-2</c:v>
+                    <c:v>1.4029611541307907E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.4399999999999998E-2</c:v>
+                    <c:v>1.4087346568226867E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4500000000000001E-2</c:v>
+                    <c:v>1.4145081595145832E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2.46E-2</c:v>
+                    <c:v>1.4202816622064794E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.47E-2</c:v>
+                    <c:v>1.4260551648983755E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.4800000000000003E-2</c:v>
+                    <c:v>1.431828667590272E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.4899999999999999E-2</c:v>
+                    <c:v>1.437602170282168E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.5000000000000001E-2</c:v>
+                    <c:v>1.4433756729740645E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.5049999999999999E-2</c:v>
+                    <c:v>1.4462624243200125E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.5100000000000001E-2</c:v>
+                    <c:v>1.4491491756659607E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.5149999999999999E-2</c:v>
+                    <c:v>1.4520359270119087E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.52E-2</c:v>
+                    <c:v>1.454922678357857E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.5250000000000002E-2</c:v>
+                    <c:v>1.4578094297038052E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5300000000000003E-2</c:v>
+                    <c:v>1.4606961810497534E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.5349999999999998E-2</c:v>
+                    <c:v>1.4635829323957012E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.5399999999999999E-2</c:v>
+                    <c:v>1.4664696837416495E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.545E-2</c:v>
+                    <c:v>1.4693564350875977E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.5500000000000002E-2</c:v>
+                    <c:v>1.4722431864335458E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1574,85 +1538,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>2.1000000000000001E-2</c:v>
+                    <c:v>1.2124355652982142E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1499999999999998E-2</c:v>
+                    <c:v>1.2413030787576952E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>1.2701705922171767E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.2499999999999999E-2</c:v>
+                    <c:v>1.299038105676658E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.3E-2</c:v>
+                    <c:v>1.3279056191361393E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.35E-2</c:v>
+                    <c:v>1.3567731325956206E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.4E-2</c:v>
+                    <c:v>1.3856406460551019E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.41E-2</c:v>
+                    <c:v>1.3914141487469981E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.4199999999999999E-2</c:v>
+                    <c:v>1.3971876514388944E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.4300000000000002E-2</c:v>
+                    <c:v>1.4029611541307907E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.4399999999999998E-2</c:v>
+                    <c:v>1.4087346568226867E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.4500000000000001E-2</c:v>
+                    <c:v>1.4145081595145832E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2.46E-2</c:v>
+                    <c:v>1.4202816622064794E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.47E-2</c:v>
+                    <c:v>1.4260551648983755E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.4800000000000003E-2</c:v>
+                    <c:v>1.431828667590272E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.4899999999999999E-2</c:v>
+                    <c:v>1.437602170282168E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.5000000000000001E-2</c:v>
+                    <c:v>1.4433756729740645E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.5049999999999999E-2</c:v>
+                    <c:v>1.4462624243200125E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.5100000000000001E-2</c:v>
+                    <c:v>1.4491491756659607E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.5149999999999999E-2</c:v>
+                    <c:v>1.4520359270119087E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.52E-2</c:v>
+                    <c:v>1.454922678357857E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.5250000000000002E-2</c:v>
+                    <c:v>1.4578094297038052E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5300000000000003E-2</c:v>
+                    <c:v>1.4606961810497534E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.5349999999999998E-2</c:v>
+                    <c:v>1.4635829323957012E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.5399999999999999E-2</c:v>
+                    <c:v>1.4664696837416495E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.545E-2</c:v>
+                    <c:v>1.4693564350875977E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.5500000000000002E-2</c:v>
+                    <c:v>1.4722431864335458E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1683,85 +1647,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5460000000000003E-5</c:v>
+                    <c:v>2.047284054546413E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.8760000000000001E-5</c:v>
+                    <c:v>2.8151599125686151E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5500000000000006E-5</c:v>
+                    <c:v>4.3589945323816749E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5720000000000013E-5</c:v>
+                    <c:v>4.9490465074934729E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.342000000000001E-5</c:v>
+                    <c:v>5.3936062147694841E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.0266E-4</c:v>
+                    <c:v>5.9270778635006975E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.2394000000000001E-4</c:v>
+                    <c:v>7.1556792363362224E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.3430000000000001E-4</c:v>
+                    <c:v>7.7538141152166753E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.4844000000000001E-4</c:v>
+                    <c:v>8.570187395850806E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.6650000000000001E-4</c:v>
+                    <c:v>9.6128819820072694E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.784E-4</c:v>
+                    <c:v>1.0299928802342924E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.9855999999999997E-4</c:v>
+                    <c:v>1.1463866945029207E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.0779999999999998E-4</c:v>
+                    <c:v>1.1997338593760422E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.1172000000000001E-4</c:v>
+                    <c:v>1.2223659899282757E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.2515999999999999E-4</c:v>
+                    <c:v>1.2999618661073615E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.3229999999999998E-4</c:v>
+                    <c:v>1.3411846753275006E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.3874000000000001E-4</c:v>
+                    <c:v>1.3783660326633127E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.4825999999999998E-4</c:v>
+                    <c:v>1.4333297782901649E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.4532000000000004E-4</c:v>
+                    <c:v>1.4163556803759901E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.7290000000000002E-4</c:v>
+                    <c:v>1.5755888846184888E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.7766000000000005E-4</c:v>
+                    <c:v>1.603070757431915E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.9124000000000001E-4</c:v>
+                    <c:v>1.6814749239878662E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1773,85 +1737,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0140000000000003E-5</c:v>
+                    <c:v>1.7401337113375323E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5460000000000003E-5</c:v>
+                    <c:v>2.047284054546413E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.8760000000000001E-5</c:v>
+                    <c:v>2.8151599125686151E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5500000000000006E-5</c:v>
+                    <c:v>4.3589945323816749E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.5720000000000013E-5</c:v>
+                    <c:v>4.9490465074934729E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.342000000000001E-5</c:v>
+                    <c:v>5.3936062147694841E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.0266E-4</c:v>
+                    <c:v>5.9270778635006975E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1512000000000002E-4</c:v>
+                    <c:v>6.6464562989109724E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.2394000000000001E-4</c:v>
+                    <c:v>7.1556792363362224E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.3430000000000001E-4</c:v>
+                    <c:v>7.7538141152166753E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.4844000000000001E-4</c:v>
+                    <c:v>8.570187395850806E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.6650000000000001E-4</c:v>
+                    <c:v>9.6128819820072694E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.784E-4</c:v>
+                    <c:v>1.0299928802342924E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.9855999999999997E-4</c:v>
+                    <c:v>1.1463866945029207E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2.0779999999999998E-4</c:v>
+                    <c:v>1.1997338593760422E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.1172000000000001E-4</c:v>
+                    <c:v>1.2223659899282757E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.2515999999999999E-4</c:v>
+                    <c:v>1.2999618661073615E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.3229999999999998E-4</c:v>
+                    <c:v>1.3411846753275006E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.3874000000000001E-4</c:v>
+                    <c:v>1.3783660326633127E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.4825999999999998E-4</c:v>
+                    <c:v>1.4333297782901649E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.4532000000000004E-4</c:v>
+                    <c:v>1.4163556803759901E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.7290000000000002E-4</c:v>
+                    <c:v>1.5755888846184888E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.7766000000000005E-4</c:v>
+                    <c:v>1.603070757431915E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.9124000000000001E-4</c:v>
+                    <c:v>1.6814749239878662E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2740,100 +2704,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.8000000000000002E-2</c:v>
+                    <c:v>1.0392304845413265E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8500000000000003E-2</c:v>
+                    <c:v>1.0680979980008078E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.8599999999999998E-2</c:v>
+                    <c:v>1.0738715006927038E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8700000000000001E-2</c:v>
+                    <c:v>1.0796450033846003E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8800000000000001E-2</c:v>
+                    <c:v>1.0854185060764965E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.89E-2</c:v>
+                    <c:v>1.0911920087683926E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9000000000000003E-2</c:v>
+                    <c:v>1.0969655114602891E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.9099999999999999E-2</c:v>
+                    <c:v>1.1027390141521851E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.9200000000000002E-2</c:v>
+                    <c:v>1.1085125168440815E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9300000000000001E-2</c:v>
+                    <c:v>1.1142860195359778E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9400000000000001E-2</c:v>
+                    <c:v>1.120059522227874E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.95E-2</c:v>
+                    <c:v>1.1258330249197703E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.9549999999999998E-2</c:v>
+                    <c:v>1.1287197762657183E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.9599999999999999E-2</c:v>
+                    <c:v>1.1316065276116664E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.9650000000000001E-2</c:v>
+                    <c:v>1.1344932789576148E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.9700000000000002E-2</c:v>
+                    <c:v>1.1373800303035629E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.975E-2</c:v>
+                    <c:v>1.1402667816495109E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.9799999999999998E-2</c:v>
+                    <c:v>1.1431535329954589E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.985E-2</c:v>
+                    <c:v>1.1460402843414071E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.9900000000000001E-2</c:v>
+                    <c:v>1.1489270356873553E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.9950000000000002E-2</c:v>
+                    <c:v>1.1518137870333036E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.02</c:v>
+                    <c:v>1.1547005383792516E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.0049999999999998E-2</c:v>
+                    <c:v>1.1575872897251996E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.01E-2</c:v>
+                    <c:v>1.1604740410711478E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.0150000000000001E-2</c:v>
+                    <c:v>1.1633607924170959E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.0200000000000003E-2</c:v>
+                    <c:v>1.1662475437630441E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.0249999999999997E-2</c:v>
+                    <c:v>1.1691342951089919E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.0299999999999999E-2</c:v>
+                    <c:v>1.1720210464549402E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>2.035E-2</c:v>
+                    <c:v>1.1749077978008884E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>2.0400000000000001E-2</c:v>
+                    <c:v>1.1777945491468367E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.0449999999999999E-2</c:v>
+                    <c:v>1.1806813004927847E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.0500000000000001E-2</c:v>
+                    <c:v>1.1835680518387329E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2845,100 +2809,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.8000000000000002E-2</c:v>
+                    <c:v>1.0392304845413265E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8500000000000003E-2</c:v>
+                    <c:v>1.0680979980008078E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.8599999999999998E-2</c:v>
+                    <c:v>1.0738715006927038E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8700000000000001E-2</c:v>
+                    <c:v>1.0796450033846003E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8800000000000001E-2</c:v>
+                    <c:v>1.0854185060764965E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.89E-2</c:v>
+                    <c:v>1.0911920087683926E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9000000000000003E-2</c:v>
+                    <c:v>1.0969655114602891E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.9099999999999999E-2</c:v>
+                    <c:v>1.1027390141521851E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.9200000000000002E-2</c:v>
+                    <c:v>1.1085125168440815E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9300000000000001E-2</c:v>
+                    <c:v>1.1142860195359778E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9400000000000001E-2</c:v>
+                    <c:v>1.120059522227874E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.95E-2</c:v>
+                    <c:v>1.1258330249197703E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.9549999999999998E-2</c:v>
+                    <c:v>1.1287197762657183E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.9599999999999999E-2</c:v>
+                    <c:v>1.1316065276116664E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.9650000000000001E-2</c:v>
+                    <c:v>1.1344932789576148E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.9700000000000002E-2</c:v>
+                    <c:v>1.1373800303035629E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.975E-2</c:v>
+                    <c:v>1.1402667816495109E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.9799999999999998E-2</c:v>
+                    <c:v>1.1431535329954589E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.985E-2</c:v>
+                    <c:v>1.1460402843414071E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.9900000000000001E-2</c:v>
+                    <c:v>1.1489270356873553E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.9950000000000002E-2</c:v>
+                    <c:v>1.1518137870333036E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.02</c:v>
+                    <c:v>1.1547005383792516E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.0049999999999998E-2</c:v>
+                    <c:v>1.1575872897251996E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.01E-2</c:v>
+                    <c:v>1.1604740410711478E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.0150000000000001E-2</c:v>
+                    <c:v>1.1633607924170959E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.0200000000000003E-2</c:v>
+                    <c:v>1.1662475437630441E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.0249999999999997E-2</c:v>
+                    <c:v>1.1691342951089919E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.0299999999999999E-2</c:v>
+                    <c:v>1.1720210464549402E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>2.035E-2</c:v>
+                    <c:v>1.1749077978008884E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>2.0400000000000001E-2</c:v>
+                    <c:v>1.1777945491468367E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.0449999999999999E-2</c:v>
+                    <c:v>1.1806813004927847E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.0500000000000001E-2</c:v>
+                    <c:v>1.1835680518387329E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2969,7 +2933,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>3.0280000000000005E-5</c:v>
@@ -3074,7 +3038,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>3.0000000000000004E-5</c:v>
+                    <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>3.0280000000000005E-5</c:v>
@@ -5977,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL79" sqref="AL79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5998,7 +5962,7 @@
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6107,12 +6071,12 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7">
-        <f>ABS(0.014*G4+3*0.00001)</f>
-        <v>3.0140000000000003E-5</v>
+        <f t="shared" ref="AK2:AK13" si="0">SQRT(POWER((ABS(0.014*G4+3*0.00001)),2)/(3))</f>
+        <v>1.7401337113375323E-5</v>
       </c>
       <c r="AL2" s="7">
-        <f>ABS(0.005*H4+1*0.01)</f>
-        <v>1.8000000000000002E-2</v>
+        <f>SQRT(POWER((ABS(0.005*H4+1*0.01)),2)/(3))</f>
+        <v>1.0392304845413265E-2</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -6166,12 +6130,12 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7">
-        <f t="shared" ref="AK3:AK16" si="0">ABS(0.014*G5+3*0.00001)</f>
-        <v>3.2100000000000001E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.8532943640986986E-5</v>
       </c>
       <c r="AL3" s="7">
-        <f t="shared" ref="AL3:AL13" si="1">ABS(0.005*H5+1*0.01)</f>
-        <v>1.8500000000000003E-2</v>
+        <f t="shared" ref="AL3:AL14" si="1">SQRT(POWER((ABS(0.005*H5+1*0.01)),2)/(3))</f>
+        <v>1.0680979980008078E-2</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -6224,11 +6188,11 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7">
         <f t="shared" si="0"/>
-        <v>4.8200000000000006E-5</v>
+        <v>2.7828282974939967E-5</v>
       </c>
       <c r="AL4" s="7">
         <f t="shared" si="1"/>
-        <v>1.9000000000000003E-2</v>
+        <v>1.0969655114602891E-2</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -6281,11 +6245,11 @@
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7">
         <f t="shared" si="0"/>
-        <v>5.5900000000000004E-5</v>
+        <v>3.2273880047700086E-5</v>
       </c>
       <c r="AL5" s="7">
         <f t="shared" si="1"/>
-        <v>1.9099999999999999E-2</v>
+        <v>1.1027390141521851E-2</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
@@ -6338,11 +6302,11 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7">
         <f t="shared" si="0"/>
-        <v>6.6260000000000006E-5</v>
+        <v>3.8255228836504608E-5</v>
       </c>
       <c r="AL6" s="7">
         <f t="shared" si="1"/>
-        <v>1.9200000000000002E-2</v>
+        <v>1.1085125168440815E-2</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -6395,11 +6359,11 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7">
         <f t="shared" si="0"/>
-        <v>7.9560000000000004E-5</v>
+        <v>4.5933987416726633E-5</v>
       </c>
       <c r="AL7" s="7">
         <f t="shared" si="1"/>
-        <v>1.9300000000000001E-2</v>
+        <v>1.1142860195359778E-2</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -6452,11 +6416,11 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7">
         <f t="shared" si="0"/>
-        <v>9.5379999999999998E-5</v>
+        <v>5.5067668675306504E-5</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" si="1"/>
-        <v>1.9400000000000001E-2</v>
+        <v>1.120059522227874E-2</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -6513,11 +6477,11 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7">
         <f t="shared" si="0"/>
-        <v>1.1512000000000002E-4</v>
+        <v>6.6464562989109724E-5</v>
       </c>
       <c r="AL9" s="7">
-        <f>ABS(0.005*H11+1*0.01)</f>
-        <v>1.95E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.1258330249197703E-2</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -6591,11 +6555,11 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7">
         <f t="shared" si="0"/>
-        <v>1.3948000000000001E-4</v>
+        <v>8.052881554656901E-5</v>
       </c>
       <c r="AL10" s="7">
         <f t="shared" si="1"/>
-        <v>1.9599999999999999E-2</v>
+        <v>1.1316065276116664E-2</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
@@ -6664,11 +6628,11 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-4</v>
+        <v>9.8149545762236387E-5</v>
       </c>
       <c r="AL11" s="7">
         <f t="shared" si="1"/>
-        <v>1.9700000000000002E-2</v>
+        <v>1.1373800303035629E-2</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -6726,11 +6690,11 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7">
         <f t="shared" si="0"/>
-        <v>2.0682E-4</v>
+        <v>1.194075826737984E-4</v>
       </c>
       <c r="AL12" s="7">
         <f t="shared" si="1"/>
-        <v>1.9799999999999998E-2</v>
+        <v>1.1431535329954589E-2</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6790,11 +6754,11 @@
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7">
         <f t="shared" si="0"/>
-        <v>2.4938E-4</v>
+        <v>1.4397961013050889E-4</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" si="1"/>
-        <v>1.9900000000000001E-2</v>
+        <v>1.1489270356873553E-2</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -6856,12 +6820,12 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7">
-        <f t="shared" si="0"/>
-        <v>3.1322000000000007E-4</v>
+        <f>SQRT(POWER((ABS(0.014*G16+3*0.00001)),2)/(3))</f>
+        <v>1.8083765131557462E-4</v>
       </c>
       <c r="AL14" s="7">
-        <f>ABS(0.005*H16+1*0.01)</f>
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -6922,14 +6886,8 @@
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000004E-5</v>
-      </c>
-      <c r="AL15" s="7">
-        <f t="shared" ref="AL15:AL16" si="5">ABS(0.005*H17+1*0.01)</f>
-        <v>0.01</v>
-      </c>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -6984,14 +6942,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000004E-5</v>
-      </c>
-      <c r="AL16" s="7">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -7404,12 +7356,12 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8">
-        <f>ABS(0.014*G29+3*0.00001)</f>
-        <v>3.0000000000000004E-5</v>
+        <f>SQRT(POWER((ABS(0.014*G29+3*0.00001)),2)/(3))</f>
+        <v>1.7320508075688774E-5</v>
       </c>
       <c r="AL26" s="8">
-        <f>ABS(0.005*H29+1*0.01)</f>
-        <v>2.1000000000000001E-2</v>
+        <f>SQRT(POWER((ABS(0.005*H29+1*0.01)),2)/(3))</f>
+        <v>1.2124355652982142E-2</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.3">
@@ -7455,12 +7407,12 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8">
-        <f t="shared" ref="AK27:AK52" si="6">ABS(0.014*G30+3*0.00001)</f>
-        <v>3.0140000000000003E-5</v>
+        <f t="shared" ref="AK27:AK52" si="5">SQRT(POWER((ABS(0.014*G30+3*0.00001)),2)/(3))</f>
+        <v>1.7401337113375323E-5</v>
       </c>
       <c r="AL27" s="8">
-        <f t="shared" ref="AL27:AL52" si="7">ABS(0.005*H30+1*0.01)</f>
-        <v>2.1499999999999998E-2</v>
+        <f t="shared" ref="AL27:AL52" si="6">SQRT(POWER((ABS(0.005*H30+1*0.01)),2)/(3))</f>
+        <v>1.2413030787576952E-2</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.3">
@@ -7509,12 +7461,12 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8">
+        <f t="shared" si="5"/>
+        <v>1.7643824226434964E-5</v>
+      </c>
+      <c r="AL28" s="8">
         <f t="shared" si="6"/>
-        <v>3.0560000000000006E-5</v>
-      </c>
-      <c r="AL28" s="8">
-        <f t="shared" si="7"/>
-        <v>2.1999999999999999E-2</v>
+        <v>1.2701705922171767E-2</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.3">
@@ -7566,12 +7518,12 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8">
+        <f t="shared" si="5"/>
+        <v>1.7643824226434964E-5</v>
+      </c>
+      <c r="AL29" s="8">
         <f t="shared" si="6"/>
-        <v>3.0560000000000006E-5</v>
-      </c>
-      <c r="AL29" s="8">
-        <f t="shared" si="7"/>
-        <v>2.2499999999999999E-2</v>
+        <v>1.299038105676658E-2</v>
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.3">
@@ -7588,7 +7540,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:G55" si="8">B30/1000</f>
+        <f t="shared" ref="G30:G55" si="7">B30/1000</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H30" s="2">
@@ -7623,12 +7575,12 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8">
+        <f t="shared" si="5"/>
+        <v>2.047284054546413E-5</v>
+      </c>
+      <c r="AL30" s="8">
         <f t="shared" si="6"/>
-        <v>3.5460000000000003E-5</v>
-      </c>
-      <c r="AL30" s="8">
-        <f t="shared" si="7"/>
-        <v>2.3E-2</v>
+        <v>1.3279056191361393E-2</v>
       </c>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.3">
@@ -7645,7 +7597,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H31" s="2">
@@ -7680,12 +7632,12 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8">
+        <f t="shared" si="5"/>
+        <v>2.8151599125686151E-5</v>
+      </c>
+      <c r="AL31" s="8">
         <f t="shared" si="6"/>
-        <v>4.8760000000000001E-5</v>
-      </c>
-      <c r="AL31" s="8">
-        <f t="shared" si="7"/>
-        <v>2.35E-2</v>
+        <v>1.3567731325956206E-2</v>
       </c>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.3">
@@ -7702,7 +7654,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H32" s="2">
@@ -7737,12 +7689,12 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8">
+        <f t="shared" si="5"/>
+        <v>4.3589945323816749E-5</v>
+      </c>
+      <c r="AL32" s="8">
         <f t="shared" si="6"/>
-        <v>7.5500000000000006E-5</v>
-      </c>
-      <c r="AL32" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.3856406460551019E-2</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
@@ -7759,7 +7711,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="H33" s="2">
@@ -7794,12 +7746,12 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8">
+        <f t="shared" si="5"/>
+        <v>4.9490465074934729E-5</v>
+      </c>
+      <c r="AL33" s="8">
         <f t="shared" si="6"/>
-        <v>8.5720000000000013E-5</v>
-      </c>
-      <c r="AL33" s="8">
-        <f t="shared" si="7"/>
-        <v>2.41E-2</v>
+        <v>1.3914141487469981E-2</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
@@ -7816,7 +7768,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.34E-3</v>
       </c>
       <c r="H34" s="2">
@@ -7851,12 +7803,12 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8">
+        <f t="shared" si="5"/>
+        <v>5.3936062147694841E-5</v>
+      </c>
+      <c r="AL34" s="8">
         <f t="shared" si="6"/>
-        <v>9.342000000000001E-5</v>
-      </c>
-      <c r="AL34" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4199999999999999E-2</v>
+        <v>1.3971876514388944E-2</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
@@ -7873,7 +7825,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.2499999999999999E-3</v>
       </c>
       <c r="H35" s="2">
@@ -7912,12 +7864,12 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8">
+        <f t="shared" si="5"/>
+        <v>5.9270778635006975E-5</v>
+      </c>
+      <c r="AL35" s="8">
         <f t="shared" si="6"/>
-        <v>1.0266E-4</v>
-      </c>
-      <c r="AL35" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4300000000000002E-2</v>
+        <v>1.4029611541307907E-2</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
@@ -7934,7 +7886,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.98E-3</v>
       </c>
       <c r="H36" s="2">
@@ -7983,12 +7935,12 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8">
+        <f t="shared" si="5"/>
+        <v>6.6464562989109724E-5</v>
+      </c>
+      <c r="AL36" s="8">
         <f t="shared" si="6"/>
-        <v>1.1512000000000002E-4</v>
-      </c>
-      <c r="AL36" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4399999999999998E-2</v>
+        <v>1.4087346568226867E-2</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
@@ -8005,7 +7957,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="H37" s="2">
@@ -8049,12 +8001,12 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8">
+        <f t="shared" si="5"/>
+        <v>7.1556792363362224E-5</v>
+      </c>
+      <c r="AL37" s="8">
         <f t="shared" si="6"/>
-        <v>1.2394000000000001E-4</v>
-      </c>
-      <c r="AL37" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4500000000000001E-2</v>
+        <v>1.4145081595145832E-2</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
@@ -8071,7 +8023,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.1900000000000002E-3</v>
       </c>
       <c r="H38" s="2">
@@ -8106,12 +8058,12 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8">
+        <f t="shared" si="5"/>
+        <v>7.7538141152166753E-5</v>
+      </c>
+      <c r="AL38" s="8">
         <f t="shared" si="6"/>
-        <v>1.3430000000000001E-4</v>
-      </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="7"/>
-        <v>2.46E-2</v>
+        <v>1.4202816622064794E-2</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
@@ -8128,7 +8080,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.0800000000000003E-3</v>
       </c>
       <c r="H39" s="2">
@@ -8165,12 +8117,12 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8">
+        <f t="shared" si="5"/>
+        <v>8.570187395850806E-5</v>
+      </c>
+      <c r="AL39" s="8">
         <f t="shared" si="6"/>
-        <v>1.4844000000000001E-4</v>
-      </c>
-      <c r="AL39" s="8">
-        <f t="shared" si="7"/>
-        <v>2.47E-2</v>
+        <v>1.4260551648983755E-2</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
@@ -8187,7 +8139,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="H40" s="2">
@@ -8227,12 +8179,12 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8">
+        <f t="shared" si="5"/>
+        <v>9.6128819820072694E-5</v>
+      </c>
+      <c r="AL40" s="8">
         <f t="shared" si="6"/>
-        <v>1.6650000000000001E-4</v>
-      </c>
-      <c r="AL40" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4800000000000003E-2</v>
+        <v>1.431828667590272E-2</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
@@ -8249,7 +8201,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.45E-3</v>
       </c>
       <c r="H41" s="2">
@@ -8289,12 +8241,12 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0299928802342924E-4</v>
+      </c>
+      <c r="AL41" s="8">
         <f t="shared" si="6"/>
-        <v>1.784E-4</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="7"/>
-        <v>2.4899999999999999E-2</v>
+        <v>1.437602170282168E-2</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
@@ -8311,7 +8263,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="6"/>
       <c r="G42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="H42" s="2">
@@ -8325,7 +8277,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ref="N42:N55" si="9">G42</f>
+        <f t="shared" ref="N42:N55" si="8">G42</f>
         <v>8.4600000000000005E-3</v>
       </c>
       <c r="O42" s="2">
@@ -8353,12 +8305,12 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1463866945029207E-4</v>
+      </c>
+      <c r="AL42" s="8">
         <f t="shared" si="6"/>
-        <v>1.9855999999999997E-4</v>
-      </c>
-      <c r="AL42" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-2</v>
+        <v>1.4433756729740645E-2</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
@@ -8375,7 +8327,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="6"/>
       <c r="G43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.75E-3</v>
       </c>
       <c r="H43" s="2">
@@ -8387,7 +8339,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.75E-3</v>
       </c>
       <c r="O43" s="2">
@@ -8415,12 +8367,12 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1997338593760422E-4</v>
+      </c>
+      <c r="AL43" s="8">
         <f t="shared" si="6"/>
-        <v>2.0779999999999998E-4</v>
-      </c>
-      <c r="AL43" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5049999999999999E-2</v>
+        <v>1.4462624243200125E-2</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
@@ -8437,7 +8389,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="6"/>
       <c r="G44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.06E-2</v>
       </c>
       <c r="H44" s="2">
@@ -8449,7 +8401,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.06E-2</v>
       </c>
       <c r="O44" s="2">
@@ -8477,12 +8429,12 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2223659899282757E-4</v>
+      </c>
+      <c r="AL44" s="8">
         <f t="shared" si="6"/>
-        <v>2.1172000000000001E-4</v>
-      </c>
-      <c r="AL44" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5100000000000001E-2</v>
+        <v>1.4491491756659607E-2</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
@@ -8499,7 +8451,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="6"/>
       <c r="G45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="H45" s="2">
@@ -8511,7 +8463,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2039999999999999E-2</v>
       </c>
       <c r="O45" s="2">
@@ -8539,12 +8491,12 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2999618661073615E-4</v>
+      </c>
+      <c r="AL45" s="8">
         <f t="shared" si="6"/>
-        <v>2.2515999999999999E-4</v>
-      </c>
-      <c r="AL45" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5149999999999999E-2</v>
+        <v>1.4520359270119087E-2</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
@@ -8561,7 +8513,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="6"/>
       <c r="G46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="H46" s="2">
@@ -8573,7 +8525,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="O46" s="2">
@@ -8601,12 +8553,12 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3411846753275006E-4</v>
+      </c>
+      <c r="AL46" s="8">
         <f t="shared" si="6"/>
-        <v>2.3229999999999998E-4</v>
-      </c>
-      <c r="AL46" s="8">
-        <f t="shared" si="7"/>
-        <v>2.52E-2</v>
+        <v>1.454922678357857E-2</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
@@ -8623,7 +8575,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="6"/>
       <c r="G47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.298E-2</v>
       </c>
       <c r="H47" s="2">
@@ -8635,7 +8587,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.298E-2</v>
       </c>
       <c r="O47" s="2">
@@ -8663,12 +8615,12 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3783660326633127E-4</v>
+      </c>
+      <c r="AL47" s="8">
         <f t="shared" si="6"/>
-        <v>2.3874000000000001E-4</v>
-      </c>
-      <c r="AL47" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5250000000000002E-2</v>
+        <v>1.4578094297038052E-2</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
@@ -8685,7 +8637,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="6"/>
       <c r="G48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="H48" s="2">
@@ -8697,7 +8649,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3939999999999999E-2</v>
       </c>
       <c r="O48" s="2">
@@ -8725,12 +8677,12 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4333297782901649E-4</v>
+      </c>
+      <c r="AL48" s="8">
         <f t="shared" si="6"/>
-        <v>2.4825999999999998E-4</v>
-      </c>
-      <c r="AL48" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5300000000000003E-2</v>
+        <v>1.4606961810497534E-2</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
@@ -8747,7 +8699,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="H49" s="2">
@@ -8759,7 +8711,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="O49" s="2">
@@ -8787,12 +8739,12 @@
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4163556803759901E-4</v>
+      </c>
+      <c r="AL49" s="8">
         <f t="shared" si="6"/>
-        <v>2.4532000000000004E-4</v>
-      </c>
-      <c r="AL49" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5349999999999998E-2</v>
+        <v>1.4635829323957012E-2</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
@@ -8809,7 +8761,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.491E-2</v>
       </c>
       <c r="H50" s="2">
@@ -8821,7 +8773,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.491E-2</v>
       </c>
       <c r="O50" s="2">
@@ -8849,12 +8801,12 @@
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5755888846184888E-4</v>
+      </c>
+      <c r="AL50" s="8">
         <f t="shared" si="6"/>
-        <v>2.7290000000000002E-4</v>
-      </c>
-      <c r="AL50" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5399999999999999E-2</v>
+        <v>1.4664696837416495E-2</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
@@ -8871,7 +8823,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.559E-2</v>
       </c>
       <c r="H51" s="2">
@@ -8883,7 +8835,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.559E-2</v>
       </c>
       <c r="O51" s="2">
@@ -8911,12 +8863,12 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8">
+        <f t="shared" si="5"/>
+        <v>1.603070757431915E-4</v>
+      </c>
+      <c r="AL51" s="8">
         <f t="shared" si="6"/>
-        <v>2.7766000000000005E-4</v>
-      </c>
-      <c r="AL51" s="8">
-        <f t="shared" si="7"/>
-        <v>2.545E-2</v>
+        <v>1.4693564350875977E-2</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
@@ -8933,7 +8885,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="6"/>
       <c r="G52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="H52" s="2">
@@ -8945,7 +8897,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5380000000000001E-2</v>
       </c>
       <c r="O52" s="2">
@@ -8973,12 +8925,12 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8">
+        <f t="shared" si="5"/>
+        <v>1.6814749239878662E-4</v>
+      </c>
+      <c r="AL52" s="8">
         <f t="shared" si="6"/>
-        <v>2.9124000000000001E-4</v>
-      </c>
-      <c r="AL52" s="8">
-        <f t="shared" si="7"/>
-        <v>2.5500000000000002E-2</v>
+        <v>1.4722431864335458E-2</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
@@ -8995,7 +8947,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="6"/>
       <c r="G53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="H53" s="2">
@@ -9007,7 +8959,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7350000000000001E-2</v>
       </c>
       <c r="O53" s="2">
@@ -9051,7 +9003,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="H54" s="2">
@@ -9063,7 +9015,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7690000000000001E-2</v>
       </c>
       <c r="O54" s="2">
@@ -9107,7 +9059,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.866E-2</v>
       </c>
       <c r="H55" s="2">
@@ -9119,7 +9071,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.866E-2</v>
       </c>
       <c r="O55" s="2">
@@ -9233,12 +9185,12 @@
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9">
-        <f>ABS(0.014*G61+3*0.00001)</f>
-        <v>3.0000000000000004E-5</v>
+        <f>SQRT(POWER((ABS(0.014*G61+3*0.00001)),2)/(3))</f>
+        <v>1.7320508075688774E-5</v>
       </c>
       <c r="AL57" s="9">
-        <f>ABS(0.005*H61+1*0.01)</f>
-        <v>1.8000000000000002E-2</v>
+        <f>SQRT(POWER((ABS(0.005*H61+1*0.01)),2)/(3))</f>
+        <v>1.0392304845413265E-2</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
@@ -9283,12 +9235,12 @@
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9">
-        <f t="shared" ref="AK58:AK88" si="10">ABS(0.014*G62+3*0.00001)</f>
+        <f t="shared" ref="AK58:AK88" si="9">ABS(0.014*G62+3*0.00001)</f>
         <v>3.0280000000000005E-5</v>
       </c>
       <c r="AL58" s="9">
-        <f t="shared" ref="AL58:AL88" si="11">ABS(0.005*H62+1*0.01)</f>
-        <v>1.8500000000000003E-2</v>
+        <f t="shared" ref="AL58:AL88" si="10">SQRT(POWER((ABS(0.005*H62+1*0.01)),2)/(3))</f>
+        <v>1.0680979980008078E-2</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
@@ -9334,12 +9286,12 @@
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9">
+        <f t="shared" si="9"/>
+        <v>3.0560000000000006E-5</v>
+      </c>
+      <c r="AL59" s="9">
         <f t="shared" si="10"/>
-        <v>3.0560000000000006E-5</v>
-      </c>
-      <c r="AL59" s="9">
-        <f t="shared" si="11"/>
-        <v>1.8599999999999998E-2</v>
+        <v>1.0738715006927038E-2</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
@@ -9388,12 +9340,12 @@
       <c r="AI60" s="9"/>
       <c r="AJ60" s="9"/>
       <c r="AK60" s="9">
+        <f t="shared" si="9"/>
+        <v>3.0980000000000005E-5</v>
+      </c>
+      <c r="AL60" s="9">
         <f t="shared" si="10"/>
-        <v>3.0980000000000005E-5</v>
-      </c>
-      <c r="AL60" s="9">
-        <f t="shared" si="11"/>
-        <v>1.8700000000000001E-2</v>
+        <v>1.0796450033846003E-2</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
@@ -9445,12 +9397,12 @@
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9">
+        <f t="shared" si="9"/>
+        <v>3.1540000000000006E-5</v>
+      </c>
+      <c r="AL61" s="9">
         <f t="shared" si="10"/>
-        <v>3.1540000000000006E-5</v>
-      </c>
-      <c r="AL61" s="9">
-        <f t="shared" si="11"/>
-        <v>1.8800000000000001E-2</v>
+        <v>1.0854185060764965E-2</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
@@ -9467,7 +9419,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G67" si="12">B62/1000</f>
+        <f t="shared" ref="G62:G67" si="11">B62/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H62" s="3">
@@ -9502,12 +9454,12 @@
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9">
+        <f t="shared" si="9"/>
+        <v>3.2380000000000005E-5</v>
+      </c>
+      <c r="AL62" s="9">
         <f t="shared" si="10"/>
-        <v>3.2380000000000005E-5</v>
-      </c>
-      <c r="AL62" s="9">
-        <f t="shared" si="11"/>
-        <v>1.89E-2</v>
+        <v>1.0911920087683926E-2</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
@@ -9524,7 +9476,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H63" s="3">
@@ -9559,12 +9511,12 @@
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9">
+        <f t="shared" si="9"/>
+        <v>3.3640000000000003E-5</v>
+      </c>
+      <c r="AL63" s="9">
         <f t="shared" si="10"/>
-        <v>3.3640000000000003E-5</v>
-      </c>
-      <c r="AL63" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9000000000000003E-2</v>
+        <v>1.0969655114602891E-2</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.3">
@@ -9581,7 +9533,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="H64" s="3">
@@ -9616,12 +9568,12 @@
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9">
+        <f t="shared" si="9"/>
+        <v>3.5740000000000007E-5</v>
+      </c>
+      <c r="AL64" s="9">
         <f t="shared" si="10"/>
-        <v>3.5740000000000007E-5</v>
-      </c>
-      <c r="AL64" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9099999999999999E-2</v>
+        <v>1.1027390141521851E-2</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
@@ -9638,7 +9590,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.1E-4</v>
       </c>
       <c r="H65" s="3">
@@ -9673,12 +9625,12 @@
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9">
+        <f t="shared" si="9"/>
+        <v>3.8820000000000004E-5</v>
+      </c>
+      <c r="AL65" s="9">
         <f t="shared" si="10"/>
-        <v>3.8820000000000004E-5</v>
-      </c>
-      <c r="AL65" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9200000000000002E-2</v>
+        <v>1.1085125168440815E-2</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.3">
@@ -9695,7 +9647,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="H66" s="3">
@@ -9730,12 +9682,12 @@
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9">
+        <f t="shared" si="9"/>
+        <v>4.3720000000000002E-5</v>
+      </c>
+      <c r="AL66" s="9">
         <f t="shared" si="10"/>
-        <v>4.3720000000000002E-5</v>
-      </c>
-      <c r="AL66" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9300000000000001E-2</v>
+        <v>1.1142860195359778E-2</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
@@ -9752,7 +9704,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.6000000000000003E-4</v>
       </c>
       <c r="H67" s="3">
@@ -9787,12 +9739,12 @@
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9">
+        <f t="shared" si="9"/>
+        <v>5.1420000000000006E-5</v>
+      </c>
+      <c r="AL67" s="9">
         <f t="shared" si="10"/>
-        <v>5.1420000000000006E-5</v>
-      </c>
-      <c r="AL67" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9400000000000001E-2</v>
+        <v>1.120059522227874E-2</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
@@ -9809,7 +9761,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G92" si="13">B68/1000</f>
+        <f t="shared" ref="G68:G92" si="12">B68/1000</f>
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="H68" s="3">
@@ -9844,12 +9796,12 @@
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9">
+        <f t="shared" si="9"/>
+        <v>6.2340000000000003E-5</v>
+      </c>
+      <c r="AL68" s="9">
         <f t="shared" si="10"/>
-        <v>6.2340000000000003E-5</v>
-      </c>
-      <c r="AL68" s="9">
-        <f t="shared" si="11"/>
-        <v>1.95E-2</v>
+        <v>1.1258330249197703E-2</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
@@ -9866,7 +9818,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="H69" s="3">
@@ -9901,12 +9853,12 @@
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9">
+        <f t="shared" si="9"/>
+        <v>6.8920000000000011E-5</v>
+      </c>
+      <c r="AL69" s="9">
         <f t="shared" si="10"/>
-        <v>6.8920000000000011E-5</v>
-      </c>
-      <c r="AL69" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9549999999999998E-2</v>
+        <v>1.1287197762657183E-2</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -9923,7 +9875,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="H70" s="3">
@@ -9958,12 +9910,12 @@
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9">
+        <f t="shared" si="9"/>
+        <v>7.7180000000000017E-5</v>
+      </c>
+      <c r="AL70" s="9">
         <f t="shared" si="10"/>
-        <v>7.7180000000000017E-5</v>
-      </c>
-      <c r="AL70" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9599999999999999E-2</v>
+        <v>1.1316065276116664E-2</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
@@ -9980,7 +9932,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5300000000000001E-3</v>
       </c>
       <c r="H71" s="3">
@@ -10015,12 +9967,12 @@
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9">
+        <f t="shared" si="9"/>
+        <v>8.6420000000000016E-5</v>
+      </c>
+      <c r="AL71" s="9">
         <f t="shared" si="10"/>
-        <v>8.6420000000000016E-5</v>
-      </c>
-      <c r="AL71" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9650000000000001E-2</v>
+        <v>1.1344932789576148E-2</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
@@ -10037,7 +9989,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.31E-3</v>
       </c>
       <c r="H72" s="3">
@@ -10072,12 +10024,12 @@
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9">
+        <f t="shared" si="9"/>
+        <v>9.7059999999999996E-5</v>
+      </c>
+      <c r="AL72" s="9">
         <f t="shared" si="10"/>
-        <v>9.7059999999999996E-5</v>
-      </c>
-      <c r="AL72" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9700000000000002E-2</v>
+        <v>1.1373800303035629E-2</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.3">
@@ -10094,7 +10046,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="H73" s="3">
@@ -10129,12 +10081,12 @@
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
       <c r="AK73" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0882000000000001E-4</v>
+      </c>
+      <c r="AL73" s="9">
         <f t="shared" si="10"/>
-        <v>1.0882000000000001E-4</v>
-      </c>
-      <c r="AL73" s="9">
-        <f t="shared" si="11"/>
-        <v>1.975E-2</v>
+        <v>1.1402667816495109E-2</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.3">
@@ -10151,7 +10103,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.3700000000000002E-3</v>
       </c>
       <c r="H74" s="3">
@@ -10186,12 +10138,12 @@
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
       <c r="AK74" s="9">
+        <f t="shared" si="9"/>
+        <v>1.2184000000000001E-4</v>
+      </c>
+      <c r="AL74" s="9">
         <f t="shared" si="10"/>
-        <v>1.2184000000000001E-4</v>
-      </c>
-      <c r="AL74" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9799999999999998E-2</v>
+        <v>1.1431535329954589E-2</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
@@ -10208,7 +10160,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.0300000000000006E-3</v>
       </c>
       <c r="H75" s="3">
@@ -10247,12 +10199,12 @@
       <c r="AI75" s="9"/>
       <c r="AJ75" s="9"/>
       <c r="AK75" s="9">
+        <f t="shared" si="9"/>
+        <v>1.3542E-4</v>
+      </c>
+      <c r="AL75" s="9">
         <f t="shared" si="10"/>
-        <v>1.3542E-4</v>
-      </c>
-      <c r="AL75" s="9">
-        <f t="shared" si="11"/>
-        <v>1.985E-2</v>
+        <v>1.1460402843414071E-2</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
@@ -10269,7 +10221,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.79E-3</v>
       </c>
       <c r="H76" s="3">
@@ -10296,7 +10248,7 @@
         <v>12</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76" si="14">-(L76)/K76</f>
+        <f t="shared" ref="R76" si="13">-(L76)/K76</f>
         <v>1.9552261306532657</v>
       </c>
       <c r="S76" s="9"/>
@@ -10318,12 +10270,12 @@
       <c r="AI76" s="9"/>
       <c r="AJ76" s="9"/>
       <c r="AK76" s="9">
+        <f t="shared" si="9"/>
+        <v>1.5124E-4</v>
+      </c>
+      <c r="AL76" s="9">
         <f t="shared" si="10"/>
-        <v>1.5124E-4</v>
-      </c>
-      <c r="AL76" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9900000000000001E-2</v>
+        <v>1.1489270356873553E-2</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
@@ -10340,7 +10292,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="6"/>
       <c r="G77" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.6299999999999996E-3</v>
       </c>
       <c r="H77" s="3">
@@ -10386,12 +10338,12 @@
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
       <c r="AK77" s="9">
+        <f t="shared" si="9"/>
+        <v>1.6832000000000001E-4</v>
+      </c>
+      <c r="AL77" s="9">
         <f t="shared" si="10"/>
-        <v>1.6832000000000001E-4</v>
-      </c>
-      <c r="AL77" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9950000000000002E-2</v>
+        <v>1.1518137870333036E-2</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.3">
@@ -10408,7 +10360,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.5599999999999999E-3</v>
       </c>
       <c r="H78" s="3">
@@ -10443,12 +10395,12 @@
       <c r="AI78" s="9"/>
       <c r="AJ78" s="9"/>
       <c r="AK78" s="9">
+        <f t="shared" si="9"/>
+        <v>1.8511999999999999E-4</v>
+      </c>
+      <c r="AL78" s="9">
         <f t="shared" si="10"/>
-        <v>1.8511999999999999E-4</v>
-      </c>
-      <c r="AL78" s="9">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
+        <v>1.1547005383792516E-2</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.3">
@@ -10465,7 +10417,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="H79" s="3">
@@ -10502,12 +10454,12 @@
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9">
+        <f t="shared" si="9"/>
+        <v>2.0444000000000001E-4</v>
+      </c>
+      <c r="AL79" s="9">
         <f t="shared" si="10"/>
-        <v>2.0444000000000001E-4</v>
-      </c>
-      <c r="AL79" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0049999999999998E-2</v>
+        <v>1.1575872897251996E-2</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
@@ -10524,7 +10476,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8.6599999999999993E-3</v>
       </c>
       <c r="H80" s="3">
@@ -10564,12 +10516,12 @@
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9">
+        <f t="shared" si="9"/>
+        <v>2.2684000000000002E-4</v>
+      </c>
+      <c r="AL80" s="9">
         <f t="shared" si="10"/>
-        <v>2.2684000000000002E-4</v>
-      </c>
-      <c r="AL80" s="9">
-        <f t="shared" si="11"/>
-        <v>2.01E-2</v>
+        <v>1.1604740410711478E-2</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.3">
@@ -10586,7 +10538,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="6"/>
       <c r="G81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.8800000000000016E-3</v>
       </c>
       <c r="H81" s="3">
@@ -10626,12 +10578,12 @@
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
       <c r="AK81" s="9">
+        <f t="shared" si="9"/>
+        <v>2.4615999999999999E-4</v>
+      </c>
+      <c r="AL81" s="9">
         <f t="shared" si="10"/>
-        <v>2.4615999999999999E-4</v>
-      </c>
-      <c r="AL81" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0150000000000001E-2</v>
+        <v>1.1633607924170959E-2</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.3">
@@ -10648,7 +10600,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="6"/>
       <c r="G82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.108E-2</v>
       </c>
       <c r="H82" s="3">
@@ -10683,12 +10635,12 @@
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
       <c r="AK82" s="9">
+        <f t="shared" si="9"/>
+        <v>2.7332000000000002E-4</v>
+      </c>
+      <c r="AL82" s="9">
         <f t="shared" si="10"/>
-        <v>2.7332000000000002E-4</v>
-      </c>
-      <c r="AL82" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0200000000000003E-2</v>
+        <v>1.1662475437630441E-2</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.3">
@@ -10705,7 +10657,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="H83" s="3">
@@ -10740,12 +10692,12 @@
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
       <c r="AK83" s="9">
+        <f t="shared" si="9"/>
+        <v>2.9586E-4</v>
+      </c>
+      <c r="AL83" s="9">
         <f t="shared" si="10"/>
-        <v>2.9586E-4</v>
-      </c>
-      <c r="AL83" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0249999999999997E-2</v>
+        <v>1.1691342951089919E-2</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.3">
@@ -10762,7 +10714,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.4060000000000001E-2</v>
       </c>
       <c r="H84" s="3">
@@ -10797,12 +10749,12 @@
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
       <c r="AK84" s="9">
+        <f t="shared" si="9"/>
+        <v>3.2148000000000007E-4</v>
+      </c>
+      <c r="AL84" s="9">
         <f t="shared" si="10"/>
-        <v>3.2148000000000007E-4</v>
-      </c>
-      <c r="AL84" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0299999999999999E-2</v>
+        <v>1.1720210464549402E-2</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.3">
@@ -10819,7 +10771,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="6"/>
       <c r="G85" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5439999999999999E-2</v>
       </c>
       <c r="H85" s="3">
@@ -10854,12 +10806,12 @@
       <c r="AI85" s="9"/>
       <c r="AJ85" s="9"/>
       <c r="AK85" s="9">
+        <f t="shared" si="9"/>
+        <v>3.4794000000000003E-4</v>
+      </c>
+      <c r="AL85" s="9">
         <f t="shared" si="10"/>
-        <v>3.4794000000000003E-4</v>
-      </c>
-      <c r="AL85" s="9">
-        <f t="shared" si="11"/>
-        <v>2.035E-2</v>
+        <v>1.1749077978008884E-2</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
@@ -10876,7 +10828,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="6"/>
       <c r="G86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.738E-2</v>
       </c>
       <c r="H86" s="3">
@@ -10911,12 +10863,12 @@
       <c r="AI86" s="9"/>
       <c r="AJ86" s="9"/>
       <c r="AK86" s="9">
+        <f t="shared" si="9"/>
+        <v>3.7958000000000002E-4</v>
+      </c>
+      <c r="AL86" s="9">
         <f t="shared" si="10"/>
-        <v>3.7958000000000002E-4</v>
-      </c>
-      <c r="AL86" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0400000000000001E-2</v>
+        <v>1.1777945491468367E-2</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.3">
@@ -10933,7 +10885,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="6"/>
       <c r="G87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.899E-2</v>
       </c>
       <c r="H87" s="3">
@@ -10968,12 +10920,12 @@
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9"/>
       <c r="AK87" s="9">
+        <f t="shared" si="9"/>
+        <v>4.0702000000000002E-4</v>
+      </c>
+      <c r="AL87" s="9">
         <f t="shared" si="10"/>
-        <v>4.0702000000000002E-4</v>
-      </c>
-      <c r="AL87" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0449999999999999E-2</v>
+        <v>1.1806813004927847E-2</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.3">
@@ -10990,7 +10942,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="6"/>
       <c r="G88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.0820000000000002E-2</v>
       </c>
       <c r="H88" s="3">
@@ -11025,12 +10977,12 @@
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9"/>
       <c r="AK88" s="9">
+        <f t="shared" si="9"/>
+        <v>4.3166000000000005E-4</v>
+      </c>
+      <c r="AL88" s="9">
         <f t="shared" si="10"/>
-        <v>4.3166000000000005E-4</v>
-      </c>
-      <c r="AL88" s="9">
-        <f t="shared" si="11"/>
-        <v>2.0500000000000001E-2</v>
+        <v>1.1835680518387329E-2</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.3">
@@ -11047,7 +10999,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="6"/>
       <c r="G89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="H89" s="3">
@@ -11061,7 +11013,7 @@
         <v>24</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" ref="N89:N92" si="15">G89</f>
+        <f t="shared" ref="N89:N92" si="14">G89</f>
         <v>2.2710000000000001E-2</v>
       </c>
       <c r="O89" s="3">
@@ -11105,7 +11057,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="6"/>
       <c r="G90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="H90" s="3">
@@ -11117,7 +11069,7 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.4969999999999999E-2</v>
       </c>
       <c r="O90" s="3">
@@ -11161,7 +11113,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="6"/>
       <c r="G91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="H91" s="3">
@@ -11173,7 +11125,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.6929999999999999E-2</v>
       </c>
       <c r="O91" s="3">
@@ -11217,7 +11169,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="6"/>
       <c r="G92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.869E-2</v>
       </c>
       <c r="H92" s="3">
@@ -11229,7 +11181,7 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.869E-2</v>
       </c>
       <c r="O92" s="3">

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EFA52-CF8B-469C-BF09-87CC11A0A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FDE9F5-E766-443A-A91D-8AC7C30022B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -250,6 +250,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% — akcent 1" xfId="4" builtinId="32"/>
@@ -708,7 +714,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.0392304845413265E-2</c:v>
+                    <c:v>6.000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.0680979980008078E-2</c:v>
@@ -756,7 +762,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.0392304845413265E-2</c:v>
+                    <c:v>6.000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.0680979980008078E-2</c:v>
@@ -2936,97 +2942,97 @@
                     <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0280000000000005E-5</c:v>
+                    <c:v>1.7482166151061872E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0980000000000005E-5</c:v>
+                    <c:v>1.7886311339494609E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1540000000000006E-5</c:v>
+                    <c:v>1.8209627490240799E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2380000000000005E-5</c:v>
+                    <c:v>1.8694601716360085E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3640000000000003E-5</c:v>
+                    <c:v>1.9422063055539012E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.5740000000000007E-5</c:v>
+                    <c:v>2.0634498620837229E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.8820000000000004E-5</c:v>
+                    <c:v>2.2412737449941273E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.3720000000000002E-5</c:v>
+                    <c:v>2.5241753768970439E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.1420000000000006E-5</c:v>
+                    <c:v>2.9687350841730561E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.2340000000000003E-5</c:v>
+                    <c:v>3.5992015781281274E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.8920000000000011E-5</c:v>
+                    <c:v>3.9790980552549012E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.7180000000000017E-5</c:v>
+                    <c:v>4.4559893776055328E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.6420000000000016E-5</c:v>
+                    <c:v>4.9894610263367469E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>9.7059999999999996E-5</c:v>
+                    <c:v>5.6037617127545076E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0882000000000001E-4</c:v>
+                    <c:v>6.2827256293215071E-5</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.2184000000000001E-4</c:v>
+                    <c:v>7.0344356798064011E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.3542E-4</c:v>
+                    <c:v>7.818477345365912E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.5124E-4</c:v>
+                    <c:v>8.7318454712238992E-5</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.6832000000000001E-4</c:v>
+                    <c:v>9.7179597309997822E-5</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.8511999999999999E-4</c:v>
+                    <c:v>1.0687908183238351E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.0444000000000001E-4</c:v>
+                    <c:v>1.180334890331271E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.2684000000000002E-4</c:v>
+                    <c:v>1.3096613506297471E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.4615999999999999E-4</c:v>
+                    <c:v>1.4212054226371828E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.7332000000000002E-4</c:v>
+                    <c:v>1.5780137557490852E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.9586E-4</c:v>
+                    <c:v>1.708148506424427E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.2148000000000007E-4</c:v>
+                    <c:v>1.8560656453908093E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4794000000000003E-4</c:v>
+                    <c:v>2.0088325266183843E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.7958000000000002E-4</c:v>
+                    <c:v>2.1915061517899814E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0702000000000002E-4</c:v>
+                    <c:v>2.3499310656556149E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>4.3166000000000005E-4</c:v>
+                    <c:v>2.4921901719839387E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3041,97 +3047,97 @@
                     <c:v>1.7320508075688774E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0280000000000005E-5</c:v>
+                    <c:v>1.7482166151061872E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0560000000000006E-5</c:v>
+                    <c:v>1.7643824226434964E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0980000000000005E-5</c:v>
+                    <c:v>1.7886311339494609E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1540000000000006E-5</c:v>
+                    <c:v>1.8209627490240799E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2380000000000005E-5</c:v>
+                    <c:v>1.8694601716360085E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3640000000000003E-5</c:v>
+                    <c:v>1.9422063055539012E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.5740000000000007E-5</c:v>
+                    <c:v>2.0634498620837229E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.8820000000000004E-5</c:v>
+                    <c:v>2.2412737449941273E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.3720000000000002E-5</c:v>
+                    <c:v>2.5241753768970439E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.1420000000000006E-5</c:v>
+                    <c:v>2.9687350841730561E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6.2340000000000003E-5</c:v>
+                    <c:v>3.5992015781281274E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.8920000000000011E-5</c:v>
+                    <c:v>3.9790980552549012E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>7.7180000000000017E-5</c:v>
+                    <c:v>4.4559893776055328E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.6420000000000016E-5</c:v>
+                    <c:v>4.9894610263367469E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>9.7059999999999996E-5</c:v>
+                    <c:v>5.6037617127545076E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0882000000000001E-4</c:v>
+                    <c:v>6.2827256293215071E-5</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.2184000000000001E-4</c:v>
+                    <c:v>7.0344356798064011E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.3542E-4</c:v>
+                    <c:v>7.818477345365912E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.5124E-4</c:v>
+                    <c:v>8.7318454712238992E-5</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.6832000000000001E-4</c:v>
+                    <c:v>9.7179597309997822E-5</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.8511999999999999E-4</c:v>
+                    <c:v>1.0687908183238351E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.0444000000000001E-4</c:v>
+                    <c:v>1.180334890331271E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.2684000000000002E-4</c:v>
+                    <c:v>1.3096613506297471E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>2.4615999999999999E-4</c:v>
+                    <c:v>1.4212054226371828E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>2.7332000000000002E-4</c:v>
+                    <c:v>1.5780137557490852E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2.9586E-4</c:v>
+                    <c:v>1.708148506424427E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.2148000000000007E-4</c:v>
+                    <c:v>1.8560656453908093E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4794000000000003E-4</c:v>
+                    <c:v>2.0088325266183843E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.7958000000000002E-4</c:v>
+                    <c:v>2.1915061517899814E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0702000000000002E-4</c:v>
+                    <c:v>2.3499310656556149E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>4.3166000000000005E-4</c:v>
+                    <c:v>2.4921901719839387E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5567,16 +5573,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550814</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35379</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>398415</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>249381</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5603,16 +5609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>124690</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5941,29 +5947,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL79" sqref="AL79"/>
+    <sheetView tabSelected="1" topLeftCell="AH23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD54" sqref="BD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -6070,13 +6078,13 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="7">
+      <c r="AK2" s="11">
         <f t="shared" ref="AK2:AK13" si="0">SQRT(POWER((ABS(0.014*G4+3*0.00001)),2)/(3))</f>
         <v>1.7401337113375323E-5</v>
       </c>
-      <c r="AL2" s="7">
-        <f>SQRT(POWER((ABS(0.005*H4+1*0.01)),2)/(3))</f>
-        <v>1.0392304845413265E-2</v>
+      <c r="AL2" s="14">
+        <f>(ABS(0.005*H4+1*0.01))/(3)</f>
+        <v>6.000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -6129,11 +6137,11 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7">
+      <c r="AK3" s="11">
         <f t="shared" si="0"/>
         <v>1.8532943640986986E-5</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="14">
         <f t="shared" ref="AL3:AL14" si="1">SQRT(POWER((ABS(0.005*H5+1*0.01)),2)/(3))</f>
         <v>1.0680979980008078E-2</v>
       </c>
@@ -6186,11 +6194,11 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="7">
+      <c r="AK4" s="11">
         <f t="shared" si="0"/>
         <v>2.7828282974939967E-5</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="14">
         <f t="shared" si="1"/>
         <v>1.0969655114602891E-2</v>
       </c>
@@ -6243,11 +6251,11 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="7">
+      <c r="AK5" s="11">
         <f t="shared" si="0"/>
         <v>3.2273880047700086E-5</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="14">
         <f t="shared" si="1"/>
         <v>1.1027390141521851E-2</v>
       </c>
@@ -6300,11 +6308,11 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="7">
+      <c r="AK6" s="11">
         <f t="shared" si="0"/>
         <v>3.8255228836504608E-5</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="14">
         <f t="shared" si="1"/>
         <v>1.1085125168440815E-2</v>
       </c>
@@ -6357,11 +6365,11 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="7">
+      <c r="AK7" s="11">
         <f t="shared" si="0"/>
         <v>4.5933987416726633E-5</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="14">
         <f t="shared" si="1"/>
         <v>1.1142860195359778E-2</v>
       </c>
@@ -6414,11 +6422,11 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
-      <c r="AK8" s="7">
+      <c r="AK8" s="11">
         <f t="shared" si="0"/>
         <v>5.5067668675306504E-5</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL8" s="14">
         <f t="shared" si="1"/>
         <v>1.120059522227874E-2</v>
       </c>
@@ -6475,11 +6483,11 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="7">
+      <c r="AK9" s="11">
         <f t="shared" si="0"/>
         <v>6.6464562989109724E-5</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AL9" s="14">
         <f t="shared" si="1"/>
         <v>1.1258330249197703E-2</v>
       </c>
@@ -6553,11 +6561,11 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="7">
+      <c r="AK10" s="11">
         <f t="shared" si="0"/>
         <v>8.052881554656901E-5</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AL10" s="14">
         <f t="shared" si="1"/>
         <v>1.1316065276116664E-2</v>
       </c>
@@ -6626,11 +6634,11 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="7">
+      <c r="AK11" s="11">
         <f t="shared" si="0"/>
         <v>9.8149545762236387E-5</v>
       </c>
-      <c r="AL11" s="7">
+      <c r="AL11" s="14">
         <f t="shared" si="1"/>
         <v>1.1373800303035629E-2</v>
       </c>
@@ -6688,11 +6696,11 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="7">
+      <c r="AK12" s="11">
         <f t="shared" si="0"/>
         <v>1.194075826737984E-4</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="14">
         <f t="shared" si="1"/>
         <v>1.1431535329954589E-2</v>
       </c>
@@ -6752,11 +6760,11 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
-      <c r="AK13" s="7">
+      <c r="AK13" s="11">
         <f t="shared" si="0"/>
         <v>1.4397961013050889E-4</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL13" s="14">
         <f t="shared" si="1"/>
         <v>1.1489270356873553E-2</v>
       </c>
@@ -6819,11 +6827,11 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="7">
+      <c r="AK14" s="11">
         <f>SQRT(POWER((ABS(0.014*G16+3*0.00001)),2)/(3))</f>
         <v>1.8083765131557462E-4</v>
       </c>
-      <c r="AL14" s="7">
+      <c r="AL14" s="14">
         <f t="shared" si="1"/>
         <v>1.1547005383792516E-2</v>
       </c>
@@ -7355,11 +7363,11 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="8">
+      <c r="AK26" s="12">
         <f>SQRT(POWER((ABS(0.014*G29+3*0.00001)),2)/(3))</f>
         <v>1.7320508075688774E-5</v>
       </c>
-      <c r="AL26" s="8">
+      <c r="AL26" s="15">
         <f>SQRT(POWER((ABS(0.005*H29+1*0.01)),2)/(3))</f>
         <v>1.2124355652982142E-2</v>
       </c>
@@ -7406,11 +7414,11 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="8">
+      <c r="AK27" s="12">
         <f t="shared" ref="AK27:AK52" si="5">SQRT(POWER((ABS(0.014*G30+3*0.00001)),2)/(3))</f>
         <v>1.7401337113375323E-5</v>
       </c>
-      <c r="AL27" s="8">
+      <c r="AL27" s="15">
         <f t="shared" ref="AL27:AL52" si="6">SQRT(POWER((ABS(0.005*H30+1*0.01)),2)/(3))</f>
         <v>1.2413030787576952E-2</v>
       </c>
@@ -7460,11 +7468,11 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="8">
+      <c r="AK28" s="12">
         <f t="shared" si="5"/>
         <v>1.7643824226434964E-5</v>
       </c>
-      <c r="AL28" s="8">
+      <c r="AL28" s="15">
         <f t="shared" si="6"/>
         <v>1.2701705922171767E-2</v>
       </c>
@@ -7517,11 +7525,11 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="8">
+      <c r="AK29" s="12">
         <f t="shared" si="5"/>
         <v>1.7643824226434964E-5</v>
       </c>
-      <c r="AL29" s="8">
+      <c r="AL29" s="15">
         <f t="shared" si="6"/>
         <v>1.299038105676658E-2</v>
       </c>
@@ -7574,11 +7582,11 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="8">
+      <c r="AK30" s="12">
         <f t="shared" si="5"/>
         <v>2.047284054546413E-5</v>
       </c>
-      <c r="AL30" s="8">
+      <c r="AL30" s="15">
         <f t="shared" si="6"/>
         <v>1.3279056191361393E-2</v>
       </c>
@@ -7631,11 +7639,11 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
-      <c r="AK31" s="8">
+      <c r="AK31" s="12">
         <f t="shared" si="5"/>
         <v>2.8151599125686151E-5</v>
       </c>
-      <c r="AL31" s="8">
+      <c r="AL31" s="15">
         <f t="shared" si="6"/>
         <v>1.3567731325956206E-2</v>
       </c>
@@ -7688,11 +7696,11 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="8">
+      <c r="AK32" s="12">
         <f t="shared" si="5"/>
         <v>4.3589945323816749E-5</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL32" s="15">
         <f t="shared" si="6"/>
         <v>1.3856406460551019E-2</v>
       </c>
@@ -7745,11 +7753,11 @@
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="8">
+      <c r="AK33" s="12">
         <f t="shared" si="5"/>
         <v>4.9490465074934729E-5</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AL33" s="15">
         <f t="shared" si="6"/>
         <v>1.3914141487469981E-2</v>
       </c>
@@ -7802,11 +7810,11 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="8">
+      <c r="AK34" s="12">
         <f t="shared" si="5"/>
         <v>5.3936062147694841E-5</v>
       </c>
-      <c r="AL34" s="8">
+      <c r="AL34" s="15">
         <f t="shared" si="6"/>
         <v>1.3971876514388944E-2</v>
       </c>
@@ -7863,11 +7871,11 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
-      <c r="AK35" s="8">
+      <c r="AK35" s="12">
         <f t="shared" si="5"/>
         <v>5.9270778635006975E-5</v>
       </c>
-      <c r="AL35" s="8">
+      <c r="AL35" s="15">
         <f t="shared" si="6"/>
         <v>1.4029611541307907E-2</v>
       </c>
@@ -7934,11 +7942,11 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="8">
+      <c r="AK36" s="12">
         <f t="shared" si="5"/>
         <v>6.6464562989109724E-5</v>
       </c>
-      <c r="AL36" s="8">
+      <c r="AL36" s="15">
         <f t="shared" si="6"/>
         <v>1.4087346568226867E-2</v>
       </c>
@@ -8000,11 +8008,11 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
-      <c r="AK37" s="8">
+      <c r="AK37" s="12">
         <f t="shared" si="5"/>
         <v>7.1556792363362224E-5</v>
       </c>
-      <c r="AL37" s="8">
+      <c r="AL37" s="15">
         <f t="shared" si="6"/>
         <v>1.4145081595145832E-2</v>
       </c>
@@ -8057,11 +8065,11 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="8">
+      <c r="AK38" s="12">
         <f t="shared" si="5"/>
         <v>7.7538141152166753E-5</v>
       </c>
-      <c r="AL38" s="8">
+      <c r="AL38" s="15">
         <f t="shared" si="6"/>
         <v>1.4202816622064794E-2</v>
       </c>
@@ -8116,11 +8124,11 @@
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
-      <c r="AK39" s="8">
+      <c r="AK39" s="12">
         <f t="shared" si="5"/>
         <v>8.570187395850806E-5</v>
       </c>
-      <c r="AL39" s="8">
+      <c r="AL39" s="15">
         <f t="shared" si="6"/>
         <v>1.4260551648983755E-2</v>
       </c>
@@ -8178,11 +8186,11 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
-      <c r="AK40" s="8">
+      <c r="AK40" s="12">
         <f t="shared" si="5"/>
         <v>9.6128819820072694E-5</v>
       </c>
-      <c r="AL40" s="8">
+      <c r="AL40" s="15">
         <f t="shared" si="6"/>
         <v>1.431828667590272E-2</v>
       </c>
@@ -8240,11 +8248,11 @@
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
-      <c r="AK41" s="8">
+      <c r="AK41" s="12">
         <f t="shared" si="5"/>
         <v>1.0299928802342924E-4</v>
       </c>
-      <c r="AL41" s="8">
+      <c r="AL41" s="15">
         <f t="shared" si="6"/>
         <v>1.437602170282168E-2</v>
       </c>
@@ -8304,11 +8312,11 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="8">
+      <c r="AK42" s="12">
         <f t="shared" si="5"/>
         <v>1.1463866945029207E-4</v>
       </c>
-      <c r="AL42" s="8">
+      <c r="AL42" s="15">
         <f t="shared" si="6"/>
         <v>1.4433756729740645E-2</v>
       </c>
@@ -8366,11 +8374,11 @@
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="8">
+      <c r="AK43" s="12">
         <f t="shared" si="5"/>
         <v>1.1997338593760422E-4</v>
       </c>
-      <c r="AL43" s="8">
+      <c r="AL43" s="15">
         <f t="shared" si="6"/>
         <v>1.4462624243200125E-2</v>
       </c>
@@ -8428,11 +8436,11 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="8">
+      <c r="AK44" s="12">
         <f t="shared" si="5"/>
         <v>1.2223659899282757E-4</v>
       </c>
-      <c r="AL44" s="8">
+      <c r="AL44" s="15">
         <f t="shared" si="6"/>
         <v>1.4491491756659607E-2</v>
       </c>
@@ -8490,11 +8498,11 @@
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
-      <c r="AK45" s="8">
+      <c r="AK45" s="12">
         <f t="shared" si="5"/>
         <v>1.2999618661073615E-4</v>
       </c>
-      <c r="AL45" s="8">
+      <c r="AL45" s="15">
         <f t="shared" si="6"/>
         <v>1.4520359270119087E-2</v>
       </c>
@@ -8552,11 +8560,11 @@
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
-      <c r="AK46" s="8">
+      <c r="AK46" s="12">
         <f t="shared" si="5"/>
         <v>1.3411846753275006E-4</v>
       </c>
-      <c r="AL46" s="8">
+      <c r="AL46" s="15">
         <f t="shared" si="6"/>
         <v>1.454922678357857E-2</v>
       </c>
@@ -8614,11 +8622,11 @@
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
-      <c r="AK47" s="8">
+      <c r="AK47" s="12">
         <f t="shared" si="5"/>
         <v>1.3783660326633127E-4</v>
       </c>
-      <c r="AL47" s="8">
+      <c r="AL47" s="15">
         <f t="shared" si="6"/>
         <v>1.4578094297038052E-2</v>
       </c>
@@ -8676,11 +8684,11 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8">
+      <c r="AK48" s="12">
         <f t="shared" si="5"/>
         <v>1.4333297782901649E-4</v>
       </c>
-      <c r="AL48" s="8">
+      <c r="AL48" s="15">
         <f t="shared" si="6"/>
         <v>1.4606961810497534E-2</v>
       </c>
@@ -8738,11 +8746,11 @@
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="8">
+      <c r="AK49" s="12">
         <f t="shared" si="5"/>
         <v>1.4163556803759901E-4</v>
       </c>
-      <c r="AL49" s="8">
+      <c r="AL49" s="15">
         <f t="shared" si="6"/>
         <v>1.4635829323957012E-2</v>
       </c>
@@ -8800,11 +8808,11 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
-      <c r="AK50" s="8">
+      <c r="AK50" s="12">
         <f t="shared" si="5"/>
         <v>1.5755888846184888E-4</v>
       </c>
-      <c r="AL50" s="8">
+      <c r="AL50" s="15">
         <f t="shared" si="6"/>
         <v>1.4664696837416495E-2</v>
       </c>
@@ -8862,11 +8870,11 @@
       <c r="AH51" s="8"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
-      <c r="AK51" s="8">
+      <c r="AK51" s="12">
         <f t="shared" si="5"/>
         <v>1.603070757431915E-4</v>
       </c>
-      <c r="AL51" s="8">
+      <c r="AL51" s="15">
         <f t="shared" si="6"/>
         <v>1.4693564350875977E-2</v>
       </c>
@@ -8924,11 +8932,11 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
-      <c r="AK52" s="8">
+      <c r="AK52" s="12">
         <f t="shared" si="5"/>
         <v>1.6814749239878662E-4</v>
       </c>
-      <c r="AL52" s="8">
+      <c r="AL52" s="15">
         <f t="shared" si="6"/>
         <v>1.4722431864335458E-2</v>
       </c>
@@ -9184,11 +9192,11 @@
       <c r="AH57" s="9"/>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
-      <c r="AK57" s="9">
+      <c r="AK57" s="13">
         <f>SQRT(POWER((ABS(0.014*G61+3*0.00001)),2)/(3))</f>
         <v>1.7320508075688774E-5</v>
       </c>
-      <c r="AL57" s="9">
+      <c r="AL57" s="16">
         <f>SQRT(POWER((ABS(0.005*H61+1*0.01)),2)/(3))</f>
         <v>1.0392304845413265E-2</v>
       </c>
@@ -9234,11 +9242,11 @@
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
-      <c r="AK58" s="9">
-        <f t="shared" ref="AK58:AK88" si="9">ABS(0.014*G62+3*0.00001)</f>
-        <v>3.0280000000000005E-5</v>
-      </c>
-      <c r="AL58" s="9">
+      <c r="AK58" s="13">
+        <f t="shared" ref="AK58:AK88" si="9">SQRT(POWER((ABS(0.014*G62+3*0.00001)),2)/(3))</f>
+        <v>1.7482166151061872E-5</v>
+      </c>
+      <c r="AL58" s="16">
         <f t="shared" ref="AL58:AL88" si="10">SQRT(POWER((ABS(0.005*H62+1*0.01)),2)/(3))</f>
         <v>1.0680979980008078E-2</v>
       </c>
@@ -9285,11 +9293,11 @@
       <c r="AH59" s="9"/>
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
-      <c r="AK59" s="9">
+      <c r="AK59" s="13">
         <f t="shared" si="9"/>
-        <v>3.0560000000000006E-5</v>
-      </c>
-      <c r="AL59" s="9">
+        <v>1.7643824226434964E-5</v>
+      </c>
+      <c r="AL59" s="16">
         <f t="shared" si="10"/>
         <v>1.0738715006927038E-2</v>
       </c>
@@ -9339,11 +9347,11 @@
       <c r="AH60" s="9"/>
       <c r="AI60" s="9"/>
       <c r="AJ60" s="9"/>
-      <c r="AK60" s="9">
+      <c r="AK60" s="13">
         <f t="shared" si="9"/>
-        <v>3.0980000000000005E-5</v>
-      </c>
-      <c r="AL60" s="9">
+        <v>1.7886311339494609E-5</v>
+      </c>
+      <c r="AL60" s="16">
         <f t="shared" si="10"/>
         <v>1.0796450033846003E-2</v>
       </c>
@@ -9396,11 +9404,11 @@
       <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
-      <c r="AK61" s="9">
+      <c r="AK61" s="13">
         <f t="shared" si="9"/>
-        <v>3.1540000000000006E-5</v>
-      </c>
-      <c r="AL61" s="9">
+        <v>1.8209627490240799E-5</v>
+      </c>
+      <c r="AL61" s="16">
         <f t="shared" si="10"/>
         <v>1.0854185060764965E-2</v>
       </c>
@@ -9453,11 +9461,11 @@
       <c r="AH62" s="9"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
-      <c r="AK62" s="9">
+      <c r="AK62" s="13">
         <f t="shared" si="9"/>
-        <v>3.2380000000000005E-5</v>
-      </c>
-      <c r="AL62" s="9">
+        <v>1.8694601716360085E-5</v>
+      </c>
+      <c r="AL62" s="16">
         <f t="shared" si="10"/>
         <v>1.0911920087683926E-2</v>
       </c>
@@ -9510,11 +9518,11 @@
       <c r="AH63" s="9"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
-      <c r="AK63" s="9">
+      <c r="AK63" s="13">
         <f t="shared" si="9"/>
-        <v>3.3640000000000003E-5</v>
-      </c>
-      <c r="AL63" s="9">
+        <v>1.9422063055539012E-5</v>
+      </c>
+      <c r="AL63" s="16">
         <f t="shared" si="10"/>
         <v>1.0969655114602891E-2</v>
       </c>
@@ -9567,11 +9575,11 @@
       <c r="AH64" s="9"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
-      <c r="AK64" s="9">
+      <c r="AK64" s="13">
         <f t="shared" si="9"/>
-        <v>3.5740000000000007E-5</v>
-      </c>
-      <c r="AL64" s="9">
+        <v>2.0634498620837229E-5</v>
+      </c>
+      <c r="AL64" s="16">
         <f t="shared" si="10"/>
         <v>1.1027390141521851E-2</v>
       </c>
@@ -9624,11 +9632,11 @@
       <c r="AH65" s="9"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
-      <c r="AK65" s="9">
+      <c r="AK65" s="13">
         <f t="shared" si="9"/>
-        <v>3.8820000000000004E-5</v>
-      </c>
-      <c r="AL65" s="9">
+        <v>2.2412737449941273E-5</v>
+      </c>
+      <c r="AL65" s="16">
         <f t="shared" si="10"/>
         <v>1.1085125168440815E-2</v>
       </c>
@@ -9681,11 +9689,11 @@
       <c r="AH66" s="9"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
-      <c r="AK66" s="9">
+      <c r="AK66" s="13">
         <f t="shared" si="9"/>
-        <v>4.3720000000000002E-5</v>
-      </c>
-      <c r="AL66" s="9">
+        <v>2.5241753768970439E-5</v>
+      </c>
+      <c r="AL66" s="16">
         <f t="shared" si="10"/>
         <v>1.1142860195359778E-2</v>
       </c>
@@ -9738,11 +9746,11 @@
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
-      <c r="AK67" s="9">
+      <c r="AK67" s="13">
         <f t="shared" si="9"/>
-        <v>5.1420000000000006E-5</v>
-      </c>
-      <c r="AL67" s="9">
+        <v>2.9687350841730561E-5</v>
+      </c>
+      <c r="AL67" s="16">
         <f t="shared" si="10"/>
         <v>1.120059522227874E-2</v>
       </c>
@@ -9795,11 +9803,11 @@
       <c r="AH68" s="9"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
-      <c r="AK68" s="9">
+      <c r="AK68" s="13">
         <f t="shared" si="9"/>
-        <v>6.2340000000000003E-5</v>
-      </c>
-      <c r="AL68" s="9">
+        <v>3.5992015781281274E-5</v>
+      </c>
+      <c r="AL68" s="16">
         <f t="shared" si="10"/>
         <v>1.1258330249197703E-2</v>
       </c>
@@ -9852,11 +9860,11 @@
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
-      <c r="AK69" s="9">
+      <c r="AK69" s="13">
         <f t="shared" si="9"/>
-        <v>6.8920000000000011E-5</v>
-      </c>
-      <c r="AL69" s="9">
+        <v>3.9790980552549012E-5</v>
+      </c>
+      <c r="AL69" s="16">
         <f t="shared" si="10"/>
         <v>1.1287197762657183E-2</v>
       </c>
@@ -9909,11 +9917,11 @@
       <c r="AH70" s="9"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
-      <c r="AK70" s="9">
+      <c r="AK70" s="13">
         <f t="shared" si="9"/>
-        <v>7.7180000000000017E-5</v>
-      </c>
-      <c r="AL70" s="9">
+        <v>4.4559893776055328E-5</v>
+      </c>
+      <c r="AL70" s="16">
         <f t="shared" si="10"/>
         <v>1.1316065276116664E-2</v>
       </c>
@@ -9966,11 +9974,11 @@
       <c r="AH71" s="9"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
-      <c r="AK71" s="9">
+      <c r="AK71" s="13">
         <f t="shared" si="9"/>
-        <v>8.6420000000000016E-5</v>
-      </c>
-      <c r="AL71" s="9">
+        <v>4.9894610263367469E-5</v>
+      </c>
+      <c r="AL71" s="16">
         <f t="shared" si="10"/>
         <v>1.1344932789576148E-2</v>
       </c>
@@ -10023,11 +10031,11 @@
       <c r="AH72" s="9"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
-      <c r="AK72" s="9">
+      <c r="AK72" s="13">
         <f t="shared" si="9"/>
-        <v>9.7059999999999996E-5</v>
-      </c>
-      <c r="AL72" s="9">
+        <v>5.6037617127545076E-5</v>
+      </c>
+      <c r="AL72" s="16">
         <f t="shared" si="10"/>
         <v>1.1373800303035629E-2</v>
       </c>
@@ -10080,11 +10088,11 @@
       <c r="AH73" s="9"/>
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
-      <c r="AK73" s="9">
+      <c r="AK73" s="13">
         <f t="shared" si="9"/>
-        <v>1.0882000000000001E-4</v>
-      </c>
-      <c r="AL73" s="9">
+        <v>6.2827256293215071E-5</v>
+      </c>
+      <c r="AL73" s="16">
         <f t="shared" si="10"/>
         <v>1.1402667816495109E-2</v>
       </c>
@@ -10137,11 +10145,11 @@
       <c r="AH74" s="9"/>
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
-      <c r="AK74" s="9">
+      <c r="AK74" s="13">
         <f t="shared" si="9"/>
-        <v>1.2184000000000001E-4</v>
-      </c>
-      <c r="AL74" s="9">
+        <v>7.0344356798064011E-5</v>
+      </c>
+      <c r="AL74" s="16">
         <f t="shared" si="10"/>
         <v>1.1431535329954589E-2</v>
       </c>
@@ -10198,11 +10206,11 @@
       <c r="AH75" s="9"/>
       <c r="AI75" s="9"/>
       <c r="AJ75" s="9"/>
-      <c r="AK75" s="9">
+      <c r="AK75" s="13">
         <f t="shared" si="9"/>
-        <v>1.3542E-4</v>
-      </c>
-      <c r="AL75" s="9">
+        <v>7.818477345365912E-5</v>
+      </c>
+      <c r="AL75" s="16">
         <f t="shared" si="10"/>
         <v>1.1460402843414071E-2</v>
       </c>
@@ -10269,11 +10277,11 @@
       <c r="AH76" s="9"/>
       <c r="AI76" s="9"/>
       <c r="AJ76" s="9"/>
-      <c r="AK76" s="9">
+      <c r="AK76" s="13">
         <f t="shared" si="9"/>
-        <v>1.5124E-4</v>
-      </c>
-      <c r="AL76" s="9">
+        <v>8.7318454712238992E-5</v>
+      </c>
+      <c r="AL76" s="16">
         <f t="shared" si="10"/>
         <v>1.1489270356873553E-2</v>
       </c>
@@ -10337,11 +10345,11 @@
       <c r="AH77" s="9"/>
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
-      <c r="AK77" s="9">
+      <c r="AK77" s="13">
         <f t="shared" si="9"/>
-        <v>1.6832000000000001E-4</v>
-      </c>
-      <c r="AL77" s="9">
+        <v>9.7179597309997822E-5</v>
+      </c>
+      <c r="AL77" s="16">
         <f t="shared" si="10"/>
         <v>1.1518137870333036E-2</v>
       </c>
@@ -10394,11 +10402,11 @@
       <c r="AH78" s="9"/>
       <c r="AI78" s="9"/>
       <c r="AJ78" s="9"/>
-      <c r="AK78" s="9">
+      <c r="AK78" s="13">
         <f t="shared" si="9"/>
-        <v>1.8511999999999999E-4</v>
-      </c>
-      <c r="AL78" s="9">
+        <v>1.0687908183238351E-4</v>
+      </c>
+      <c r="AL78" s="16">
         <f t="shared" si="10"/>
         <v>1.1547005383792516E-2</v>
       </c>
@@ -10453,11 +10461,11 @@
       <c r="AH79" s="9"/>
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
-      <c r="AK79" s="9">
+      <c r="AK79" s="13">
         <f t="shared" si="9"/>
-        <v>2.0444000000000001E-4</v>
-      </c>
-      <c r="AL79" s="9">
+        <v>1.180334890331271E-4</v>
+      </c>
+      <c r="AL79" s="16">
         <f t="shared" si="10"/>
         <v>1.1575872897251996E-2</v>
       </c>
@@ -10515,11 +10523,11 @@
       <c r="AH80" s="9"/>
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
-      <c r="AK80" s="9">
+      <c r="AK80" s="13">
         <f t="shared" si="9"/>
-        <v>2.2684000000000002E-4</v>
-      </c>
-      <c r="AL80" s="9">
+        <v>1.3096613506297471E-4</v>
+      </c>
+      <c r="AL80" s="16">
         <f t="shared" si="10"/>
         <v>1.1604740410711478E-2</v>
       </c>
@@ -10577,11 +10585,11 @@
       <c r="AH81" s="9"/>
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
-      <c r="AK81" s="9">
+      <c r="AK81" s="13">
         <f t="shared" si="9"/>
-        <v>2.4615999999999999E-4</v>
-      </c>
-      <c r="AL81" s="9">
+        <v>1.4212054226371828E-4</v>
+      </c>
+      <c r="AL81" s="16">
         <f t="shared" si="10"/>
         <v>1.1633607924170959E-2</v>
       </c>
@@ -10634,11 +10642,11 @@
       <c r="AH82" s="9"/>
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
-      <c r="AK82" s="9">
+      <c r="AK82" s="13">
         <f t="shared" si="9"/>
-        <v>2.7332000000000002E-4</v>
-      </c>
-      <c r="AL82" s="9">
+        <v>1.5780137557490852E-4</v>
+      </c>
+      <c r="AL82" s="16">
         <f t="shared" si="10"/>
         <v>1.1662475437630441E-2</v>
       </c>
@@ -10691,11 +10699,11 @@
       <c r="AH83" s="9"/>
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
-      <c r="AK83" s="9">
+      <c r="AK83" s="13">
         <f t="shared" si="9"/>
-        <v>2.9586E-4</v>
-      </c>
-      <c r="AL83" s="9">
+        <v>1.708148506424427E-4</v>
+      </c>
+      <c r="AL83" s="16">
         <f t="shared" si="10"/>
         <v>1.1691342951089919E-2</v>
       </c>
@@ -10748,11 +10756,11 @@
       <c r="AH84" s="9"/>
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
-      <c r="AK84" s="9">
+      <c r="AK84" s="13">
         <f t="shared" si="9"/>
-        <v>3.2148000000000007E-4</v>
-      </c>
-      <c r="AL84" s="9">
+        <v>1.8560656453908093E-4</v>
+      </c>
+      <c r="AL84" s="16">
         <f t="shared" si="10"/>
         <v>1.1720210464549402E-2</v>
       </c>
@@ -10805,11 +10813,11 @@
       <c r="AH85" s="9"/>
       <c r="AI85" s="9"/>
       <c r="AJ85" s="9"/>
-      <c r="AK85" s="9">
+      <c r="AK85" s="13">
         <f t="shared" si="9"/>
-        <v>3.4794000000000003E-4</v>
-      </c>
-      <c r="AL85" s="9">
+        <v>2.0088325266183843E-4</v>
+      </c>
+      <c r="AL85" s="16">
         <f t="shared" si="10"/>
         <v>1.1749077978008884E-2</v>
       </c>
@@ -10862,11 +10870,11 @@
       <c r="AH86" s="9"/>
       <c r="AI86" s="9"/>
       <c r="AJ86" s="9"/>
-      <c r="AK86" s="9">
+      <c r="AK86" s="13">
         <f t="shared" si="9"/>
-        <v>3.7958000000000002E-4</v>
-      </c>
-      <c r="AL86" s="9">
+        <v>2.1915061517899814E-4</v>
+      </c>
+      <c r="AL86" s="16">
         <f t="shared" si="10"/>
         <v>1.1777945491468367E-2</v>
       </c>
@@ -10919,11 +10927,11 @@
       <c r="AH87" s="9"/>
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9"/>
-      <c r="AK87" s="9">
+      <c r="AK87" s="13">
         <f t="shared" si="9"/>
-        <v>4.0702000000000002E-4</v>
-      </c>
-      <c r="AL87" s="9">
+        <v>2.3499310656556149E-4</v>
+      </c>
+      <c r="AL87" s="16">
         <f t="shared" si="10"/>
         <v>1.1806813004927847E-2</v>
       </c>
@@ -10976,11 +10984,11 @@
       <c r="AH88" s="9"/>
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9"/>
-      <c r="AK88" s="9">
+      <c r="AK88" s="13">
         <f t="shared" si="9"/>
-        <v>4.3166000000000005E-4</v>
-      </c>
-      <c r="AL88" s="9">
+        <v>2.4921901719839387E-4</v>
+      </c>
+      <c r="AL88" s="16">
         <f t="shared" si="10"/>
         <v>1.1835680518387329E-2</v>
       </c>

--- a/Spraw5/lab5.xlsx
+++ b/Spraw5/lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FDE9F5-E766-443A-A91D-8AC7C30022B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8E41C-20E3-46E3-8128-38585793329F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -124,8 +126,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -238,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -253,9 +257,14 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% — akcent 1" xfId="4" builtinId="32"/>
@@ -504,43 +513,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8532943640986986E-5</c:v>
+                    <c:v>2.4405178072757546E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7828282974939967E-5</c:v>
+                    <c:v>3.6645781405199815E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2273880047700086E-5</c:v>
+                    <c:v>4.2499982998976543E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8255228836504608E-5</c:v>
+                    <c:v>5.0376545143330691E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5933987416726633E-5</c:v>
+                    <c:v>6.0488347896217776E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.5067668675306504E-5</c:v>
+                    <c:v>7.2516071170704511E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.052881554656901E-5</c:v>
+                    <c:v>1.0604468029869854E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8149545762236387E-5</c:v>
+                    <c:v>1.2924860661584994E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.194075826737984E-4</c:v>
+                    <c:v>1.572423342370005E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4397961013050889E-4</c:v>
+                    <c:v>1.8960010304623916E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.8083765131557462E-4</c:v>
+                    <c:v>2.381367562600972E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -552,43 +561,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8532943640986986E-5</c:v>
+                    <c:v>2.4405178072757546E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7828282974939967E-5</c:v>
+                    <c:v>3.6645781405199815E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2273880047700086E-5</c:v>
+                    <c:v>4.2499982998976543E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8255228836504608E-5</c:v>
+                    <c:v>5.0376545143330691E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5933987416726633E-5</c:v>
+                    <c:v>6.0488347896217776E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.5067668675306504E-5</c:v>
+                    <c:v>7.2516071170704511E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.052881554656901E-5</c:v>
+                    <c:v>1.0604468029869854E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8149545762236387E-5</c:v>
+                    <c:v>1.2924860661584994E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.194075826737984E-4</c:v>
+                    <c:v>1.572423342370005E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4397961013050889E-4</c:v>
+                    <c:v>1.8960010304623916E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.8083765131557462E-4</c:v>
+                    <c:v>2.381367562600972E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -714,43 +723,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.000000000000001E-3</c:v>
+                    <c:v>1.0404624277456649E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0680979980008078E-2</c:v>
+                    <c:v>1.0693641618497111E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0969655114602891E-2</c:v>
+                    <c:v>1.0982658959537574E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1027390141521851E-2</c:v>
+                    <c:v>1.1040462427745664E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1085125168440815E-2</c:v>
+                    <c:v>1.1098265895953759E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.1142860195359778E-2</c:v>
+                    <c:v>1.1156069364161851E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.120059522227874E-2</c:v>
+                    <c:v>1.1213872832369942E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1258330249197703E-2</c:v>
+                    <c:v>1.1271676300578034E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1316065276116664E-2</c:v>
+                    <c:v>1.1329479768786127E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1373800303035629E-2</c:v>
+                    <c:v>1.1387283236994221E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1431535329954589E-2</c:v>
+                    <c:v>1.1445086705202312E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.1489270356873553E-2</c:v>
+                    <c:v>1.1502890173410406E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1547005383792516E-2</c:v>
+                    <c:v>1.1560693641618498E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -762,43 +771,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>6.000000000000001E-3</c:v>
+                    <c:v>1.0404624277456649E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0680979980008078E-2</c:v>
+                    <c:v>1.0693641618497111E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0969655114602891E-2</c:v>
+                    <c:v>1.0982658959537574E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1027390141521851E-2</c:v>
+                    <c:v>1.1040462427745664E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1085125168440815E-2</c:v>
+                    <c:v>1.1098265895953759E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.1142860195359778E-2</c:v>
+                    <c:v>1.1156069364161851E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.120059522227874E-2</c:v>
+                    <c:v>1.1213872832369942E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1258330249197703E-2</c:v>
+                    <c:v>1.1271676300578034E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1316065276116664E-2</c:v>
+                    <c:v>1.1329479768786127E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1373800303035629E-2</c:v>
+                    <c:v>1.1387283236994221E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1431535329954589E-2</c:v>
+                    <c:v>1.1445086705202312E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.1489270356873553E-2</c:v>
+                    <c:v>1.1502890173410406E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1547005383792516E-2</c:v>
+                    <c:v>1.1560693641618498E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -829,43 +838,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8532943640986986E-5</c:v>
+                    <c:v>2.4405178072757546E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7828282974939967E-5</c:v>
+                    <c:v>3.6645781405199815E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2273880047700086E-5</c:v>
+                    <c:v>4.2499982998976543E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8255228836504608E-5</c:v>
+                    <c:v>5.0376545143330691E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5933987416726633E-5</c:v>
+                    <c:v>6.0488347896217776E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.5067668675306504E-5</c:v>
+                    <c:v>7.2516071170704511E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.052881554656901E-5</c:v>
+                    <c:v>1.0604468029869854E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8149545762236387E-5</c:v>
+                    <c:v>1.2924860661584994E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.194075826737984E-4</c:v>
+                    <c:v>1.572423342370005E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4397961013050889E-4</c:v>
+                    <c:v>1.8960010304623916E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.8083765131557462E-4</c:v>
+                    <c:v>2.381367562600972E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -877,43 +886,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8532943640986986E-5</c:v>
+                    <c:v>2.4405178072757546E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7828282974939967E-5</c:v>
+                    <c:v>3.6645781405199815E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2273880047700086E-5</c:v>
+                    <c:v>4.2499982998976543E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8255228836504608E-5</c:v>
+                    <c:v>5.0376545143330691E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5933987416726633E-5</c:v>
+                    <c:v>6.0488347896217776E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.5067668675306504E-5</c:v>
+                    <c:v>7.2516071170704511E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.052881554656901E-5</c:v>
+                    <c:v>1.0604468029869854E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.8149545762236387E-5</c:v>
+                    <c:v>1.2924860661584994E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.194075826737984E-4</c:v>
+                    <c:v>1.572423342370005E-4</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4397961013050889E-4</c:v>
+                    <c:v>1.8960010304623916E-4</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.8083765131557462E-4</c:v>
+                    <c:v>2.381367562600972E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1454,85 +1463,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>1.2124355652982142E-2</c:v>
+                    <c:v>1.5966004346663818E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2413030787576952E-2</c:v>
+                    <c:v>1.6346147307298668E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.2701705922171767E-2</c:v>
+                    <c:v>1.672629026793352E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.299038105676658E-2</c:v>
+                    <c:v>1.7106433228568373E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3279056191361393E-2</c:v>
+                    <c:v>1.7486576189203226E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3567731325956206E-2</c:v>
+                    <c:v>1.7866719149838079E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.3856406460551019E-2</c:v>
+                    <c:v>1.8246862110472932E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3914141487469981E-2</c:v>
+                    <c:v>1.8322890702599903E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3971876514388944E-2</c:v>
+                    <c:v>1.8398919294726875E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.4029611541307907E-2</c:v>
+                    <c:v>1.8474947886853846E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.4087346568226867E-2</c:v>
+                    <c:v>1.8550976478980814E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4145081595145832E-2</c:v>
+                    <c:v>1.8627005071107788E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.4202816622064794E-2</c:v>
+                    <c:v>1.8703033663234756E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.4260551648983755E-2</c:v>
+                    <c:v>1.8779062255361727E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.431828667590272E-2</c:v>
+                    <c:v>1.8855090847488699E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.437602170282168E-2</c:v>
+                    <c:v>1.8931119439615667E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.4433756729740645E-2</c:v>
+                    <c:v>1.9007148031742641E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4462624243200125E-2</c:v>
+                    <c:v>1.9045162327806123E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.4491491756659607E-2</c:v>
+                    <c:v>1.9083176623869609E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.4520359270119087E-2</c:v>
+                    <c:v>1.9121190919933091E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.454922678357857E-2</c:v>
+                    <c:v>1.915920521599658E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.4578094297038052E-2</c:v>
+                    <c:v>1.9197219512060066E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.4606961810497534E-2</c:v>
+                    <c:v>1.9235233808123552E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.4635829323957012E-2</c:v>
+                    <c:v>1.9273248104187034E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.4664696837416495E-2</c:v>
+                    <c:v>1.9311262400250519E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.4693564350875977E-2</c:v>
+                    <c:v>1.9349276696314005E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.4722431864335458E-2</c:v>
+                    <c:v>1.9387290992377491E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1544,85 +1553,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>1.2124355652982142E-2</c:v>
+                    <c:v>1.5966004346663818E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2413030787576952E-2</c:v>
+                    <c:v>1.6346147307298668E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.2701705922171767E-2</c:v>
+                    <c:v>1.672629026793352E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.299038105676658E-2</c:v>
+                    <c:v>1.7106433228568373E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3279056191361393E-2</c:v>
+                    <c:v>1.7486576189203226E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3567731325956206E-2</c:v>
+                    <c:v>1.7866719149838079E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.3856406460551019E-2</c:v>
+                    <c:v>1.8246862110472932E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.3914141487469981E-2</c:v>
+                    <c:v>1.8322890702599903E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.3971876514388944E-2</c:v>
+                    <c:v>1.8398919294726875E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.4029611541307907E-2</c:v>
+                    <c:v>1.8474947886853846E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.4087346568226867E-2</c:v>
+                    <c:v>1.8550976478980814E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.4145081595145832E-2</c:v>
+                    <c:v>1.8627005071107788E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.4202816622064794E-2</c:v>
+                    <c:v>1.8703033663234756E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.4260551648983755E-2</c:v>
+                    <c:v>1.8779062255361727E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.431828667590272E-2</c:v>
+                    <c:v>1.8855090847488699E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.437602170282168E-2</c:v>
+                    <c:v>1.8931119439615667E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.4433756729740645E-2</c:v>
+                    <c:v>1.9007148031742641E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4462624243200125E-2</c:v>
+                    <c:v>1.9045162327806123E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.4491491756659607E-2</c:v>
+                    <c:v>1.9083176623869609E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.4520359270119087E-2</c:v>
+                    <c:v>1.9121190919933091E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.454922678357857E-2</c:v>
+                    <c:v>1.915920521599658E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.4578094297038052E-2</c:v>
+                    <c:v>1.9197219512060066E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.4606961810497534E-2</c:v>
+                    <c:v>1.9235233808123552E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.4635829323957012E-2</c:v>
+                    <c:v>1.9273248104187034E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.4664696837416495E-2</c:v>
+                    <c:v>1.9311262400250519E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.4693564350875977E-2</c:v>
+                    <c:v>1.9349276696314005E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.4722431864335458E-2</c:v>
+                    <c:v>1.9387290992377491E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1653,85 +1662,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>1.7320508075688774E-5</c:v>
+                    <c:v>2.280857763809117E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.047284054546413E-5</c:v>
+                    <c:v>2.6959738768223761E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.8151599125686151E-5</c:v>
+                    <c:v>3.7071541521110842E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.3589945323816749E-5</c:v>
+                    <c:v>5.7401587055862772E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9490465074934729E-5</c:v>
+                    <c:v>6.5171709171239165E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.3936062147694841E-5</c:v>
+                    <c:v>7.1025910765015887E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>5.9270778635006975E-5</c:v>
+                    <c:v>7.805095267754796E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.1556792363362224E-5</c:v>
+                    <c:v>9.4229837082167303E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7538141152166753E-5</c:v>
+                    <c:v>1.0210639922652146E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.570187395850806E-5</c:v>
+                    <c:v>1.128568421532751E-4</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.6128819820072694E-5</c:v>
+                    <c:v>1.2658760589140598E-4</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.0299928802342924E-4</c:v>
+                    <c:v>1.3563500835451546E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.1463866945029207E-4</c:v>
+                    <c:v>1.5096237252731272E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1997338593760422E-4</c:v>
+                    <c:v>1.5798741443984478E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.2223659899282757E-4</c:v>
+                    <c:v>1.6096773525122205E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.2999618661073615E-4</c:v>
+                    <c:v>1.7118597803308689E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.3411846753275006E-4</c:v>
+                    <c:v>1.7661441951095257E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.3783660326633127E-4</c:v>
+                    <c:v>1.8151066084392951E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.4333297782901649E-4</c:v>
+                    <c:v>1.8874858281441709E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.4163556803759901E-4</c:v>
+                    <c:v>1.865133422058842E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.5755888846184888E-4</c:v>
+                    <c:v>2.0748202791450265E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.603070757431915E-4</c:v>
+                    <c:v>2.1110098889974647E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.6814749239878662E-4</c:v>
+                    <c:v>2.2142567171058906E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1743,85 +1752,85 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="27"/>
                   <c:pt idx="0">
-                    <c:v>1.7320508075688774E-5</c:v>
+                    <c:v>2.280857763809117E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7401337113375323E-5</c:v>
+                    <c:v>2.2915017667068925E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.047284054546413E-5</c:v>
+                    <c:v>2.6959738768223761E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.8151599125686151E-5</c:v>
+                    <c:v>3.7071541521110842E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.3589945323816749E-5</c:v>
+                    <c:v>5.7401587055862772E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9490465074934729E-5</c:v>
+                    <c:v>6.5171709171239165E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.3936062147694841E-5</c:v>
+                    <c:v>7.1025910765015887E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>5.9270778635006975E-5</c:v>
+                    <c:v>7.805095267754796E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.6464562989109724E-5</c:v>
+                    <c:v>8.7524115256568515E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.1556792363362224E-5</c:v>
+                    <c:v>9.4229837082167303E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.7538141152166753E-5</c:v>
+                    <c:v>1.0210639922652146E-4</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>8.570187395850806E-5</c:v>
+                    <c:v>1.128568421532751E-4</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>9.6128819820072694E-5</c:v>
+                    <c:v>1.2658760589140598E-4</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.0299928802342924E-4</c:v>
+                    <c:v>1.3563500835451546E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.1463866945029207E-4</c:v>
+                    <c:v>1.5096237252731272E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1997338593760422E-4</c:v>
+                    <c:v>1.5798741443984478E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.2223659899282757E-4</c:v>
+                    <c:v>1.6096773525122205E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.2999618661073615E-4</c:v>
+                    <c:v>1.7118597803308689E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.3411846753275006E-4</c:v>
+                    <c:v>1.7661441951095257E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.3783660326633127E-4</c:v>
+                    <c:v>1.8151066084392951E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.4333297782901649E-4</c:v>
+                    <c:v>1.8874858281441709E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.4163556803759901E-4</c:v>
+                    <c:v>1.865133422058842E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.5755888846184888E-4</c:v>
+                    <c:v>2.0748202791450265E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.603070757431915E-4</c:v>
+                    <c:v>2.1110098889974647E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.6814749239878662E-4</c:v>
+                    <c:v>2.2142567171058906E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2710,100 +2719,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.0392304845413265E-2</c:v>
+                    <c:v>1.3685146582854701E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0680979980008078E-2</c:v>
+                    <c:v>1.4065289543489554E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0738715006927038E-2</c:v>
+                    <c:v>1.4141318135616521E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.0796450033846003E-2</c:v>
+                    <c:v>1.4217346727743494E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.0854185060764965E-2</c:v>
+                    <c:v>1.4293375319870464E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0911920087683926E-2</c:v>
+                    <c:v>1.4369403911997435E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0969655114602891E-2</c:v>
+                    <c:v>1.4445432504124407E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1027390141521851E-2</c:v>
+                    <c:v>1.4521461096251374E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1085125168440815E-2</c:v>
+                    <c:v>1.4597489688378347E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1142860195359778E-2</c:v>
+                    <c:v>1.4673518280505317E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.120059522227874E-2</c:v>
+                    <c:v>1.4749546872632288E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.1258330249197703E-2</c:v>
+                    <c:v>1.4825575464759258E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1287197762657183E-2</c:v>
+                    <c:v>1.4863589760822742E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.1316065276116664E-2</c:v>
+                    <c:v>1.4901604056886229E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.1344932789576148E-2</c:v>
+                    <c:v>1.4939618352949715E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1373800303035629E-2</c:v>
+                    <c:v>1.49776326490132E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.1402667816495109E-2</c:v>
+                    <c:v>1.5015646945076684E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1431535329954589E-2</c:v>
+                    <c:v>1.5053661241140168E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.1460402843414071E-2</c:v>
+                    <c:v>1.5091675537203654E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.1489270356873553E-2</c:v>
+                    <c:v>1.5129689833267139E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.1518137870333036E-2</c:v>
+                    <c:v>1.5167704129330628E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.1547005383792516E-2</c:v>
+                    <c:v>1.5205718425394111E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.1575872897251996E-2</c:v>
+                    <c:v>1.5243732721457594E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.1604740410711478E-2</c:v>
+                    <c:v>1.5281747017521082E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.1633607924170959E-2</c:v>
+                    <c:v>1.5319761313584567E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.1662475437630441E-2</c:v>
+                    <c:v>1.5357775609648053E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.1691342951089919E-2</c:v>
+                    <c:v>1.5395789905711535E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.1720210464549402E-2</c:v>
+                    <c:v>1.5433804201775021E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>1.1749077978008884E-2</c:v>
+                    <c:v>1.5471818497838508E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.1777945491468367E-2</c:v>
+                    <c:v>1.5509832793901994E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>1.1806813004927847E-2</c:v>
+                    <c:v>1.5547847089965478E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>1.1835680518387329E-2</c:v>
+                    <c:v>1.5585861386028963E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2815,100 +2824,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.0392304845413265E-2</c:v>
+                    <c:v>1.3685146582854701E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0680979980008078E-2</c:v>
+                    <c:v>1.4065289543489554E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0738715006927038E-2</c:v>
+                    <c:v>1.4141318135616521E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.0796450033846003E-2</c:v>
+                    <c:v>1.4217346727743494E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.0854185060764965E-2</c:v>
+                    <c:v>1.4293375319870464E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0911920087683926E-2</c:v>
+                    <c:v>1.4369403911997435E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0969655114602891E-2</c:v>
+                    <c:v>1.4445432504124407E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1027390141521851E-2</c:v>
+                    <c:v>1.4521461096251374E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1085125168440815E-2</c:v>
+                    <c:v>1.4597489688378347E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1142860195359778E-2</c:v>
+                    <c:v>1.4673518280505317E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.120059522227874E-2</c:v>
+                    <c:v>1.4749546872632288E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.1258330249197703E-2</c:v>
+                    <c:v>1.4825575464759258E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1287197762657183E-2</c:v>
+                    <c:v>1.4863589760822742E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.1316065276116664E-2</c:v>
+                    <c:v>1.4901604056886229E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.1344932789576148E-2</c:v>
+                    <c:v>1.4939618352949715E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1373800303035629E-2</c:v>
+                    <c:v>1.49776326490132E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.1402667816495109E-2</c:v>
+                    <c:v>1.5015646945076684E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1431535329954589E-2</c:v>
+                    <c:v>1.5053661241140168E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.1460402843414071E-2</c:v>
+                    <c:v>1.5091675537203654E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.1489270356873553E-2</c:v>
+                    <c:v>1.5129689833267139E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.1518137870333036E-2</c:v>
+                    <c:v>1.5167704129330628E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.1547005383792516E-2</c:v>
+                    <c:v>1.5205718425394111E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.1575872897251996E-2</c:v>
+                    <c:v>1.5243732721457594E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.1604740410711478E-2</c:v>
+                    <c:v>1.5281747017521082E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.1633607924170959E-2</c:v>
+                    <c:v>1.5319761313584567E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.1662475437630441E-2</c:v>
+                    <c:v>1.5357775609648053E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.1691342951089919E-2</c:v>
+                    <c:v>1.5395789905711535E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.1720210464549402E-2</c:v>
+                    <c:v>1.5433804201775021E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>1.1749077978008884E-2</c:v>
+                    <c:v>1.5471818497838508E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.1777945491468367E-2</c:v>
+                    <c:v>1.5509832793901994E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>1.1806813004927847E-2</c:v>
+                    <c:v>1.5547847089965478E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>1.1835680518387329E-2</c:v>
+                    <c:v>1.5585861386028963E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2939,100 +2948,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.7320508075688774E-5</c:v>
+                    <c:v>2.280857763809117E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7482166151061872E-5</c:v>
+                    <c:v>2.3021457696046687E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7886311339494609E-5</c:v>
+                    <c:v>2.3553657840935483E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8209627490240799E-5</c:v>
+                    <c:v>2.3979417956846516E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8694601716360085E-5</c:v>
+                    <c:v>2.4618058130713066E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9422063055539012E-5</c:v>
+                    <c:v>2.5576018391512895E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.0634498620837229E-5</c:v>
+                    <c:v>2.7172618826179278E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.2412737449941273E-5</c:v>
+                    <c:v>2.9514299463689973E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.5241753768970439E-5</c:v>
+                    <c:v>3.3239700477911526E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.9687350841730561E-5</c:v>
+                    <c:v>3.9093902071688261E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5992015781281274E-5</c:v>
+                    <c:v>4.7396224331953443E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9790980552549012E-5</c:v>
+                    <c:v>5.2398905693908111E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.4559893776055328E-5</c:v>
+                    <c:v>5.8678867403595886E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>4.9894610263367469E-5</c:v>
+                    <c:v>6.570390931612796E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>5.6037617127545076E-5</c:v>
+                    <c:v>7.3793351518437611E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>6.2827256293215071E-5</c:v>
+                    <c:v>8.2734313952569357E-5</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>7.0344356798064011E-5</c:v>
+                    <c:v>9.2633236647500931E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>7.818477345365912E-5</c:v>
+                    <c:v>1.0295791945834353E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.7318454712238992E-5</c:v>
+                    <c:v>1.1498564273283027E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>9.7179597309997822E-5</c:v>
+                    <c:v>1.2797132626811685E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.0687908183238351E-4</c:v>
+                    <c:v>1.4074412974544786E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.180334890331271E-4</c:v>
+                    <c:v>1.554328537443786E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.3096613506297471E-4</c:v>
+                    <c:v>1.7246325838082E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.4212054226371828E-4</c:v>
+                    <c:v>1.8715198237975069E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.5780137557490852E-4</c:v>
+                    <c:v>2.0780134800143593E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.708148506424427E-4</c:v>
+                    <c:v>2.2493819266685509E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.8560656453908093E-4</c:v>
+                    <c:v>2.4441671796978498E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>2.0088325266183843E-4</c:v>
+                    <c:v>2.6453388344658136E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>2.1915061517899814E-4</c:v>
+                    <c:v>2.8858932999555482E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.3499310656556149E-4</c:v>
+                    <c:v>3.0945157567519553E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4921901719839387E-4</c:v>
+                    <c:v>3.2818502077528112E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3044,100 +3053,100 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="32"/>
                   <c:pt idx="0">
-                    <c:v>1.7320508075688774E-5</c:v>
+                    <c:v>2.280857763809117E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7482166151061872E-5</c:v>
+                    <c:v>2.3021457696046687E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7643824226434964E-5</c:v>
+                    <c:v>2.3234337754002204E-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7886311339494609E-5</c:v>
+                    <c:v>2.3553657840935483E-5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8209627490240799E-5</c:v>
+                    <c:v>2.3979417956846516E-5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8694601716360085E-5</c:v>
+                    <c:v>2.4618058130713066E-5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.9422063055539012E-5</c:v>
+                    <c:v>2.5576018391512895E-5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.0634498620837229E-5</c:v>
+                    <c:v>2.7172618826179278E-5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.2412737449941273E-5</c:v>
+                    <c:v>2.9514299463689973E-5</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.5241753768970439E-5</c:v>
+                    <c:v>3.3239700477911526E-5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.9687350841730561E-5</c:v>
+                    <c:v>3.9093902071688261E-5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5992015781281274E-5</c:v>
+                    <c:v>4.7396224331953443E-5</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.9790980552549012E-5</c:v>
+                    <c:v>5.2398905693908111E-5</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.4559893776055328E-5</c:v>
+                    <c:v>5.8678867403595886E-5</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>4.9894610263367469E-5</c:v>
+                    <c:v>6.570390931612796E-5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>5.6037617127545076E-5</c:v>
+                    <c:v>7.3793351518437611E-5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>6.2827256293215071E-5</c:v>
+                    <c:v>8.2734313952569357E-5</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>7.0344356798064011E-5</c:v>
+                    <c:v>9.2633236647500931E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>7.818477345365912E-5</c:v>
+                    <c:v>1.0295791945834353E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.7318454712238992E-5</c:v>
+                    <c:v>1.1498564273283027E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>9.7179597309997822E-5</c:v>
+                    <c:v>1.2797132626811685E-4</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.0687908183238351E-4</c:v>
+                    <c:v>1.4074412974544786E-4</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.180334890331271E-4</c:v>
+                    <c:v>1.554328537443786E-4</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.3096613506297471E-4</c:v>
+                    <c:v>1.7246325838082E-4</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.4212054226371828E-4</c:v>
+                    <c:v>1.8715198237975069E-4</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.5780137557490852E-4</c:v>
+                    <c:v>2.0780134800143593E-4</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.708148506424427E-4</c:v>
+                    <c:v>2.2493819266685509E-4</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.8560656453908093E-4</c:v>
+                    <c:v>2.4441671796978498E-4</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>2.0088325266183843E-4</c:v>
+                    <c:v>2.6453388344658136E-4</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>2.1915061517899814E-4</c:v>
+                    <c:v>2.8858932999555482E-4</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.3499310656556149E-4</c:v>
+                    <c:v>3.0945157567519553E-4</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4921901719839387E-4</c:v>
+                    <c:v>3.2818502077528112E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5947,8 +5956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD54" sqref="BD54"/>
+    <sheetView tabSelected="1" topLeftCell="Q50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5969,8 +5978,8 @@
     <col min="17" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6024,10 +6033,10 @@
       <c r="AJ1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6078,13 +6087,13 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="11">
-        <f t="shared" ref="AK2:AK13" si="0">SQRT(POWER((ABS(0.014*G4+3*0.00001)),2)/(3))</f>
-        <v>1.7401337113375323E-5</v>
+      <c r="AK2" s="18">
+        <f>SQRT(POWER((ABS(0.014*G4+3*0.00001)),2)/(1.73))</f>
+        <v>2.2915017667068925E-5</v>
       </c>
       <c r="AL2" s="14">
-        <f>(ABS(0.005*H4+1*0.01))/(3)</f>
-        <v>6.000000000000001E-3</v>
+        <f>(ABS(0.005*H4+1*0.01))/(1.73)</f>
+        <v>1.0404624277456649E-2</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -6137,13 +6146,13 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8532943640986986E-5</v>
+      <c r="AK3" s="18">
+        <f t="shared" ref="AK3:AK14" si="0">SQRT(POWER((ABS(0.014*G5+3*0.00001)),2)/(1.73))</f>
+        <v>2.4405178072757546E-5</v>
       </c>
       <c r="AL3" s="14">
-        <f t="shared" ref="AL3:AL14" si="1">SQRT(POWER((ABS(0.005*H5+1*0.01)),2)/(3))</f>
-        <v>1.0680979980008078E-2</v>
+        <f t="shared" ref="AL3:AL14" si="1">(ABS(0.005*H5+1*0.01))/(1.73)</f>
+        <v>1.0693641618497111E-2</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -6194,13 +6203,13 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="11">
+      <c r="AK4" s="18">
         <f t="shared" si="0"/>
-        <v>2.7828282974939967E-5</v>
+        <v>3.6645781405199815E-5</v>
       </c>
       <c r="AL4" s="14">
         <f t="shared" si="1"/>
-        <v>1.0969655114602891E-2</v>
+        <v>1.0982658959537574E-2</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -6251,13 +6260,13 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="11">
+      <c r="AK5" s="18">
         <f t="shared" si="0"/>
-        <v>3.2273880047700086E-5</v>
+        <v>4.2499982998976543E-5</v>
       </c>
       <c r="AL5" s="14">
         <f t="shared" si="1"/>
-        <v>1.1027390141521851E-2</v>
+        <v>1.1040462427745664E-2</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
@@ -6308,13 +6317,13 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="11">
+      <c r="AK6" s="18">
         <f t="shared" si="0"/>
-        <v>3.8255228836504608E-5</v>
+        <v>5.0376545143330691E-5</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="1"/>
-        <v>1.1085125168440815E-2</v>
+        <v>1.1098265895953759E-2</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -6365,13 +6374,13 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="11">
+      <c r="AK7" s="18">
         <f t="shared" si="0"/>
-        <v>4.5933987416726633E-5</v>
+        <v>6.0488347896217776E-5</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="1"/>
-        <v>1.1142860195359778E-2</v>
+        <v>1.1156069364161851E-2</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -6422,13 +6431,13 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
-      <c r="AK8" s="11">
+      <c r="AK8" s="18">
         <f t="shared" si="0"/>
-        <v>5.5067668675306504E-5</v>
+        <v>7.2516071170704511E-5</v>
       </c>
       <c r="AL8" s="14">
         <f t="shared" si="1"/>
-        <v>1.120059522227874E-2</v>
+        <v>1.1213872832369942E-2</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -6483,13 +6492,13 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="11">
+      <c r="AK9" s="18">
         <f t="shared" si="0"/>
-        <v>6.6464562989109724E-5</v>
+        <v>8.7524115256568515E-5</v>
       </c>
       <c r="AL9" s="14">
         <f t="shared" si="1"/>
-        <v>1.1258330249197703E-2</v>
+        <v>1.1271676300578034E-2</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -6563,11 +6572,11 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="11">
         <f t="shared" si="0"/>
-        <v>8.052881554656901E-5</v>
+        <v>1.0604468029869854E-4</v>
       </c>
       <c r="AL10" s="14">
         <f t="shared" si="1"/>
-        <v>1.1316065276116664E-2</v>
+        <v>1.1329479768786127E-2</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
@@ -6636,11 +6645,11 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="11">
         <f t="shared" si="0"/>
-        <v>9.8149545762236387E-5</v>
+        <v>1.2924860661584994E-4</v>
       </c>
       <c r="AL11" s="14">
         <f t="shared" si="1"/>
-        <v>1.1373800303035629E-2</v>
+        <v>1.1387283236994221E-2</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -6698,11 +6707,11 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="11">
         <f t="shared" si="0"/>
-        <v>1.194075826737984E-4</v>
+        <v>1.572423342370005E-4</v>
       </c>
       <c r="AL12" s="14">
         <f t="shared" si="1"/>
-        <v>1.1431535329954589E-2</v>
+        <v>1.1445086705202312E-2</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -6762,11 +6771,11 @@
       <c r="AJ13" s="7"/>
       <c r="AK13" s="11">
         <f t="shared" si="0"/>
-        <v>1.4397961013050889E-4</v>
+        <v>1.8960010304623916E-4</v>
       </c>
       <c r="AL13" s="14">
         <f t="shared" si="1"/>
-        <v>1.1489270356873553E-2</v>
+        <v>1.1502890173410406E-2</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -6828,12 +6837,12 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="11">
-        <f>SQRT(POWER((ABS(0.014*G16+3*0.00001)),2)/(3))</f>
-        <v>1.8083765131557462E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.381367562600972E-4</v>
       </c>
       <c r="AL14" s="14">
         <f t="shared" si="1"/>
-        <v>1.1547005383792516E-2</v>
+        <v>1.1560693641618498E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -6894,8 +6903,8 @@
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="14"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -6950,8 +6959,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="14"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -6990,8 +6999,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="14"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
@@ -7030,8 +7039,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="14"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -7070,8 +7079,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="14"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -7110,8 +7119,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="14"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -7150,8 +7159,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="14"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -7190,8 +7199,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="14"/>
       <c r="BC22" t="s">
         <v>25</v>
       </c>
@@ -7233,8 +7242,8 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="14"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -7273,8 +7282,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="14"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
@@ -7315,10 +7324,10 @@
       <c r="AJ25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AK25" s="8" t="s">
+      <c r="AK25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AL25" s="8" t="s">
+      <c r="AL25" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7363,13 +7372,13 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="12">
-        <f>SQRT(POWER((ABS(0.014*G29+3*0.00001)),2)/(3))</f>
-        <v>1.7320508075688774E-5</v>
+      <c r="AK26" s="19">
+        <f>SQRT(POWER((ABS(0.014*G29+3*0.00001)),2)/(1.73))</f>
+        <v>2.280857763809117E-5</v>
       </c>
       <c r="AL26" s="15">
-        <f>SQRT(POWER((ABS(0.005*H29+1*0.01)),2)/(3))</f>
-        <v>1.2124355652982142E-2</v>
+        <f>SQRT(POWER((ABS(0.005*H29+1*0.01)),2)/(1.73))</f>
+        <v>1.5966004346663818E-2</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.3">
@@ -7414,13 +7423,13 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="12">
-        <f t="shared" ref="AK27:AK52" si="5">SQRT(POWER((ABS(0.014*G30+3*0.00001)),2)/(3))</f>
-        <v>1.7401337113375323E-5</v>
+      <c r="AK27" s="19">
+        <f t="shared" ref="AK27:AK52" si="5">SQRT(POWER((ABS(0.014*G30+3*0.00001)),2)/(1.73))</f>
+        <v>2.2915017667068925E-5</v>
       </c>
       <c r="AL27" s="15">
-        <f t="shared" ref="AL27:AL52" si="6">SQRT(POWER((ABS(0.005*H30+1*0.01)),2)/(3))</f>
-        <v>1.2413030787576952E-2</v>
+        <f t="shared" ref="AL27:AL52" si="6">SQRT(POWER((ABS(0.005*H30+1*0.01)),2)/(1.73))</f>
+        <v>1.6346147307298668E-2</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.3">
@@ -7468,13 +7477,13 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="12">
+      <c r="AK28" s="19">
         <f t="shared" si="5"/>
-        <v>1.7643824226434964E-5</v>
+        <v>2.3234337754002204E-5</v>
       </c>
       <c r="AL28" s="15">
         <f t="shared" si="6"/>
-        <v>1.2701705922171767E-2</v>
+        <v>1.672629026793352E-2</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.3">
@@ -7525,13 +7534,13 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="12">
+      <c r="AK29" s="19">
         <f t="shared" si="5"/>
-        <v>1.7643824226434964E-5</v>
+        <v>2.3234337754002204E-5</v>
       </c>
       <c r="AL29" s="15">
         <f t="shared" si="6"/>
-        <v>1.299038105676658E-2</v>
+        <v>1.7106433228568373E-2</v>
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.3">
@@ -7582,13 +7591,13 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="12">
+      <c r="AK30" s="19">
         <f t="shared" si="5"/>
-        <v>2.047284054546413E-5</v>
+        <v>2.6959738768223761E-5</v>
       </c>
       <c r="AL30" s="15">
         <f t="shared" si="6"/>
-        <v>1.3279056191361393E-2</v>
+        <v>1.7486576189203226E-2</v>
       </c>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.3">
@@ -7639,13 +7648,13 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
-      <c r="AK31" s="12">
+      <c r="AK31" s="19">
         <f t="shared" si="5"/>
-        <v>2.8151599125686151E-5</v>
+        <v>3.7071541521110842E-5</v>
       </c>
       <c r="AL31" s="15">
         <f t="shared" si="6"/>
-        <v>1.3567731325956206E-2</v>
+        <v>1.7866719149838079E-2</v>
       </c>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.3">
@@ -7696,13 +7705,13 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="12">
+      <c r="AK32" s="19">
         <f t="shared" si="5"/>
-        <v>4.3589945323816749E-5</v>
+        <v>5.7401587055862772E-5</v>
       </c>
       <c r="AL32" s="15">
         <f t="shared" si="6"/>
-        <v>1.3856406460551019E-2</v>
+        <v>1.8246862110472932E-2</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
@@ -7753,13 +7762,13 @@
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="12">
+      <c r="AK33" s="19">
         <f t="shared" si="5"/>
-        <v>4.9490465074934729E-5</v>
+        <v>6.5171709171239165E-5</v>
       </c>
       <c r="AL33" s="15">
         <f t="shared" si="6"/>
-        <v>1.3914141487469981E-2</v>
+        <v>1.8322890702599903E-2</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
@@ -7810,13 +7819,13 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="12">
+      <c r="AK34" s="19">
         <f t="shared" si="5"/>
-        <v>5.3936062147694841E-5</v>
+        <v>7.1025910765015887E-5</v>
       </c>
       <c r="AL34" s="15">
         <f t="shared" si="6"/>
-        <v>1.3971876514388944E-2</v>
+        <v>1.8398919294726875E-2</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
@@ -7871,13 +7880,13 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
-      <c r="AK35" s="12">
+      <c r="AK35" s="19">
         <f t="shared" si="5"/>
-        <v>5.9270778635006975E-5</v>
+        <v>7.805095267754796E-5</v>
       </c>
       <c r="AL35" s="15">
         <f t="shared" si="6"/>
-        <v>1.4029611541307907E-2</v>
+        <v>1.8474947886853846E-2</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
@@ -7942,13 +7951,13 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="12">
+      <c r="AK36" s="19">
         <f t="shared" si="5"/>
-        <v>6.6464562989109724E-5</v>
+        <v>8.7524115256568515E-5</v>
       </c>
       <c r="AL36" s="15">
         <f t="shared" si="6"/>
-        <v>1.4087346568226867E-2</v>
+        <v>1.8550976478980814E-2</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
@@ -8008,13 +8017,13 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
-      <c r="AK37" s="12">
+      <c r="AK37" s="19">
         <f t="shared" si="5"/>
-        <v>7.1556792363362224E-5</v>
+        <v>9.4229837082167303E-5</v>
       </c>
       <c r="AL37" s="15">
         <f t="shared" si="6"/>
-        <v>1.4145081595145832E-2</v>
+        <v>1.8627005071107788E-2</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
@@ -8067,11 +8076,11 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="12">
         <f t="shared" si="5"/>
-        <v>7.7538141152166753E-5</v>
+        <v>1.0210639922652146E-4</v>
       </c>
       <c r="AL38" s="15">
         <f t="shared" si="6"/>
-        <v>1.4202816622064794E-2</v>
+        <v>1.8703033663234756E-2</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
@@ -8126,11 +8135,11 @@
       <c r="AJ39" s="8"/>
       <c r="AK39" s="12">
         <f t="shared" si="5"/>
-        <v>8.570187395850806E-5</v>
+        <v>1.128568421532751E-4</v>
       </c>
       <c r="AL39" s="15">
         <f t="shared" si="6"/>
-        <v>1.4260551648983755E-2</v>
+        <v>1.8779062255361727E-2</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
@@ -8188,11 +8197,11 @@
       <c r="AJ40" s="8"/>
       <c r="AK40" s="12">
         <f t="shared" si="5"/>
-        <v>9.6128819820072694E-5</v>
+        <v>1.2658760589140598E-4</v>
       </c>
       <c r="AL40" s="15">
         <f t="shared" si="6"/>
-        <v>1.431828667590272E-2</v>
+        <v>1.8855090847488699E-2</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
@@ -8250,11 +8259,11 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="12">
         <f t="shared" si="5"/>
-        <v>1.0299928802342924E-4</v>
+        <v>1.3563500835451546E-4</v>
       </c>
       <c r="AL41" s="15">
         <f t="shared" si="6"/>
-        <v>1.437602170282168E-2</v>
+        <v>1.8931119439615667E-2</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
@@ -8314,11 +8323,11 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="12">
         <f t="shared" si="5"/>
-        <v>1.1463866945029207E-4</v>
+        <v>1.5096237252731272E-4</v>
       </c>
       <c r="AL42" s="15">
         <f t="shared" si="6"/>
-        <v>1.4433756729740645E-2</v>
+        <v>1.9007148031742641E-2</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
@@ -8376,11 +8385,11 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="12">
         <f t="shared" si="5"/>
-        <v>1.1997338593760422E-4</v>
+        <v>1.5798741443984478E-4</v>
       </c>
       <c r="AL43" s="15">
         <f t="shared" si="6"/>
-        <v>1.4462624243200125E-2</v>
+        <v>1.9045162327806123E-2</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
@@ -8438,11 +8447,11 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12">
         <f t="shared" si="5"/>
-        <v>1.2223659899282757E-4</v>
+        <v>1.6096773525122205E-4</v>
       </c>
       <c r="AL44" s="15">
         <f t="shared" si="6"/>
-        <v>1.4491491756659607E-2</v>
+        <v>1.9083176623869609E-2</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
@@ -8500,11 +8509,11 @@
       <c r="AJ45" s="8"/>
       <c r="AK45" s="12">
         <f t="shared" si="5"/>
-        <v>1.2999618661073615E-4</v>
+        <v>1.7118597803308689E-4</v>
       </c>
       <c r="AL45" s="15">
         <f t="shared" si="6"/>
-        <v>1.4520359270119087E-2</v>
+        <v>1.9121190919933091E-2</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
@@ -8562,11 +8571,11 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="12">
         <f t="shared" si="5"/>
-        <v>1.3411846753275006E-4</v>
+        <v>1.7661441951095257E-4</v>
       </c>
       <c r="AL46" s="15">
         <f t="shared" si="6"/>
-        <v>1.454922678357857E-2</v>
+        <v>1.915920521599658E-2</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
@@ -8624,11 +8633,11 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="12">
         <f t="shared" si="5"/>
-        <v>1.3783660326633127E-4</v>
+        <v>1.8151066084392951E-4</v>
       </c>
       <c r="AL47" s="15">
         <f t="shared" si="6"/>
-        <v>1.4578094297038052E-2</v>
+        <v>1.9197219512060066E-2</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
@@ -8686,11 +8695,11 @@
       <c r="AJ48" s="8"/>
       <c r="AK48" s="12">
         <f t="shared" si="5"/>
-        <v>1.4333297782901649E-4</v>
+        <v>1.8874858281441709E-4</v>
       </c>
       <c r="AL48" s="15">
         <f t="shared" si="6"/>
-        <v>1.4606961810497534E-2</v>
+        <v>1.9235233808123552E-2</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
@@ -8748,11 +8757,11 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="12">
         <f t="shared" si="5"/>
-        <v>1.4163556803759901E-4</v>
+        <v>1.865133422058842E-4</v>
       </c>
       <c r="AL49" s="15">
         <f t="shared" si="6"/>
-        <v>1.4635829323957012E-2</v>
+        <v>1.9273248104187034E-2</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
@@ -8810,11 +8819,11 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="12">
         <f t="shared" si="5"/>
-        <v>1.5755888846184888E-4</v>
+        <v>2.0748202791450265E-4</v>
       </c>
       <c r="AL50" s="15">
         <f t="shared" si="6"/>
-        <v>1.4664696837416495E-2</v>
+        <v>1.9311262400250519E-2</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
@@ -8872,11 +8881,11 @@
       <c r="AJ51" s="8"/>
       <c r="AK51" s="12">
         <f t="shared" si="5"/>
-        <v>1.603070757431915E-4</v>
+        <v>2.1110098889974647E-4</v>
       </c>
       <c r="AL51" s="15">
         <f t="shared" si="6"/>
-        <v>1.4693564350875977E-2</v>
+        <v>1.9349276696314005E-2</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
@@ -8934,11 +8943,11 @@
       <c r="AJ52" s="8"/>
       <c r="AK52" s="12">
         <f t="shared" si="5"/>
-        <v>1.6814749239878662E-4</v>
+        <v>2.2142567171058906E-4</v>
       </c>
       <c r="AL52" s="15">
         <f t="shared" si="6"/>
-        <v>1.4722431864335458E-2</v>
+        <v>1.9387290992377491E-2</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
@@ -8994,8 +9003,8 @@
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
       <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="15"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -9050,8 +9059,8 @@
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="8"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="15"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -9106,8 +9115,8 @@
       <c r="AH55" s="8"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="15"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
@@ -9148,10 +9157,10 @@
       <c r="AJ56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AK56" s="9" t="s">
+      <c r="AK56" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AL56" s="9" t="s">
+      <c r="AL56" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9192,13 +9201,13 @@
       <c r="AH57" s="9"/>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
-      <c r="AK57" s="13">
-        <f>SQRT(POWER((ABS(0.014*G61+3*0.00001)),2)/(3))</f>
-        <v>1.7320508075688774E-5</v>
+      <c r="AK57" s="20">
+        <f>SQRT(POWER((ABS(0.014*G61+3*0.00001)),2)/(1.73))</f>
+        <v>2.280857763809117E-5</v>
       </c>
       <c r="AL57" s="16">
-        <f>SQRT(POWER((ABS(0.005*H61+1*0.01)),2)/(3))</f>
-        <v>1.0392304845413265E-2</v>
+        <f>SQRT(POWER((ABS(0.005*H61+1*0.01)),2)/(1.73))</f>
+        <v>1.3685146582854701E-2</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
@@ -9242,13 +9251,13 @@
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
-      <c r="AK58" s="13">
-        <f t="shared" ref="AK58:AK88" si="9">SQRT(POWER((ABS(0.014*G62+3*0.00001)),2)/(3))</f>
-        <v>1.7482166151061872E-5</v>
+      <c r="AK58" s="20">
+        <f t="shared" ref="AK58:AK88" si="9">SQRT(POWER((ABS(0.014*G62+3*0.00001)),2)/(1.73))</f>
+        <v>2.3021457696046687E-5</v>
       </c>
       <c r="AL58" s="16">
-        <f t="shared" ref="AL58:AL88" si="10">SQRT(POWER((ABS(0.005*H62+1*0.01)),2)/(3))</f>
-        <v>1.0680979980008078E-2</v>
+        <f t="shared" ref="AL58:AL88" si="10">SQRT(POWER((ABS(0.005*H62+1*0.01)),2)/(1.73))</f>
+        <v>1.4065289543489554E-2</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
@@ -9293,13 +9302,13 @@
       <c r="AH59" s="9"/>
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
-      <c r="AK59" s="13">
+      <c r="AK59" s="20">
         <f t="shared" si="9"/>
-        <v>1.7643824226434964E-5</v>
+        <v>2.3234337754002204E-5</v>
       </c>
       <c r="AL59" s="16">
         <f t="shared" si="10"/>
-        <v>1.0738715006927038E-2</v>
+        <v>1.4141318135616521E-2</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
@@ -9347,13 +9356,13 @@
       <c r="AH60" s="9"/>
       <c r="AI60" s="9"/>
       <c r="AJ60" s="9"/>
-      <c r="AK60" s="13">
+      <c r="AK60" s="20">
         <f t="shared" si="9"/>
-        <v>1.7886311339494609E-5</v>
+        <v>2.3553657840935483E-5</v>
       </c>
       <c r="AL60" s="16">
         <f t="shared" si="10"/>
-        <v>1.0796450033846003E-2</v>
+        <v>1.4217346727743494E-2</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
@@ -9404,13 +9413,13 @@
       <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
-      <c r="AK61" s="13">
+      <c r="AK61" s="20">
         <f t="shared" si="9"/>
-        <v>1.8209627490240799E-5</v>
+        <v>2.3979417956846516E-5</v>
       </c>
       <c r="AL61" s="16">
         <f t="shared" si="10"/>
-        <v>1.0854185060764965E-2</v>
+        <v>1.4293375319870464E-2</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
@@ -9461,13 +9470,13 @@
       <c r="AH62" s="9"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
-      <c r="AK62" s="13">
+      <c r="AK62" s="20">
         <f t="shared" si="9"/>
-        <v>1.8694601716360085E-5</v>
+        <v>2.4618058130713066E-5</v>
       </c>
       <c r="AL62" s="16">
         <f t="shared" si="10"/>
-        <v>1.0911920087683926E-2</v>
+        <v>1.4369403911997435E-2</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
@@ -9518,13 +9527,13 @@
       <c r="AH63" s="9"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
-      <c r="AK63" s="13">
+      <c r="AK63" s="20">
         <f t="shared" si="9"/>
-        <v>1.9422063055539012E-5</v>
+        <v>2.5576018391512895E-5</v>
       </c>
       <c r="AL63" s="16">
         <f t="shared" si="10"/>
-        <v>1.0969655114602891E-2</v>
+        <v>1.4445432504124407E-2</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.3">
@@ -9575,13 +9584,13 @@
       <c r="AH64" s="9"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
-      <c r="AK64" s="13">
+      <c r="AK64" s="20">
         <f t="shared" si="9"/>
-        <v>2.0634498620837229E-5</v>
+        <v>2.7172618826179278E-5</v>
       </c>
       <c r="AL64" s="16">
         <f t="shared" si="10"/>
-        <v>1.1027390141521851E-2</v>
+        <v>1.4521461096251374E-2</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
@@ -9632,13 +9641,13 @@
       <c r="AH65" s="9"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
-      <c r="AK65" s="13">
+      <c r="AK65" s="20">
         <f t="shared" si="9"/>
-        <v>2.2412737449941273E-5</v>
+        <v>2.9514299463689973E-5</v>
       </c>
       <c r="AL65" s="16">
         <f t="shared" si="10"/>
-        <v>1.1085125168440815E-2</v>
+        <v>1.4597489688378347E-2</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.3">
@@ -9689,13 +9698,13 @@
       <c r="AH66" s="9"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
-      <c r="AK66" s="13">
+      <c r="AK66" s="20">
         <f t="shared" si="9"/>
-        <v>2.5241753768970439E-5</v>
+        <v>3.3239700477911526E-5</v>
       </c>
       <c r="AL66" s="16">
         <f t="shared" si="10"/>
-        <v>1.1142860195359778E-2</v>
+        <v>1.4673518280505317E-2</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
@@ -9746,13 +9755,13 @@
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
-      <c r="AK67" s="13">
+      <c r="AK67" s="20">
         <f t="shared" si="9"/>
-        <v>2.9687350841730561E-5</v>
+        <v>3.9093902071688261E-5</v>
       </c>
       <c r="AL67" s="16">
         <f t="shared" si="10"/>
-        <v>1.120059522227874E-2</v>
+        <v>1.4749546872632288E-2</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
@@ -9803,13 +9812,13 @@
       <c r="AH68" s="9"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
-      <c r="AK68" s="13">
+      <c r="AK68" s="20">
         <f t="shared" si="9"/>
-        <v>3.5992015781281274E-5</v>
+        <v>4.7396224331953443E-5</v>
       </c>
       <c r="AL68" s="16">
         <f t="shared" si="10"/>
-        <v>1.1258330249197703E-2</v>
+        <v>1.4825575464759258E-2</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
@@ -9860,13 +9869,13 @@
       <c r="AH69" s="9"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
-      <c r="AK69" s="13">
+      <c r="AK69" s="20">
         <f t="shared" si="9"/>
-        <v>3.9790980552549012E-5</v>
+        <v>5.2398905693908111E-5</v>
       </c>
       <c r="AL69" s="16">
         <f t="shared" si="10"/>
-        <v>1.1287197762657183E-2</v>
+        <v>1.4863589760822742E-2</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -9917,13 +9926,13 @@
       <c r="AH70" s="9"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
-      <c r="AK70" s="13">
+      <c r="AK70" s="20">
         <f t="shared" si="9"/>
-        <v>4.4559893776055328E-5</v>
+        <v>5.8678867403595886E-5</v>
       </c>
       <c r="AL70" s="16">
         <f t="shared" si="10"/>
-        <v>1.1316065276116664E-2</v>
+        <v>1.4901604056886229E-2</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
@@ -9974,13 +9983,13 @@
       <c r="AH71" s="9"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
-      <c r="AK71" s="13">
+      <c r="AK71" s="20">
         <f t="shared" si="9"/>
-        <v>4.9894610263367469E-5</v>
+        <v>6.570390931612796E-5</v>
       </c>
       <c r="AL71" s="16">
         <f t="shared" si="10"/>
-        <v>1.1344932789576148E-2</v>
+        <v>1.4939618352949715E-2</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
@@ -10031,13 +10040,13 @@
       <c r="AH72" s="9"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
-      <c r="AK72" s="13">
+      <c r="AK72" s="20">
         <f t="shared" si="9"/>
-        <v>5.6037617127545076E-5</v>
+        <v>7.3793351518437611E-5</v>
       </c>
       <c r="AL72" s="16">
         <f t="shared" si="10"/>
-        <v>1.1373800303035629E-2</v>
+        <v>1.49776326490132E-2</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.3">
@@ -10088,13 +10097,13 @@
       <c r="AH73" s="9"/>
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
-      <c r="AK73" s="13">
+      <c r="AK73" s="20">
         <f t="shared" si="9"/>
-        <v>6.2827256293215071E-5</v>
+        <v>8.2734313952569357E-5</v>
       </c>
       <c r="AL73" s="16">
         <f t="shared" si="10"/>
-        <v>1.1402667816495109E-2</v>
+        <v>1.5015646945076684E-2</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.3">
@@ -10145,13 +10154,13 @@
       <c r="AH74" s="9"/>
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
-      <c r="AK74" s="13">
+      <c r="AK74" s="20">
         <f t="shared" si="9"/>
-        <v>7.0344356798064011E-5</v>
+        <v>9.2633236647500931E-5</v>
       </c>
       <c r="AL74" s="16">
         <f t="shared" si="10"/>
-        <v>1.1431535329954589E-2</v>
+        <v>1.5053661241140168E-2</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
@@ -10208,11 +10217,11 @@
       <c r="AJ75" s="9"/>
       <c r="AK75" s="13">
         <f t="shared" si="9"/>
-        <v>7.818477345365912E-5</v>
+        <v>1.0295791945834353E-4</v>
       </c>
       <c r="AL75" s="16">
         <f t="shared" si="10"/>
-        <v>1.1460402843414071E-2</v>
+        <v>1.5091675537203654E-2</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
@@ -10279,11 +10288,11 @@
       <c r="AJ76" s="9"/>
       <c r="AK76" s="13">
         <f t="shared" si="9"/>
-        <v>8.7318454712238992E-5</v>
+        <v>1.1498564273283027E-4</v>
       </c>
       <c r="AL76" s="16">
         <f t="shared" si="10"/>
-        <v>1.1489270356873553E-2</v>
+        <v>1.5129689833267139E-2</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
@@ -10347,11 +10356,11 @@
       <c r="AJ77" s="9"/>
       <c r="AK77" s="13">
         <f t="shared" si="9"/>
-        <v>9.7179597309997822E-5</v>
+        <v>1.2797132626811685E-4</v>
       </c>
       <c r="AL77" s="16">
         <f t="shared" si="10"/>
-        <v>1.1518137870333036E-2</v>
+        <v>1.5167704129330628E-2</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.3">
@@ -10404,11 +10413,11 @@
       <c r="AJ78" s="9"/>
       <c r="AK78" s="13">
         <f t="shared" si="9"/>
-        <v>1.0687908183238351E-4</v>
+        <v>1.4074412974544786E-4</v>
       </c>
       <c r="AL78" s="16">
         <f t="shared" si="10"/>
-        <v>1.1547005383792516E-2</v>
+        <v>1.5205718425394111E-2</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.3">
@@ -10463,11 +10472,11 @@
       <c r="AJ79" s="9"/>
       <c r="AK79" s="13">
         <f t="shared" si="9"/>
-        <v>1.180334890331271E-4</v>
+        <v>1.554328537443786E-4</v>
       </c>
       <c r="AL79" s="16">
         <f t="shared" si="10"/>
-        <v>1.1575872897251996E-2</v>
+        <v>1.5243732721457594E-2</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
@@ -10525,11 +10534,11 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="13">
         <f t="shared" si="9"/>
-        <v>1.3096613506297471E-4</v>
+        <v>1.7246325838082E-4</v>
       </c>
       <c r="AL80" s="16">
         <f t="shared" si="10"/>
-        <v>1.1604740410711478E-2</v>
+        <v>1.5281747017521082E-2</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.3">
@@ -10586,12 +10595,12 @@
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
       <c r="AK81" s="13">
-        <f t="shared" si="9"/>
-        <v>1.4212054226371828E-4</v>
+        <f>SQRT(POWER((ABS(0.014*G85+3*0.00001)),2)/(1.73))</f>
+        <v>1.8715198237975069E-4</v>
       </c>
       <c r="AL81" s="16">
         <f t="shared" si="10"/>
-        <v>1.1633607924170959E-2</v>
+        <v>1.5319761313584567E-2</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.3">
@@ -10644,11 +10653,11 @@
       <c r="AJ82" s="9"/>
       <c r="AK82" s="13">
         <f t="shared" si="9"/>
-        <v>1.5780137557490852E-4</v>
+        <v>2.0780134800143593E-4</v>
       </c>
       <c r="AL82" s="16">
         <f t="shared" si="10"/>
-        <v>1.1662475437630441E-2</v>
+        <v>1.5357775609648053E-2</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.3">
@@ -10701,11 +10710,11 @@
       <c r="AJ83" s="9"/>
       <c r="AK83" s="13">
         <f t="shared" si="9"/>
-        <v>1.708148506424427E-4</v>
+        <v>2.2493819266685509E-4</v>
       </c>
       <c r="AL83" s="16">
         <f t="shared" si="10"/>
-        <v>1.1691342951089919E-2</v>
+        <v>1.5395789905711535E-2</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.3">
@@ -10758,11 +10767,11 @@
       <c r="AJ84" s="9"/>
       <c r="AK84" s="13">
         <f t="shared" si="9"/>
-        <v>1.8560656453908093E-4</v>
+        <v>2.4441671796978498E-4</v>
       </c>
       <c r="AL84" s="16">
         <f t="shared" si="10"/>
-        <v>1.1720210464549402E-2</v>
+        <v>1.5433804201775021E-2</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.3">
@@ -10815,11 +10824,11 @@
       <c r="AJ85" s="9"/>
       <c r="AK85" s="13">
         <f t="shared" si="9"/>
-        <v>2.0088325266183843E-4</v>
+        <v>2.6453388344658136E-4</v>
       </c>
       <c r="AL85" s="16">
         <f t="shared" si="10"/>
-        <v>1.1749077978008884E-2</v>
+        <v>1.5471818497838508E-2</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
@@ -10872,11 +10881,11 @@
       <c r="AJ86" s="9"/>
       <c r="AK86" s="13">
         <f t="shared" si="9"/>
-        <v>2.1915061517899814E-4</v>
+        <v>2.8858932999555482E-4</v>
       </c>
       <c r="AL86" s="16">
         <f t="shared" si="10"/>
-        <v>1.1777945491468367E-2</v>
+        <v>1.5509832793901994E-2</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.3">
@@ -10929,11 +10938,11 @@
       <c r="AJ87" s="9"/>
       <c r="AK87" s="13">
         <f t="shared" si="9"/>
-        <v>2.3499310656556149E-4</v>
+        <v>3.0945157567519553E-4</v>
       </c>
       <c r="AL87" s="16">
         <f t="shared" si="10"/>
-        <v>1.1806813004927847E-2</v>
+        <v>1.5547847089965478E-2</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.3">
@@ -10986,11 +10995,11 @@
       <c r="AJ88" s="9"/>
       <c r="AK88" s="13">
         <f t="shared" si="9"/>
-        <v>2.4921901719839387E-4</v>
+        <v>3.2818502077528112E-4</v>
       </c>
       <c r="AL88" s="16">
         <f t="shared" si="10"/>
-        <v>1.1835680518387329E-2</v>
+        <v>1.5585861386028963E-2</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.3">
@@ -11048,8 +11057,8 @@
       <c r="AH89" s="9"/>
       <c r="AI89" s="9"/>
       <c r="AJ89" s="9"/>
-      <c r="AK89" s="9"/>
-      <c r="AL89" s="9"/>
+      <c r="AK89" s="20"/>
+      <c r="AL89" s="16"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
@@ -11104,8 +11113,8 @@
       <c r="AH90" s="9"/>
       <c r="AI90" s="9"/>
       <c r="AJ90" s="9"/>
-      <c r="AK90" s="9"/>
-      <c r="AL90" s="9"/>
+      <c r="AK90" s="20"/>
+      <c r="AL90" s="16"/>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
@@ -11160,8 +11169,8 @@
       <c r="AH91" s="9"/>
       <c r="AI91" s="9"/>
       <c r="AJ91" s="9"/>
-      <c r="AK91" s="9"/>
-      <c r="AL91" s="9"/>
+      <c r="AK91" s="20"/>
+      <c r="AL91" s="16"/>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
@@ -11216,8 +11225,8 @@
       <c r="AH92" s="9"/>
       <c r="AI92" s="9"/>
       <c r="AJ92" s="9"/>
-      <c r="AK92" s="9"/>
-      <c r="AL92" s="9"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
